--- a/Excel_database/database_posturography.xlsx
+++ b/Excel_database/database_posturography.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" tabRatio="683" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Patient6_Healthy" sheetId="7" r:id="rId7"/>
     <sheet name="Statistical Analysis" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="139">
   <si>
     <t>Gender</t>
   </si>
@@ -320,6 +320,12 @@
     <t>Correlation coeficient between each muscle and each COP direction - Reach_R</t>
   </si>
   <si>
+    <t>Frequencys EMG  - OneFootStanding_R_EO</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - OneFootStanding_R_EO</t>
+  </si>
+  <si>
     <t>Peak Freq (Hz)</t>
   </si>
   <si>
@@ -338,7 +344,67 @@
     <t>Correlation coeficient between each muscle and each COP direction - Standing_EC</t>
   </si>
   <si>
+    <t>Frequencys EMG  - Standing_EO</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - Reach_L</t>
+  </si>
+  <si>
     <t>Correlation coeficient between each muscle and each COP direction - OneFootStanding_L_EC</t>
+  </si>
+  <si>
+    <t>Frequencys EMG  - Reach_L</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - Reach_C</t>
+  </si>
+  <si>
+    <t>Frequencys EMG  - Reach_C</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - Reach_Ground</t>
+  </si>
+  <si>
+    <t>Frequencys EMG  - Reach_Ground</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - OneFootStanding_R_EC</t>
+  </si>
+  <si>
+    <t>Frequencys EMG  - OneFootStanding_R_EC</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - OneFootStanding_L_EO</t>
+  </si>
+  <si>
+    <t>Frequencys EMG  - Standing_EC</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - Standing_EO</t>
+  </si>
+  <si>
+    <t>Frequencys EMG  - OneFootStanding_L_EC</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - Arms_extension</t>
+  </si>
+  <si>
+    <t>Frequencys EMG  - Arms_extension</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - Reach_R</t>
+  </si>
+  <si>
+    <t>Frequencys EMG  - OneFootStanding_L_EO</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - Standing_EC</t>
+  </si>
+  <si>
+    <t>Frequencys EMG  - Reach_R</t>
+  </si>
+  <si>
+    <t>Frequencys COP  - OneFootStanding_L_EC</t>
   </si>
   <si>
     <t>Height(cm)</t>
@@ -356,82 +422,22 @@
     <t>Dominant Hand</t>
   </si>
   <si>
+    <t>Frequencys EMG - OneFootStanding_R_EO</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
     <t>Karate</t>
   </si>
   <si>
-    <t>Frequencys EMG - OneFootStanding_R_EO</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - Standing_EO</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - Reach_L</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - Reach_C</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - OneFootStanding_R_EC</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - Standing_EC</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - OneFootStanding_L_EC</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - OneFootStanding_L_EO</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - Reach_R</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - OneFootStanding_R_EO</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - Reach_Ground</t>
-  </si>
-  <si>
-    <t>Frequencys EMG  - Arms_extension</t>
-  </si>
-  <si>
     <t>Frequencys COP - OneFootStanding_L_EC</t>
   </si>
   <si>
-    <t>Frequencys COP  - Standing_EC</t>
+    <t>Mean Value</t>
   </si>
   <si>
-    <t>Frequencys COP  - Reach_R</t>
-  </si>
-  <si>
-    <t>Frequencys COP  - Standing_EO</t>
-  </si>
-  <si>
-    <t>Frequencys COP  - OneFootStanding_L_EO</t>
-  </si>
-  <si>
-    <t>Frequencys COP  - OneFootStanding_R_EC</t>
-  </si>
-  <si>
-    <t>Frequencys COP  - Reach_C</t>
-  </si>
-  <si>
-    <t>Frequencys COP  - Reach_L</t>
-  </si>
-  <si>
-    <t>Frequencys COP  - OneFootStanding_R_EO</t>
-  </si>
-  <si>
-    <t>Frequencys COP  - OneFootStanding_L_EC</t>
-  </si>
-  <si>
-    <t>Frequencys COP  - Arms_extension</t>
-  </si>
-  <si>
-    <t>Frequencys COP  - Reach_Ground</t>
+    <t>STD Value</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,11 +570,90 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCC2BC"/>
+        <bgColor rgb="FFBCC2BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCC2BC"/>
+        <bgColor rgb="FFBCC2BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -577,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -601,6 +686,54 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A236" workbookViewId="0">
       <selection activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
@@ -5825,10 +5958,10 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="W258" s="6" t="s">
         <v>21</v>
@@ -5843,29 +5976,29 @@
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="19"/>
       <c r="B259" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D259" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E259" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J259" s="19"/>
       <c r="K259" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L259" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M259" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N259" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W259" s="6" t="s">
         <v>24</v>
@@ -5935,7 +6068,7 @@
         <v>351.5625</v>
       </c>
       <c r="J261" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K261">
         <v>0.53333333333333333</v>
@@ -6062,7 +6195,7 @@
         <v>333.984375</v>
       </c>
       <c r="W266" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.25">
@@ -6113,10 +6246,10 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="W270" s="6" t="s">
         <v>21</v>
@@ -6131,29 +6264,29 @@
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="19"/>
       <c r="B271" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D271" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E271" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J271" s="19"/>
       <c r="K271" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L271" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M271" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N271" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W271" s="6" t="s">
         <v>24</v>
@@ -6223,7 +6356,7 @@
         <v>394.53125</v>
       </c>
       <c r="J273" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K273">
         <v>0.33333333333333331</v>
@@ -6350,7 +6483,7 @@
         <v>298.828125</v>
       </c>
       <c r="W278" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.25">
@@ -6401,10 +6534,10 @@
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="W282" s="6" t="s">
         <v>21</v>
@@ -6419,29 +6552,29 @@
     <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" s="19"/>
       <c r="B283" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D283" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E283" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J283" s="19"/>
       <c r="K283" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L283" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M283" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N283" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W283" s="6" t="s">
         <v>24</v>
@@ -6511,7 +6644,7 @@
         <v>43.9453125</v>
       </c>
       <c r="J285" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K285">
         <v>0.33333333333333331</v>
@@ -6657,38 +6790,38 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="19"/>
       <c r="B295" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D295" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E295" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J295" s="19"/>
       <c r="K295" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L295" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M295" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N295" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
@@ -6740,7 +6873,7 @@
         <v>131.8359375</v>
       </c>
       <c r="J297" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K297">
         <v>0.2</v>
@@ -6859,38 +6992,38 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="19"/>
       <c r="B307" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D307" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E307" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J307" s="19"/>
       <c r="K307" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L307" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M307" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N307" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -6942,7 +7075,7 @@
         <v>192.3828125</v>
       </c>
       <c r="J309" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K309">
         <v>0.33333333333333331</v>
@@ -7061,38 +7194,38 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J318" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="J318" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="19"/>
       <c r="B319" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D319" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E319" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J319" s="19"/>
       <c r="K319" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L319" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M319" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N319" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -7144,7 +7277,7 @@
         <v>172.8515625</v>
       </c>
       <c r="J321" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K321">
         <v>6.6666666666666666E-2</v>
@@ -7266,35 +7399,35 @@
         <v>118</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="19"/>
       <c r="B331" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D331" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E331" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J331" s="19"/>
       <c r="K331" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L331" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M331" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N331" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -7346,7 +7479,7 @@
         <v>500</v>
       </c>
       <c r="J333" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K333">
         <v>6.6666666666666666E-2</v>
@@ -7465,38 +7598,38 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="19"/>
       <c r="B343" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C343" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D343" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E343" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J343" s="19"/>
       <c r="K343" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L343" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M343" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N343" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
@@ -7548,7 +7681,7 @@
         <v>195.3125</v>
       </c>
       <c r="J345" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K345">
         <v>0.25</v>
@@ -7667,38 +7800,38 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="19"/>
       <c r="B355" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C355" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D355" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E355" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J355" s="19"/>
       <c r="K355" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L355" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M355" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N355" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -7750,7 +7883,7 @@
         <v>240.234375</v>
       </c>
       <c r="J357" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K357">
         <v>0.16666666666666671</v>
@@ -7869,38 +8002,38 @@
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="19"/>
       <c r="B367" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D367" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E367" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J367" s="19"/>
       <c r="K367" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L367" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M367" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N367" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.25">
@@ -7952,7 +8085,7 @@
         <v>210.9375</v>
       </c>
       <c r="J369" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K369">
         <v>3.3333333333333333E-2</v>
@@ -8071,38 +8204,38 @@
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="19"/>
       <c r="B379" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C379" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D379" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E379" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J379" s="19"/>
       <c r="K379" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L379" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M379" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N379" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.25">
@@ -8154,7 +8287,7 @@
         <v>147.4609375</v>
       </c>
       <c r="J381" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K381">
         <v>0.35</v>
@@ -8280,7 +8413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y387"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" workbookViewId="0">
+    <sheetView topLeftCell="A229" workbookViewId="0">
       <selection activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
@@ -13191,10 +13324,10 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="W258" s="6" t="s">
         <v>21</v>
@@ -13209,29 +13342,29 @@
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E259" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J259" s="20"/>
       <c r="K259" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L259" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M259" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N259" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W259" s="6" t="s">
         <v>24</v>
@@ -13301,7 +13434,7 @@
         <v>253.90625</v>
       </c>
       <c r="J261" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K261">
         <v>3.3333333333333333E-2</v>
@@ -13428,7 +13561,7 @@
         <v>239.2578125</v>
       </c>
       <c r="W266" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.25">
@@ -13479,10 +13612,10 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="W270" s="6" t="s">
         <v>21</v>
@@ -13497,29 +13630,29 @@
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E271" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J271" s="20"/>
       <c r="K271" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L271" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M271" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N271" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W271" s="6" t="s">
         <v>24</v>
@@ -13589,7 +13722,7 @@
         <v>500</v>
       </c>
       <c r="J273" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K273">
         <v>0.16666666666666671</v>
@@ -13716,7 +13849,7 @@
         <v>228.515625</v>
       </c>
       <c r="W278" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.25">
@@ -13767,10 +13900,10 @@
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="W282" s="6" t="s">
         <v>21</v>
@@ -13785,29 +13918,29 @@
     <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E283" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J283" s="20"/>
       <c r="K283" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L283" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M283" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N283" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W283" s="6" t="s">
         <v>24</v>
@@ -13877,7 +14010,7 @@
         <v>282.2265625</v>
       </c>
       <c r="J285" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K285">
         <v>0.16666666666666671</v>
@@ -14023,38 +14156,38 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D295" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E295" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J295" s="20"/>
       <c r="K295" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L295" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M295" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N295" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
@@ -14106,7 +14239,7 @@
         <v>240.234375</v>
       </c>
       <c r="J297" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K297">
         <v>0.11906179307060361</v>
@@ -14225,38 +14358,38 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E307" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J307" s="20"/>
       <c r="K307" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L307" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M307" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N307" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -14308,7 +14441,7 @@
         <v>270.5078125</v>
       </c>
       <c r="J309" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K309">
         <v>1.428571428571429E-2</v>
@@ -14427,38 +14560,38 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J318" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="J318" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E319" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J319" s="20"/>
       <c r="K319" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L319" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M319" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N319" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -14510,7 +14643,7 @@
         <v>202.1484375</v>
       </c>
       <c r="J321" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K321">
         <v>0.1</v>
@@ -14632,35 +14765,35 @@
         <v>118</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="20"/>
       <c r="B331" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D331" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E331" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J331" s="20"/>
       <c r="K331" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L331" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M331" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N331" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -14712,7 +14845,7 @@
         <v>497.0703125</v>
       </c>
       <c r="J333" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K333">
         <v>0.1</v>
@@ -14831,38 +14964,38 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="20"/>
       <c r="B343" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C343" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D343" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E343" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J343" s="20"/>
       <c r="K343" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L343" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M343" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N343" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
@@ -14914,7 +15047,7 @@
         <v>300.78125</v>
       </c>
       <c r="J345" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K345">
         <v>3.3333333333333333E-2</v>
@@ -15033,38 +15166,38 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="20"/>
       <c r="B355" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C355" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D355" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E355" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J355" s="20"/>
       <c r="K355" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L355" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M355" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N355" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -15116,7 +15249,7 @@
         <v>456.0546875</v>
       </c>
       <c r="J357" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K357">
         <v>0.16666666666666671</v>
@@ -15235,38 +15368,38 @@
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="20"/>
       <c r="B367" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C367" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D367" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E367" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J367" s="20"/>
       <c r="K367" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L367" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M367" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N367" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.25">
@@ -15318,7 +15451,7 @@
         <v>298.828125</v>
       </c>
       <c r="J369" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K369">
         <v>3.3333333333333333E-2</v>
@@ -15437,38 +15570,38 @@
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="20"/>
       <c r="B379" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C379" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D379" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E379" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J379" s="20"/>
       <c r="K379" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L379" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M379" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N379" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.25">
@@ -15520,7 +15653,7 @@
         <v>303.7109375</v>
       </c>
       <c r="J381" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K381">
         <v>0.1</v>
@@ -15646,7 +15779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y363"/>
   <sheetViews>
-    <sheetView topLeftCell="A345" workbookViewId="0">
+    <sheetView topLeftCell="A209" workbookViewId="0">
       <selection activeCell="J354" sqref="J354"/>
     </sheetView>
   </sheetViews>
@@ -15660,7 +15793,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2">
         <v>160</v>
@@ -15674,7 +15807,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2">
         <v>67</v>
@@ -15688,15 +15821,15 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -19688,7 +19821,7 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="W242" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.25">
@@ -19795,7 +19928,7 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="W254" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
@@ -19831,10 +19964,10 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="W258" s="9" t="s">
         <v>21</v>
@@ -19849,29 +19982,29 @@
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
       <c r="B259" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E259" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J259" s="7"/>
       <c r="K259" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L259" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M259" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N259" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W259" s="9" t="s">
         <v>24</v>
@@ -19941,7 +20074,7 @@
         <v>248.046875</v>
       </c>
       <c r="J261" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K261">
         <v>0.14285714285714279</v>
@@ -20087,38 +20220,38 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
       <c r="B271" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J271" s="7"/>
       <c r="K271" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L271" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M271" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N271" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
@@ -20170,7 +20303,7 @@
         <v>263.671875</v>
       </c>
       <c r="J273" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K273">
         <v>0.5</v>
@@ -20289,38 +20422,38 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
       <c r="B283" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J283" s="7"/>
       <c r="K283" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L283" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M283" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N283" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -20372,7 +20505,7 @@
         <v>125</v>
       </c>
       <c r="J285" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K285">
         <v>0.16666666666666671</v>
@@ -20491,38 +20624,38 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
       <c r="B295" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J295" s="7"/>
       <c r="K295" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L295" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M295" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N295" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
@@ -20574,7 +20707,7 @@
         <v>308.59375</v>
       </c>
       <c r="J297" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K297">
         <v>3.3333333333333333E-2</v>
@@ -20693,7 +20826,7 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J306" s="3" t="s">
         <v>91</v>
@@ -20702,29 +20835,29 @@
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="7"/>
       <c r="B307" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J307" s="7"/>
       <c r="K307" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L307" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M307" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N307" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -20776,7 +20909,7 @@
         <v>181.640625</v>
       </c>
       <c r="J309" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K309">
         <v>2.5000000000000001E-2</v>
@@ -20898,35 +21031,35 @@
         <v>118</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="7"/>
       <c r="B319" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E319" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J319" s="7"/>
       <c r="K319" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L319" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M319" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N319" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -20978,7 +21111,7 @@
         <v>197.265625</v>
       </c>
       <c r="J321" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K321">
         <v>0.29411764705882348</v>
@@ -21097,38 +21230,38 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="7"/>
       <c r="B331" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E331" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J331" s="7"/>
       <c r="K331" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L331" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M331" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N331" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -21180,7 +21313,7 @@
         <v>156.25</v>
       </c>
       <c r="J333" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K333">
         <v>0.16666666666666671</v>
@@ -21299,38 +21432,38 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="7"/>
       <c r="B343" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E343" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J343" s="7"/>
       <c r="K343" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L343" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M343" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N343" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
@@ -21382,7 +21515,7 @@
         <v>178.7109375</v>
       </c>
       <c r="J345" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K345">
         <v>3.2258064516129031E-2</v>
@@ -21501,38 +21634,38 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="7"/>
       <c r="B355" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E355" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J355" s="7"/>
       <c r="K355" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L355" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M355" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N355" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -21584,7 +21717,7 @@
         <v>68.359375</v>
       </c>
       <c r="J357" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K357">
         <v>0.05</v>
@@ -21710,7 +21843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y363"/>
   <sheetViews>
-    <sheetView topLeftCell="A357" workbookViewId="0">
+    <sheetView topLeftCell="A208" workbookViewId="0">
       <selection activeCell="J354" sqref="J354"/>
     </sheetView>
   </sheetViews>
@@ -21721,10 +21854,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2">
         <v>183</v>
@@ -21738,7 +21871,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2">
         <v>83</v>
@@ -21752,15 +21885,15 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -25752,7 +25885,7 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="W242" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.25">
@@ -25859,7 +25992,7 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="W254" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
@@ -25895,10 +26028,10 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="W258" s="11" t="s">
         <v>21</v>
@@ -25913,29 +26046,29 @@
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J259" s="12"/>
       <c r="K259" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L259" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M259" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N259" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W259" s="11" t="s">
         <v>24</v>
@@ -26005,7 +26138,7 @@
         <v>280.2734375</v>
       </c>
       <c r="J261" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K261">
         <v>3.3333333333333333E-2</v>
@@ -26151,38 +26284,38 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J271" s="12"/>
       <c r="K271" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L271" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M271" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N271" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
@@ -26234,7 +26367,7 @@
         <v>500</v>
       </c>
       <c r="J273" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K273">
         <v>0.25</v>
@@ -26353,38 +26486,38 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J283" s="12"/>
       <c r="K283" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L283" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M283" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N283" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -26436,7 +26569,7 @@
         <v>175.78125</v>
       </c>
       <c r="J285" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K285">
         <v>0.33333333333333331</v>
@@ -26555,38 +26688,38 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J295" s="12"/>
       <c r="K295" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L295" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M295" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N295" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
@@ -26638,7 +26771,7 @@
         <v>220.703125</v>
       </c>
       <c r="J297" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K297">
         <v>3.3333333333333333E-2</v>
@@ -26757,38 +26890,38 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J306" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="J306" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
       <c r="B307" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J307" s="12"/>
       <c r="K307" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L307" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M307" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N307" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -26840,7 +26973,7 @@
         <v>296.875</v>
       </c>
       <c r="J309" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K309">
         <v>5.4054054054054057E-2</v>
@@ -26962,35 +27095,35 @@
         <v>118</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J319" s="12"/>
       <c r="K319" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L319" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M319" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N319" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -27042,7 +27175,7 @@
         <v>322.265625</v>
       </c>
       <c r="J321" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K321">
         <v>6.6666666666666666E-2</v>
@@ -27161,38 +27294,38 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J331" s="12"/>
       <c r="K331" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L331" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M331" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N331" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -27244,7 +27377,7 @@
         <v>266.6015625</v>
       </c>
       <c r="J333" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K333">
         <v>0.5</v>
@@ -27363,38 +27496,38 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
       <c r="B343" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J343" s="12"/>
       <c r="K343" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L343" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M343" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N343" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
@@ -27446,7 +27579,7 @@
         <v>342.7734375</v>
       </c>
       <c r="J345" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K345">
         <v>6.6666666666666666E-2</v>
@@ -27565,38 +27698,38 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E355" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J355" s="12"/>
       <c r="K355" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L355" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M355" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N355" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -27648,7 +27781,7 @@
         <v>108.3984375</v>
       </c>
       <c r="J357" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K357">
         <v>7.6923076923076927E-2</v>
@@ -27774,7 +27907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y363"/>
   <sheetViews>
-    <sheetView topLeftCell="A329" workbookViewId="0">
+    <sheetView topLeftCell="A216" workbookViewId="0">
       <selection activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
@@ -27785,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2">
         <v>190</v>
@@ -27802,7 +27935,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2">
         <v>88</v>
@@ -27816,15 +27949,15 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -31816,7 +31949,7 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="W242" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.25">
@@ -31923,7 +32056,7 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="W254" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
@@ -31959,10 +32092,10 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="W258" s="11" t="s">
         <v>21</v>
@@ -31977,29 +32110,29 @@
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J259" s="12"/>
       <c r="K259" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L259" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M259" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N259" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W259" s="11" t="s">
         <v>24</v>
@@ -32069,7 +32202,7 @@
         <v>233.3984375</v>
       </c>
       <c r="J261" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K261">
         <v>3.2258064516129031E-2</v>
@@ -32215,38 +32348,38 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J271" s="12"/>
       <c r="K271" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L271" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M271" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N271" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
@@ -32298,7 +32431,7 @@
         <v>202.1484375</v>
       </c>
       <c r="J273" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K273">
         <v>0.2</v>
@@ -32417,38 +32550,38 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J283" s="12"/>
       <c r="K283" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L283" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M283" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N283" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -32500,7 +32633,7 @@
         <v>146.484375</v>
       </c>
       <c r="J285" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K285">
         <v>0.1111111111111111</v>
@@ -32619,38 +32752,38 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E295" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J295" s="12"/>
       <c r="K295" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L295" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M295" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N295" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
@@ -32702,7 +32835,7 @@
         <v>142.578125</v>
       </c>
       <c r="J297" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K297">
         <v>6.6666666666666666E-2</v>
@@ -32821,38 +32954,38 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J306" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="J306" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
       <c r="B307" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E307" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J307" s="12"/>
       <c r="K307" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L307" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M307" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N307" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -32904,7 +33037,7 @@
         <v>183.59375</v>
       </c>
       <c r="J309" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K309">
         <v>2.9411764705882349E-2</v>
@@ -33026,35 +33159,35 @@
         <v>118</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E319" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J319" s="12"/>
       <c r="K319" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L319" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M319" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N319" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -33106,7 +33239,7 @@
         <v>127.9296875</v>
       </c>
       <c r="J321" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K321">
         <v>3.3333333333333333E-2</v>
@@ -33225,38 +33358,38 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J331" s="12"/>
       <c r="K331" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L331" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M331" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N331" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -33308,7 +33441,7 @@
         <v>154.296875</v>
       </c>
       <c r="J333" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K333">
         <v>0.3</v>
@@ -33427,38 +33560,38 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
       <c r="B343" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J343" s="12"/>
       <c r="K343" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L343" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M343" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N343" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
@@ -33510,7 +33643,7 @@
         <v>151.3671875</v>
       </c>
       <c r="J345" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K345">
         <v>3.3333333333333333E-2</v>
@@ -33629,38 +33762,38 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E355" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J355" s="12"/>
       <c r="K355" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L355" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M355" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N355" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -33712,7 +33845,7 @@
         <v>159.1796875</v>
       </c>
       <c r="J357" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K357">
         <v>0.96666666666666667</v>
@@ -33838,8 +33971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y387"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="H258" sqref="H258"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="Q112" sqref="Q112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33852,7 +33985,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2">
         <v>163</v>
@@ -33866,7 +33999,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2">
         <v>55</v>
@@ -33880,15 +34013,15 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -37880,7 +38013,7 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="W242" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.25">
@@ -37987,7 +38120,7 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="W254" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
@@ -38023,10 +38156,10 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="W258" s="14" t="s">
         <v>21</v>
@@ -38041,29 +38174,29 @@
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" s="15"/>
       <c r="B259" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E259" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J259" s="15"/>
       <c r="K259" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L259" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M259" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N259" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W259" s="14" t="s">
         <v>24</v>
@@ -38133,7 +38266,7 @@
         <v>273.4375</v>
       </c>
       <c r="J261" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K261">
         <v>3.3333333333333333E-2</v>
@@ -38279,38 +38412,38 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" s="15"/>
       <c r="B271" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D271" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E271" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J271" s="15"/>
       <c r="K271" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L271" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M271" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N271" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
@@ -38362,7 +38495,7 @@
         <v>202.1484375</v>
       </c>
       <c r="J273" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K273">
         <v>0.1</v>
@@ -38481,38 +38614,38 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="15"/>
       <c r="B283" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D283" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E283" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J283" s="15"/>
       <c r="K283" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L283" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M283" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N283" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -38564,7 +38697,7 @@
         <v>251.953125</v>
       </c>
       <c r="J285" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K285">
         <v>0.3</v>
@@ -38683,38 +38816,38 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="15"/>
       <c r="B295" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D295" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E295" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J295" s="15"/>
       <c r="K295" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L295" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M295" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N295" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
@@ -38766,7 +38899,7 @@
         <v>119.140625</v>
       </c>
       <c r="J297" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K297">
         <v>0.4</v>
@@ -38885,38 +39018,38 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J306" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="J306" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="15"/>
       <c r="B307" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D307" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E307" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J307" s="15"/>
       <c r="K307" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L307" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M307" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N307" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -38968,7 +39101,7 @@
         <v>184.5703125</v>
       </c>
       <c r="J309" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K309">
         <v>7.1428571428571425E-2</v>
@@ -39090,35 +39223,35 @@
         <v>118</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="15"/>
       <c r="B319" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C319" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D319" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E319" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J319" s="15"/>
       <c r="K319" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L319" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M319" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N319" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -39170,7 +39303,7 @@
         <v>341.796875</v>
       </c>
       <c r="J321" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K321">
         <v>0.1333333333333333</v>
@@ -39289,38 +39422,38 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="15"/>
       <c r="B331" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C331" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E331" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J331" s="15"/>
       <c r="K331" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L331" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M331" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N331" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -39372,7 +39505,7 @@
         <v>114.2578125</v>
       </c>
       <c r="J333" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K333">
         <v>0.25</v>
@@ -39491,38 +39624,38 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="15"/>
       <c r="B343" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C343" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D343" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E343" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J343" s="15"/>
       <c r="K343" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L343" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M343" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N343" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
@@ -39574,7 +39707,7 @@
         <v>190.4296875</v>
       </c>
       <c r="J345" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K345">
         <v>3.3333333333333333E-2</v>
@@ -39693,38 +39826,38 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="15"/>
       <c r="B355" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E355" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J355" s="15"/>
       <c r="K355" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L355" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M355" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N355" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -39776,7 +39909,7 @@
         <v>170.8984375</v>
       </c>
       <c r="J357" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K357">
         <v>0.2</v>
@@ -40140,14 +40273,5115 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A6:T228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I227" sqref="I227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="14" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="Q7" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="45"/>
+      <c r="S7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="45"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="21">
+        <f>AVERAGE(Patient1_Healthy!B8,Patient2_Healthy!B8,Patient3_Healthy!B8,Patient4_Healthy!B8,Patient5_Healthy!B8,Patient6_Healthy!B8)</f>
+        <v>21.167924162033568</v>
+      </c>
+      <c r="C9" s="21">
+        <f>STDEV(Patient1_Healthy!B8,Patient2_Healthy!B8,Patient3_Healthy!B8,Patient4_Healthy!B8,Patient5_Healthy!B8,Patient6_Healthy!B8)</f>
+        <v>31.378612085973177</v>
+      </c>
+      <c r="D9" s="21">
+        <f>AVERAGE(Patient1_Healthy!C8,Patient2_Healthy!C8,Patient3_Healthy!C8,Patient4_Healthy!C8,Patient5_Healthy!C8,Patient6_Healthy!C8)</f>
+        <v>7.4532796436881759</v>
+      </c>
+      <c r="E9" s="21">
+        <f>STDEV(Patient1_Healthy!C8,Patient2_Healthy!C8,Patient3_Healthy!C8,Patient4_Healthy!C8,Patient5_Healthy!C8,Patient6_Healthy!C8)</f>
+        <v>5.7243471946914504</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGE(Patient1_Healthy!I8,Patient2_Healthy!I8,Patient3_Healthy!I8,Patient4_Healthy!I8,Patient5_Healthy!I8,Patient6_Healthy!I8)</f>
+        <v>8.0096834956820254E-2</v>
+      </c>
+      <c r="J9">
+        <f>STDEV(Patient1_Healthy!I8,Patient2_Healthy!I8,Patient3_Healthy!I8,Patient4_Healthy!I8,Patient5_Healthy!I8,Patient6_Healthy!I8)</f>
+        <v>1.316418274478061E-2</v>
+      </c>
+      <c r="K9" s="26">
+        <f>AVERAGE(Patient1_Healthy!J8,Patient2_Healthy!J8,Patient3_Healthy!J8,Patient4_Healthy!J8,Patient5_Healthy!J8,Patient6_Healthy!J8)</f>
+        <v>9.1902996434806053E-2</v>
+      </c>
+      <c r="L9">
+        <f>STDEV(Patient1_Healthy!J8,Patient2_Healthy!J8,Patient3_Healthy!J8,Patient4_Healthy!J8,Patient5_Healthy!J8,Patient6_Healthy!J8)</f>
+        <v>5.0733104549050397E-2</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9">
+        <f>AVERAGE(Patient1_Healthy!Q8,Patient2_Healthy!Q8,Patient3_Healthy!Q8,Patient4_Healthy!Q8,Patient5_Healthy!Q8,Patient6_Healthy!Q8)</f>
+        <v>0.20397795891391376</v>
+      </c>
+      <c r="R9">
+        <f>STDEV(Patient1_Healthy!Q8,Patient2_Healthy!Q8,Patient3_Healthy!Q8,Patient4_Healthy!Q8,Patient5_Healthy!Q8,Patient6_Healthy!Q8)</f>
+        <v>0.71275445120884051</v>
+      </c>
+      <c r="S9" s="26">
+        <f>AVERAGE(Patient1_Healthy!R8,Patient2_Healthy!R8,Patient3_Healthy!R8,Patient4_Healthy!R8,Patient5_Healthy!R8,Patient6_Healthy!R8)</f>
+        <v>0.12433142439716266</v>
+      </c>
+      <c r="T9">
+        <f>STDEV(Patient1_Healthy!R8,Patient2_Healthy!R8,Patient3_Healthy!R8,Patient4_Healthy!R8,Patient5_Healthy!R8,Patient6_Healthy!R8)</f>
+        <v>0.74776658199482482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="21">
+        <f>AVERAGE(Patient1_Healthy!B9,Patient2_Healthy!B9,Patient3_Healthy!B9,Patient4_Healthy!B9,Patient5_Healthy!B9,Patient6_Healthy!B9)</f>
+        <v>20.272790922098004</v>
+      </c>
+      <c r="C10" s="21">
+        <f>STDEV(Patient1_Healthy!B9,Patient2_Healthy!B9,Patient3_Healthy!B9,Patient4_Healthy!B9,Patient5_Healthy!B9,Patient6_Healthy!B9)</f>
+        <v>7.8330275927330275</v>
+      </c>
+      <c r="D10" s="21">
+        <f>AVERAGE(Patient1_Healthy!C9,Patient2_Healthy!C9,Patient3_Healthy!C9,Patient4_Healthy!C9,Patient5_Healthy!C9,Patient6_Healthy!C9)</f>
+        <v>22.678801496860221</v>
+      </c>
+      <c r="E10" s="21">
+        <f>STDEV(Patient1_Healthy!C9,Patient2_Healthy!C9,Patient3_Healthy!C9,Patient4_Healthy!C9,Patient5_Healthy!C9,Patient6_Healthy!C9)</f>
+        <v>14.121434101910081</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGE(Patient1_Healthy!I9,Patient2_Healthy!I9,Patient3_Healthy!I9,Patient4_Healthy!I9,Patient5_Healthy!I9,Patient6_Healthy!I9)</f>
+        <v>8.9530167200691069E-2</v>
+      </c>
+      <c r="J10">
+        <f>STDEV(Patient1_Healthy!I9,Patient2_Healthy!I9,Patient3_Healthy!I9,Patient4_Healthy!I9,Patient5_Healthy!I9,Patient6_Healthy!I9)</f>
+        <v>3.735829361782015E-2</v>
+      </c>
+      <c r="K10" s="26">
+        <f>AVERAGE(Patient1_Healthy!J9,Patient2_Healthy!J9,Patient3_Healthy!J9,Patient4_Healthy!J9,Patient5_Healthy!J9,Patient6_Healthy!J9)</f>
+        <v>8.0135149423657542E-2</v>
+      </c>
+      <c r="L10">
+        <f>STDEV(Patient1_Healthy!J9,Patient2_Healthy!J9,Patient3_Healthy!J9,Patient4_Healthy!J9,Patient5_Healthy!J9,Patient6_Healthy!J9)</f>
+        <v>3.086955148017332E-2</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10">
+        <f>AVERAGE(Patient1_Healthy!Q9,Patient2_Healthy!Q9,Patient3_Healthy!Q9,Patient4_Healthy!Q9,Patient5_Healthy!Q9,Patient6_Healthy!Q9)</f>
+        <v>6.0829829248557319</v>
+      </c>
+      <c r="R10">
+        <f>STDEV(Patient1_Healthy!Q9,Patient2_Healthy!Q9,Patient3_Healthy!Q9,Patient4_Healthy!Q9,Patient5_Healthy!Q9,Patient6_Healthy!Q9)</f>
+        <v>1.3704296985396549</v>
+      </c>
+      <c r="S10" s="26">
+        <f>AVERAGE(Patient1_Healthy!R9,Patient2_Healthy!R9,Patient3_Healthy!R9,Patient4_Healthy!R9,Patient5_Healthy!R9,Patient6_Healthy!R9)</f>
+        <v>9.5980848520796727</v>
+      </c>
+      <c r="T10">
+        <f>STDEV(Patient1_Healthy!R9,Patient2_Healthy!R9,Patient3_Healthy!R9,Patient4_Healthy!R9,Patient5_Healthy!R9,Patient6_Healthy!R9)</f>
+        <v>2.7265079067763378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="21">
+        <f>AVERAGE(Patient1_Healthy!B10,Patient2_Healthy!B10,Patient3_Healthy!B10,Patient4_Healthy!B10,Patient5_Healthy!B10,Patient6_Healthy!B10)</f>
+        <v>8.3735110301812625</v>
+      </c>
+      <c r="C11" s="21">
+        <f>STDEV(Patient1_Healthy!B10,Patient2_Healthy!B10,Patient3_Healthy!B10,Patient4_Healthy!B10,Patient5_Healthy!B10,Patient6_Healthy!B10)</f>
+        <v>3.8061096130248715</v>
+      </c>
+      <c r="D11" s="21">
+        <f>AVERAGE(Patient1_Healthy!C10,Patient2_Healthy!C10,Patient3_Healthy!C10,Patient4_Healthy!C10,Patient5_Healthy!C10,Patient6_Healthy!C10)</f>
+        <v>6.2520500725713761</v>
+      </c>
+      <c r="E11" s="21">
+        <f>STDEV(Patient1_Healthy!C10,Patient2_Healthy!C10,Patient3_Healthy!C10,Patient4_Healthy!C10,Patient5_Healthy!C10,Patient6_Healthy!C10)</f>
+        <v>3.3169189737265428</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(Patient1_Healthy!I10,Patient2_Healthy!I10,Patient3_Healthy!I10,Patient4_Healthy!I10,Patient5_Healthy!I10,Patient6_Healthy!I10)</f>
+        <v>0.12797151675179033</v>
+      </c>
+      <c r="J11">
+        <f>STDEV(Patient1_Healthy!I10,Patient2_Healthy!I10,Patient3_Healthy!I10,Patient4_Healthy!I10,Patient5_Healthy!I10,Patient6_Healthy!I10)</f>
+        <v>4.9581141526559E-2</v>
+      </c>
+      <c r="K11" s="26">
+        <f>AVERAGE(Patient1_Healthy!J10,Patient2_Healthy!J10,Patient3_Healthy!J10,Patient4_Healthy!J10,Patient5_Healthy!J10,Patient6_Healthy!J10)</f>
+        <v>9.6850066655821243E-2</v>
+      </c>
+      <c r="L11">
+        <f>STDEV(Patient1_Healthy!J10,Patient2_Healthy!J10,Patient3_Healthy!J10,Patient4_Healthy!J10,Patient5_Healthy!J10,Patient6_Healthy!J10)</f>
+        <v>4.1215601369019285E-2</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11">
+        <f>AVERAGE(Patient1_Healthy!Q10,Patient2_Healthy!Q10,Patient3_Healthy!Q10,Patient4_Healthy!Q10,Patient5_Healthy!Q10,Patient6_Healthy!Q10)</f>
+        <v>37.625940774351534</v>
+      </c>
+      <c r="R11">
+        <f>STDEV(Patient1_Healthy!Q10,Patient2_Healthy!Q10,Patient3_Healthy!Q10,Patient4_Healthy!Q10,Patient5_Healthy!Q10,Patient6_Healthy!Q10)</f>
+        <v>11.043462681707737</v>
+      </c>
+      <c r="S11" s="26">
+        <f>AVERAGE(Patient1_Healthy!R10,Patient2_Healthy!R10,Patient3_Healthy!R10,Patient4_Healthy!R10,Patient5_Healthy!R10,Patient6_Healthy!R10)</f>
+        <v>52.199799181019564</v>
+      </c>
+      <c r="T11">
+        <f>STDEV(Patient1_Healthy!R10,Patient2_Healthy!R10,Patient3_Healthy!R10,Patient4_Healthy!R10,Patient5_Healthy!R10,Patient6_Healthy!R10)</f>
+        <v>6.9906372921213498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="21">
+        <f>AVERAGE(Patient1_Healthy!B11,Patient2_Healthy!B11,Patient3_Healthy!B11,Patient4_Healthy!B11,Patient5_Healthy!B11,Patient6_Healthy!B11)</f>
+        <v>11.124046390343894</v>
+      </c>
+      <c r="C12" s="21">
+        <f>STDEV(Patient1_Healthy!B11,Patient2_Healthy!B11,Patient3_Healthy!B11,Patient4_Healthy!B11,Patient5_Healthy!B11,Patient6_Healthy!B11)</f>
+        <v>4.6423216634769551</v>
+      </c>
+      <c r="D12" s="21">
+        <f>AVERAGE(Patient1_Healthy!C11,Patient2_Healthy!C11,Patient3_Healthy!C11,Patient4_Healthy!C11,Patient5_Healthy!C11,Patient6_Healthy!C11)</f>
+        <v>11.146449516233851</v>
+      </c>
+      <c r="E12" s="21">
+        <f>STDEV(Patient1_Healthy!C11,Patient2_Healthy!C11,Patient3_Healthy!C11,Patient4_Healthy!C11,Patient5_Healthy!C11,Patient6_Healthy!C11)</f>
+        <v>4.1028669759163705</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(Patient1_Healthy!I11,Patient2_Healthy!I11,Patient3_Healthy!I11,Patient4_Healthy!I11,Patient5_Healthy!I11,Patient6_Healthy!I11)</f>
+        <v>9.794041612134767E-2</v>
+      </c>
+      <c r="J12">
+        <f>STDEV(Patient1_Healthy!I11,Patient2_Healthy!I11,Patient3_Healthy!I11,Patient4_Healthy!I11,Patient5_Healthy!I11,Patient6_Healthy!I11)</f>
+        <v>5.4857567115642859E-2</v>
+      </c>
+      <c r="K12" s="26">
+        <f>AVERAGE(Patient1_Healthy!J11,Patient2_Healthy!J11,Patient3_Healthy!J11,Patient4_Healthy!J11,Patient5_Healthy!J11,Patient6_Healthy!J11)</f>
+        <v>0.110062767985648</v>
+      </c>
+      <c r="L12">
+        <f>STDEV(Patient1_Healthy!J11,Patient2_Healthy!J11,Patient3_Healthy!J11,Patient4_Healthy!J11,Patient5_Healthy!J11,Patient6_Healthy!J11)</f>
+        <v>3.1057765070005808E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(Patient1_Healthy!I12,Patient2_Healthy!I12,Patient3_Healthy!I12,Patient4_Healthy!I12,Patient5_Healthy!I12,Patient6_Healthy!I12)</f>
+        <v>0.11038955315670133</v>
+      </c>
+      <c r="J13">
+        <f>STDEV(Patient1_Healthy!I12,Patient2_Healthy!I12,Patient3_Healthy!I12,Patient4_Healthy!I12,Patient5_Healthy!I12,Patient6_Healthy!I12)</f>
+        <v>4.3413009697833266E-2</v>
+      </c>
+      <c r="K13" s="26">
+        <f>AVERAGE(Patient1_Healthy!J12,Patient2_Healthy!J12,Patient3_Healthy!J12,Patient4_Healthy!J12,Patient5_Healthy!J12,Patient6_Healthy!J12)</f>
+        <v>0.10519467562880576</v>
+      </c>
+      <c r="L13">
+        <f>STDEV(Patient1_Healthy!J12,Patient2_Healthy!J12,Patient3_Healthy!J12,Patient4_Healthy!J12,Patient5_Healthy!J12,Patient6_Healthy!J12)</f>
+        <v>5.3128449522372917E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(Patient1_Healthy!I13,Patient2_Healthy!I13,Patient3_Healthy!I13,Patient4_Healthy!I13,Patient5_Healthy!I13,Patient6_Healthy!I13)</f>
+        <v>9.53898711607125E-2</v>
+      </c>
+      <c r="J14">
+        <f>STDEV(Patient1_Healthy!I13,Patient2_Healthy!I13,Patient3_Healthy!I13,Patient4_Healthy!I13,Patient5_Healthy!I13,Patient6_Healthy!I13)</f>
+        <v>2.728735945019203E-2</v>
+      </c>
+      <c r="K14" s="26">
+        <f>AVERAGE(Patient1_Healthy!J13,Patient2_Healthy!J13,Patient3_Healthy!J13,Patient4_Healthy!J13,Patient5_Healthy!J13,Patient6_Healthy!J13)</f>
+        <v>8.5471741921628749E-2</v>
+      </c>
+      <c r="L14">
+        <f>STDEV(Patient1_Healthy!J13,Patient2_Healthy!J13,Patient3_Healthy!J13,Patient4_Healthy!J13,Patient5_Healthy!J13,Patient6_Healthy!J13)</f>
+        <v>2.8623686233626443E-2</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(Patient1_Healthy!I14,Patient2_Healthy!I14,Patient3_Healthy!I14,Patient4_Healthy!I14,Patient5_Healthy!I14,Patient6_Healthy!I14)</f>
+        <v>0.1453380601533715</v>
+      </c>
+      <c r="J15">
+        <f>STDEV(Patient1_Healthy!I14,Patient2_Healthy!I14,Patient3_Healthy!I14,Patient4_Healthy!I14,Patient5_Healthy!I14,Patient6_Healthy!I14)</f>
+        <v>8.2376546385353383E-2</v>
+      </c>
+      <c r="K15" s="26">
+        <f>AVERAGE(Patient1_Healthy!J14,Patient2_Healthy!J14,Patient3_Healthy!J14,Patient4_Healthy!J14,Patient5_Healthy!J14,Patient6_Healthy!J14)</f>
+        <v>0.13180563717510776</v>
+      </c>
+      <c r="L15">
+        <f>STDEV(Patient1_Healthy!J14,Patient2_Healthy!J14,Patient3_Healthy!J14,Patient4_Healthy!J14,Patient5_Healthy!J14,Patient6_Healthy!J14)</f>
+        <v>6.6875182999582242E-2</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15">
+        <f>AVERAGE(Patient1_Healthy!Q13,Patient2_Healthy!Q13,Patient3_Healthy!Q13,Patient4_Healthy!Q13,Patient5_Healthy!Q13,Patient6_Healthy!Q13)</f>
+        <v>926.24259297734841</v>
+      </c>
+      <c r="R15" s="26">
+        <f>STDEV(Patient1_Healthy!Q13,Patient2_Healthy!Q13,Patient3_Healthy!Q13,Patient4_Healthy!Q13,Patient5_Healthy!Q13,Patient6_Healthy!Q13)</f>
+        <v>578.35054990861795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(Patient1_Healthy!I15,Patient2_Healthy!I15,Patient3_Healthy!I15,Patient4_Healthy!I15,Patient5_Healthy!I15,Patient6_Healthy!I15)</f>
+        <v>0.14200929518891867</v>
+      </c>
+      <c r="J16">
+        <f>STDEV(Patient1_Healthy!I15,Patient2_Healthy!I15,Patient3_Healthy!I15,Patient4_Healthy!I15,Patient5_Healthy!I15,Patient6_Healthy!I15)</f>
+        <v>6.777198546397617E-2</v>
+      </c>
+      <c r="K16" s="26">
+        <f>AVERAGE(Patient1_Healthy!J15,Patient2_Healthy!J15,Patient3_Healthy!J15,Patient4_Healthy!J15,Patient5_Healthy!J15,Patient6_Healthy!J15)</f>
+        <v>0.10306791854176474</v>
+      </c>
+      <c r="L16">
+        <f>STDEV(Patient1_Healthy!J15,Patient2_Healthy!J15,Patient3_Healthy!J15,Patient4_Healthy!J15,Patient5_Healthy!J15,Patient6_Healthy!J15)</f>
+        <v>3.3672723488611805E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="41"/>
+      <c r="Q20" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="45"/>
+      <c r="S20" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="45"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21">
+        <f>AVERAGE(Patient1_Healthy!B21,Patient2_Healthy!B21,Patient3_Healthy!B21,Patient4_Healthy!B21,Patient5_Healthy!B21,Patient6_Healthy!B21)</f>
+        <v>16.887415091441547</v>
+      </c>
+      <c r="C22" s="21">
+        <f>STDEV(Patient1_Healthy!B21,Patient2_Healthy!B21,Patient3_Healthy!B21,Patient4_Healthy!B21,Patient5_Healthy!B21,Patient6_Healthy!B21)</f>
+        <v>22.727033364636792</v>
+      </c>
+      <c r="D22" s="21">
+        <f>AVERAGE(Patient1_Healthy!C21,Patient2_Healthy!C21,Patient3_Healthy!C21,Patient4_Healthy!C21,Patient5_Healthy!C21,Patient6_Healthy!C21)</f>
+        <v>6.8727847651306746</v>
+      </c>
+      <c r="E22" s="21">
+        <f>STDEV(Patient1_Healthy!C21,Patient2_Healthy!C21,Patient3_Healthy!C21,Patient4_Healthy!C21,Patient5_Healthy!C21,Patient6_Healthy!C21)</f>
+        <v>5.9248831657532168</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(Patient1_Healthy!I21,Patient2_Healthy!I21,Patient3_Healthy!I21,Patient4_Healthy!I21,Patient5_Healthy!I21,Patient6_Healthy!I21)</f>
+        <v>0.49198033248614559</v>
+      </c>
+      <c r="J22">
+        <f>STDEV(Patient1_Healthy!I21,Patient2_Healthy!I21,Patient3_Healthy!I21,Patient4_Healthy!I21,Patient5_Healthy!I21,Patient6_Healthy!I21)</f>
+        <v>0.27391621287529766</v>
+      </c>
+      <c r="K22" s="26">
+        <f>AVERAGE(Patient1_Healthy!J21,Patient2_Healthy!J21,Patient3_Healthy!J21,Patient4_Healthy!J21,Patient5_Healthy!J21,Patient6_Healthy!J21)</f>
+        <v>0.4945228552124446</v>
+      </c>
+      <c r="L22">
+        <f>STDEV(Patient1_Healthy!J21,Patient2_Healthy!J21,Patient3_Healthy!J21,Patient4_Healthy!J21,Patient5_Healthy!J21,Patient6_Healthy!J21)</f>
+        <v>0.25166526235386982</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22">
+        <f>AVERAGE(Patient1_Healthy!Q21,Patient2_Healthy!Q21,Patient3_Healthy!Q21,Patient4_Healthy!Q21,Patient5_Healthy!Q21,Patient6_Healthy!Q21)</f>
+        <v>0.10331191556264356</v>
+      </c>
+      <c r="R22">
+        <f>STDEV(Patient1_Healthy!Q21,Patient2_Healthy!Q21,Patient3_Healthy!Q21,Patient4_Healthy!Q21,Patient5_Healthy!Q21,Patient6_Healthy!Q21)</f>
+        <v>0.29512043605569327</v>
+      </c>
+      <c r="S22" s="26">
+        <f>AVERAGE(Patient1_Healthy!R21,Patient2_Healthy!R21,Patient3_Healthy!R21,Patient4_Healthy!R21,Patient5_Healthy!R21,Patient6_Healthy!R21)</f>
+        <v>-0.26796779347648414</v>
+      </c>
+      <c r="T22">
+        <f>STDEV(Patient1_Healthy!R21,Patient2_Healthy!R21,Patient3_Healthy!R21,Patient4_Healthy!R21,Patient5_Healthy!R21,Patient6_Healthy!R21)</f>
+        <v>0.55587339130922986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="21">
+        <f>AVERAGE(Patient1_Healthy!B22,Patient2_Healthy!B22,Patient3_Healthy!B22,Patient4_Healthy!B22,Patient5_Healthy!B22,Patient6_Healthy!B22)</f>
+        <v>17.40692299765178</v>
+      </c>
+      <c r="C23" s="21">
+        <f>STDEV(Patient1_Healthy!B22,Patient2_Healthy!B22,Patient3_Healthy!B22,Patient4_Healthy!B22,Patient5_Healthy!B22,Patient6_Healthy!B22)</f>
+        <v>8.9300661199667513</v>
+      </c>
+      <c r="D23" s="21">
+        <f>AVERAGE(Patient1_Healthy!C22,Patient2_Healthy!C22,Patient3_Healthy!C22,Patient4_Healthy!C22,Patient5_Healthy!C22,Patient6_Healthy!C22)</f>
+        <v>18.100082163846682</v>
+      </c>
+      <c r="E23" s="21">
+        <f>STDEV(Patient1_Healthy!C22,Patient2_Healthy!C22,Patient3_Healthy!C22,Patient4_Healthy!C22,Patient5_Healthy!C22,Patient6_Healthy!C22)</f>
+        <v>15.164474025255664</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(Patient1_Healthy!I22,Patient2_Healthy!I22,Patient3_Healthy!I22,Patient4_Healthy!I22,Patient5_Healthy!I22,Patient6_Healthy!I22)</f>
+        <v>0.46652692235219834</v>
+      </c>
+      <c r="J23">
+        <f>STDEV(Patient1_Healthy!I22,Patient2_Healthy!I22,Patient3_Healthy!I22,Patient4_Healthy!I22,Patient5_Healthy!I22,Patient6_Healthy!I22)</f>
+        <v>0.30620334178948921</v>
+      </c>
+      <c r="K23" s="26">
+        <f>AVERAGE(Patient1_Healthy!J22,Patient2_Healthy!J22,Patient3_Healthy!J22,Patient4_Healthy!J22,Patient5_Healthy!J22,Patient6_Healthy!J22)</f>
+        <v>0.44470977232754133</v>
+      </c>
+      <c r="L23">
+        <f>STDEV(Patient1_Healthy!J22,Patient2_Healthy!J22,Patient3_Healthy!J22,Patient4_Healthy!J22,Patient5_Healthy!J22,Patient6_Healthy!J22)</f>
+        <v>0.27911536244682755</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23">
+        <f>AVERAGE(Patient1_Healthy!Q22,Patient2_Healthy!Q22,Patient3_Healthy!Q22,Patient4_Healthy!Q22,Patient5_Healthy!Q22,Patient6_Healthy!Q22)</f>
+        <v>3.4492259650267489</v>
+      </c>
+      <c r="R23">
+        <f>STDEV(Patient1_Healthy!Q22,Patient2_Healthy!Q22,Patient3_Healthy!Q22,Patient4_Healthy!Q22,Patient5_Healthy!Q22,Patient6_Healthy!Q22)</f>
+        <v>0.79747423519615934</v>
+      </c>
+      <c r="S23" s="26">
+        <f>AVERAGE(Patient1_Healthy!R22,Patient2_Healthy!R22,Patient3_Healthy!R22,Patient4_Healthy!R22,Patient5_Healthy!R22,Patient6_Healthy!R22)</f>
+        <v>4.8612389471701638</v>
+      </c>
+      <c r="T23">
+        <f>STDEV(Patient1_Healthy!R22,Patient2_Healthy!R22,Patient3_Healthy!R22,Patient4_Healthy!R22,Patient5_Healthy!R22,Patient6_Healthy!R22)</f>
+        <v>1.2056920914600939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="21">
+        <f>AVERAGE(Patient1_Healthy!B23,Patient2_Healthy!B23,Patient3_Healthy!B23,Patient4_Healthy!B23,Patient5_Healthy!B23,Patient6_Healthy!B23)</f>
+        <v>3.7193017809586451</v>
+      </c>
+      <c r="C24" s="21">
+        <f>STDEV(Patient1_Healthy!B23,Patient2_Healthy!B23,Patient3_Healthy!B23,Patient4_Healthy!B23,Patient5_Healthy!B23,Patient6_Healthy!B23)</f>
+        <v>1.524966718247214</v>
+      </c>
+      <c r="D24" s="21">
+        <f>AVERAGE(Patient1_Healthy!C23,Patient2_Healthy!C23,Patient3_Healthy!C23,Patient4_Healthy!C23,Patient5_Healthy!C23,Patient6_Healthy!C23)</f>
+        <v>4.7975773395655006</v>
+      </c>
+      <c r="E24" s="21">
+        <f>STDEV(Patient1_Healthy!C23,Patient2_Healthy!C23,Patient3_Healthy!C23,Patient4_Healthy!C23,Patient5_Healthy!C23,Patient6_Healthy!C23)</f>
+        <v>1.6369484942716914</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(Patient1_Healthy!I23,Patient2_Healthy!I23,Patient3_Healthy!I23,Patient4_Healthy!I23,Patient5_Healthy!I23,Patient6_Healthy!I23)</f>
+        <v>0.57974513624390844</v>
+      </c>
+      <c r="J24">
+        <f>STDEV(Patient1_Healthy!I23,Patient2_Healthy!I23,Patient3_Healthy!I23,Patient4_Healthy!I23,Patient5_Healthy!I23,Patient6_Healthy!I23)</f>
+        <v>0.21185406844471252</v>
+      </c>
+      <c r="K24" s="26">
+        <f>AVERAGE(Patient1_Healthy!J23,Patient2_Healthy!J23,Patient3_Healthy!J23,Patient4_Healthy!J23,Patient5_Healthy!J23,Patient6_Healthy!J23)</f>
+        <v>0.62920132040837273</v>
+      </c>
+      <c r="L24">
+        <f>STDEV(Patient1_Healthy!J23,Patient2_Healthy!J23,Patient3_Healthy!J23,Patient4_Healthy!J23,Patient5_Healthy!J23,Patient6_Healthy!J23)</f>
+        <v>0.18479181640356349</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24">
+        <f>AVERAGE(Patient1_Healthy!Q23,Patient2_Healthy!Q23,Patient3_Healthy!Q23,Patient4_Healthy!Q23,Patient5_Healthy!Q23,Patient6_Healthy!Q23)</f>
+        <v>17.93955991394812</v>
+      </c>
+      <c r="R24">
+        <f>STDEV(Patient1_Healthy!Q23,Patient2_Healthy!Q23,Patient3_Healthy!Q23,Patient4_Healthy!Q23,Patient5_Healthy!Q23,Patient6_Healthy!Q23)</f>
+        <v>4.3507649344281543</v>
+      </c>
+      <c r="S24" s="26">
+        <f>AVERAGE(Patient1_Healthy!R23,Patient2_Healthy!R23,Patient3_Healthy!R23,Patient4_Healthy!R23,Patient5_Healthy!R23,Patient6_Healthy!R23)</f>
+        <v>25.964188540284891</v>
+      </c>
+      <c r="T24">
+        <f>STDEV(Patient1_Healthy!R23,Patient2_Healthy!R23,Patient3_Healthy!R23,Patient4_Healthy!R23,Patient5_Healthy!R23,Patient6_Healthy!R23)</f>
+        <v>5.5260565742168097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="21">
+        <f>AVERAGE(Patient1_Healthy!B24,Patient2_Healthy!B24,Patient3_Healthy!B24,Patient4_Healthy!B24,Patient5_Healthy!B24,Patient6_Healthy!B24)</f>
+        <v>6.6653162890107351</v>
+      </c>
+      <c r="C25" s="21">
+        <f>STDEV(Patient1_Healthy!B24,Patient2_Healthy!B24,Patient3_Healthy!B24,Patient4_Healthy!B24,Patient5_Healthy!B24,Patient6_Healthy!B24)</f>
+        <v>1.594556489896223</v>
+      </c>
+      <c r="D25" s="21">
+        <f>AVERAGE(Patient1_Healthy!C24,Patient2_Healthy!C24,Patient3_Healthy!C24,Patient4_Healthy!C24,Patient5_Healthy!C24,Patient6_Healthy!C24)</f>
+        <v>4.7578725301756428</v>
+      </c>
+      <c r="E25" s="21">
+        <f>STDEV(Patient1_Healthy!C24,Patient2_Healthy!C24,Patient3_Healthy!C24,Patient4_Healthy!C24,Patient5_Healthy!C24,Patient6_Healthy!C24)</f>
+        <v>2.38786733970454</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(Patient1_Healthy!I24,Patient2_Healthy!I24,Patient3_Healthy!I24,Patient4_Healthy!I24,Patient5_Healthy!I24,Patient6_Healthy!I24)</f>
+        <v>0.6613029256689994</v>
+      </c>
+      <c r="J25">
+        <f>STDEV(Patient1_Healthy!I24,Patient2_Healthy!I24,Patient3_Healthy!I24,Patient4_Healthy!I24,Patient5_Healthy!I24,Patient6_Healthy!I24)</f>
+        <v>0.18531632187700695</v>
+      </c>
+      <c r="K25" s="26">
+        <f>AVERAGE(Patient1_Healthy!J24,Patient2_Healthy!J24,Patient3_Healthy!J24,Patient4_Healthy!J24,Patient5_Healthy!J24,Patient6_Healthy!J24)</f>
+        <v>0.68912881291730876</v>
+      </c>
+      <c r="L25">
+        <f>STDEV(Patient1_Healthy!J24,Patient2_Healthy!J24,Patient3_Healthy!J24,Patient4_Healthy!J24,Patient5_Healthy!J24,Patient6_Healthy!J24)</f>
+        <v>0.18764235723866596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <f>AVERAGE(Patient1_Healthy!I25,Patient2_Healthy!I25,Patient3_Healthy!I25,Patient4_Healthy!I25,Patient5_Healthy!I25,Patient6_Healthy!I25)</f>
+        <v>0.50390245273767842</v>
+      </c>
+      <c r="J26">
+        <f>STDEV(Patient1_Healthy!I25,Patient2_Healthy!I25,Patient3_Healthy!I25,Patient4_Healthy!I25,Patient5_Healthy!I25,Patient6_Healthy!I25)</f>
+        <v>0.27820179258259464</v>
+      </c>
+      <c r="K26" s="26">
+        <f>AVERAGE(Patient1_Healthy!J25,Patient2_Healthy!J25,Patient3_Healthy!J25,Patient4_Healthy!J25,Patient5_Healthy!J25,Patient6_Healthy!J25)</f>
+        <v>0.46272724059643061</v>
+      </c>
+      <c r="L26">
+        <f>STDEV(Patient1_Healthy!J25,Patient2_Healthy!J25,Patient3_Healthy!J25,Patient4_Healthy!J25,Patient5_Healthy!J25,Patient6_Healthy!J25)</f>
+        <v>0.24320094910631959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(Patient1_Healthy!I26,Patient2_Healthy!I26,Patient3_Healthy!I26,Patient4_Healthy!I26,Patient5_Healthy!I26,Patient6_Healthy!I26)</f>
+        <v>0.46981030895098602</v>
+      </c>
+      <c r="J27">
+        <f>STDEV(Patient1_Healthy!I26,Patient2_Healthy!I26,Patient3_Healthy!I26,Patient4_Healthy!I26,Patient5_Healthy!I26,Patient6_Healthy!I26)</f>
+        <v>0.28324027776098432</v>
+      </c>
+      <c r="K27" s="26">
+        <f>AVERAGE(Patient1_Healthy!J26,Patient2_Healthy!J26,Patient3_Healthy!J26,Patient4_Healthy!J26,Patient5_Healthy!J26,Patient6_Healthy!J26)</f>
+        <v>0.48603514276909893</v>
+      </c>
+      <c r="L27">
+        <f>STDEV(Patient1_Healthy!J26,Patient2_Healthy!J26,Patient3_Healthy!J26,Patient4_Healthy!J26,Patient5_Healthy!J26,Patient6_Healthy!J26)</f>
+        <v>0.26113441641326191</v>
+      </c>
+      <c r="Q27" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R27" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28">
+        <f>AVERAGE(Patient1_Healthy!I27,Patient2_Healthy!I27,Patient3_Healthy!I27,Patient4_Healthy!I27,Patient5_Healthy!I27,Patient6_Healthy!I27)</f>
+        <v>0.66269292883246866</v>
+      </c>
+      <c r="J28">
+        <f>STDEV(Patient1_Healthy!I27,Patient2_Healthy!I27,Patient3_Healthy!I27,Patient4_Healthy!I27,Patient5_Healthy!I27,Patient6_Healthy!I27)</f>
+        <v>0.21752861907134449</v>
+      </c>
+      <c r="K28" s="26">
+        <f>AVERAGE(Patient1_Healthy!J27,Patient2_Healthy!J27,Patient3_Healthy!J27,Patient4_Healthy!J27,Patient5_Healthy!J27,Patient6_Healthy!J27)</f>
+        <v>0.63018412375791066</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(Patient1_Healthy!J27,Patient2_Healthy!J27,Patient3_Healthy!J27,Patient4_Healthy!J27,Patient5_Healthy!J27,Patient6_Healthy!J27)</f>
+        <v>0.28357073673406225</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <f>AVERAGE(Patient1_Healthy!Q26,Patient2_Healthy!Q26,Patient3_Healthy!Q26,Patient4_Healthy!Q26,Patient5_Healthy!Q26,Patient6_Healthy!Q26)</f>
+        <v>166.91827212230498</v>
+      </c>
+      <c r="R28" s="26">
+        <f>STDEV(Patient1_Healthy!Q26,Patient2_Healthy!Q26,Patient3_Healthy!Q26,Patient4_Healthy!Q26,Patient5_Healthy!Q26,Patient6_Healthy!Q26)</f>
+        <v>62.901452911920927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE(Patient1_Healthy!I28,Patient2_Healthy!I28,Patient3_Healthy!I28,Patient4_Healthy!I28,Patient5_Healthy!I28,Patient6_Healthy!I28)</f>
+        <v>0.68869531163258924</v>
+      </c>
+      <c r="J29">
+        <f>STDEV(Patient1_Healthy!I28,Patient2_Healthy!I28,Patient3_Healthy!I28,Patient4_Healthy!I28,Patient5_Healthy!I28,Patient6_Healthy!I28)</f>
+        <v>0.23816339227035158</v>
+      </c>
+      <c r="K29" s="26">
+        <f>AVERAGE(Patient1_Healthy!J28,Patient2_Healthy!J28,Patient3_Healthy!J28,Patient4_Healthy!J28,Patient5_Healthy!J28,Patient6_Healthy!J28)</f>
+        <v>0.66490776882207203</v>
+      </c>
+      <c r="L29">
+        <f>STDEV(Patient1_Healthy!J28,Patient2_Healthy!J28,Patient3_Healthy!J28,Patient4_Healthy!J28,Patient5_Healthy!J28,Patient6_Healthy!J28)</f>
+        <v>0.18319476143941343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="41"/>
+      <c r="K33" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="41"/>
+      <c r="Q33" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="45"/>
+      <c r="S33" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33" s="45"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S34" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="21">
+        <f>AVERAGE(Patient1_Healthy!B34,Patient2_Healthy!B34,Patient3_Healthy!B34,Patient4_Healthy!B34,Patient5_Healthy!B34,Patient6_Healthy!B34)</f>
+        <v>22.998520772258541</v>
+      </c>
+      <c r="C35" s="21">
+        <f>STDEV(Patient1_Healthy!B34,Patient2_Healthy!B34,Patient3_Healthy!B34,Patient4_Healthy!B34,Patient5_Healthy!B34,Patient6_Healthy!B34)</f>
+        <v>30.006413224643115</v>
+      </c>
+      <c r="D35" s="21">
+        <f>AVERAGE(Patient1_Healthy!C34,Patient2_Healthy!C34,Patient3_Healthy!C34,Patient4_Healthy!C34,Patient5_Healthy!C34,Patient6_Healthy!C34)</f>
+        <v>8.3697156389762224</v>
+      </c>
+      <c r="E35" s="21">
+        <f>STDEV(Patient1_Healthy!C34,Patient2_Healthy!C34,Patient3_Healthy!C34,Patient4_Healthy!C34,Patient5_Healthy!C34,Patient6_Healthy!C34)</f>
+        <v>6.684329966183828</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <f>AVERAGE(Patient1_Healthy!I34,Patient2_Healthy!I34,Patient3_Healthy!I34,Patient4_Healthy!I34,Patient5_Healthy!I34,Patient6_Healthy!I34)</f>
+        <v>0.3837575389421321</v>
+      </c>
+      <c r="J35">
+        <f>STDEV(Patient1_Healthy!I34,Patient2_Healthy!I34,Patient3_Healthy!I34,Patient4_Healthy!I34,Patient5_Healthy!I34,Patient6_Healthy!I34)</f>
+        <v>0.18633196519409459</v>
+      </c>
+      <c r="K35" s="26">
+        <f>AVERAGE(Patient1_Healthy!J34,Patient2_Healthy!J34,Patient3_Healthy!J34,Patient4_Healthy!J34,Patient5_Healthy!J34,Patient6_Healthy!J34)</f>
+        <v>0.39767172758604952</v>
+      </c>
+      <c r="L35">
+        <f>STDEV(Patient1_Healthy!J34,Patient2_Healthy!J34,Patient3_Healthy!J34,Patient4_Healthy!J34,Patient5_Healthy!J34,Patient6_Healthy!J34)</f>
+        <v>0.24220026621439641</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q35">
+        <f>AVERAGE(Patient1_Healthy!Q34,Patient2_Healthy!Q34,Patient3_Healthy!Q34,Patient4_Healthy!Q34,Patient5_Healthy!Q34,Patient6_Healthy!Q34)</f>
+        <v>-2.6178407101245469</v>
+      </c>
+      <c r="R35">
+        <f>STDEV(Patient1_Healthy!Q34,Patient2_Healthy!Q34,Patient3_Healthy!Q34,Patient4_Healthy!Q34,Patient5_Healthy!Q34,Patient6_Healthy!Q34)</f>
+        <v>5.7082860924701118</v>
+      </c>
+      <c r="S35" s="26">
+        <f>AVERAGE(Patient1_Healthy!R34,Patient2_Healthy!R34,Patient3_Healthy!R34,Patient4_Healthy!R34,Patient5_Healthy!R34,Patient6_Healthy!R34)</f>
+        <v>4.5099020886803336</v>
+      </c>
+      <c r="T35">
+        <f>STDEV(Patient1_Healthy!R34,Patient2_Healthy!R34,Patient3_Healthy!R34,Patient4_Healthy!R34,Patient5_Healthy!R34,Patient6_Healthy!R34)</f>
+        <v>8.1264920781174403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="21">
+        <f>AVERAGE(Patient1_Healthy!B35,Patient2_Healthy!B35,Patient3_Healthy!B35,Patient4_Healthy!B35,Patient5_Healthy!B35,Patient6_Healthy!B35)</f>
+        <v>25.357296539936552</v>
+      </c>
+      <c r="C36" s="21">
+        <f>STDEV(Patient1_Healthy!B35,Patient2_Healthy!B35,Patient3_Healthy!B35,Patient4_Healthy!B35,Patient5_Healthy!B35,Patient6_Healthy!B35)</f>
+        <v>9.9996599915265882</v>
+      </c>
+      <c r="D36" s="21">
+        <f>AVERAGE(Patient1_Healthy!C35,Patient2_Healthy!C35,Patient3_Healthy!C35,Patient4_Healthy!C35,Patient5_Healthy!C35,Patient6_Healthy!C35)</f>
+        <v>68.608756539155891</v>
+      </c>
+      <c r="E36" s="21">
+        <f>STDEV(Patient1_Healthy!C35,Patient2_Healthy!C35,Patient3_Healthy!C35,Patient4_Healthy!C35,Patient5_Healthy!C35,Patient6_Healthy!C35)</f>
+        <v>111.78519389433951</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <f>AVERAGE(Patient1_Healthy!I35,Patient2_Healthy!I35,Patient3_Healthy!I35,Patient4_Healthy!I35,Patient5_Healthy!I35,Patient6_Healthy!I35)</f>
+        <v>0.3873140587027144</v>
+      </c>
+      <c r="J36">
+        <f>STDEV(Patient1_Healthy!I35,Patient2_Healthy!I35,Patient3_Healthy!I35,Patient4_Healthy!I35,Patient5_Healthy!I35,Patient6_Healthy!I35)</f>
+        <v>0.23606810784511312</v>
+      </c>
+      <c r="K36" s="26">
+        <f>AVERAGE(Patient1_Healthy!J35,Patient2_Healthy!J35,Patient3_Healthy!J35,Patient4_Healthy!J35,Patient5_Healthy!J35,Patient6_Healthy!J35)</f>
+        <v>0.36062553838944483</v>
+      </c>
+      <c r="L36">
+        <f>STDEV(Patient1_Healthy!J35,Patient2_Healthy!J35,Patient3_Healthy!J35,Patient4_Healthy!J35,Patient5_Healthy!J35,Patient6_Healthy!J35)</f>
+        <v>0.25541085118730428</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36">
+        <f>AVERAGE(Patient1_Healthy!Q35,Patient2_Healthy!Q35,Patient3_Healthy!Q35,Patient4_Healthy!Q35,Patient5_Healthy!Q35,Patient6_Healthy!Q35)</f>
+        <v>25.109174564105484</v>
+      </c>
+      <c r="R36">
+        <f>STDEV(Patient1_Healthy!Q35,Patient2_Healthy!Q35,Patient3_Healthy!Q35,Patient4_Healthy!Q35,Patient5_Healthy!Q35,Patient6_Healthy!Q35)</f>
+        <v>16.222185303546013</v>
+      </c>
+      <c r="S36" s="26">
+        <f>AVERAGE(Patient1_Healthy!R35,Patient2_Healthy!R35,Patient3_Healthy!R35,Patient4_Healthy!R35,Patient5_Healthy!R35,Patient6_Healthy!R35)</f>
+        <v>30.778329039645069</v>
+      </c>
+      <c r="T36">
+        <f>STDEV(Patient1_Healthy!R35,Patient2_Healthy!R35,Patient3_Healthy!R35,Patient4_Healthy!R35,Patient5_Healthy!R35,Patient6_Healthy!R35)</f>
+        <v>9.3643045315561473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="21">
+        <f>AVERAGE(Patient1_Healthy!B36,Patient2_Healthy!B36,Patient3_Healthy!B36,Patient4_Healthy!B36,Patient5_Healthy!B36,Patient6_Healthy!B36)</f>
+        <v>79.241442172918653</v>
+      </c>
+      <c r="C37" s="21">
+        <f>STDEV(Patient1_Healthy!B36,Patient2_Healthy!B36,Patient3_Healthy!B36,Patient4_Healthy!B36,Patient5_Healthy!B36,Patient6_Healthy!B36)</f>
+        <v>114.17879121790114</v>
+      </c>
+      <c r="D37" s="21">
+        <f>AVERAGE(Patient1_Healthy!C36,Patient2_Healthy!C36,Patient3_Healthy!C36,Patient4_Healthy!C36,Patient5_Healthy!C36,Patient6_Healthy!C36)</f>
+        <v>31.844749028765253</v>
+      </c>
+      <c r="E37" s="21">
+        <f>STDEV(Patient1_Healthy!C36,Patient2_Healthy!C36,Patient3_Healthy!C36,Patient4_Healthy!C36,Patient5_Healthy!C36,Patient6_Healthy!C36)</f>
+        <v>7.5208422394727261</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37">
+        <f>AVERAGE(Patient1_Healthy!I36,Patient2_Healthy!I36,Patient3_Healthy!I36,Patient4_Healthy!I36,Patient5_Healthy!I36,Patient6_Healthy!I36)</f>
+        <v>0.55222028190449501</v>
+      </c>
+      <c r="J37">
+        <f>STDEV(Patient1_Healthy!I36,Patient2_Healthy!I36,Patient3_Healthy!I36,Patient4_Healthy!I36,Patient5_Healthy!I36,Patient6_Healthy!I36)</f>
+        <v>0.30351481969298016</v>
+      </c>
+      <c r="K37" s="26">
+        <f>AVERAGE(Patient1_Healthy!J36,Patient2_Healthy!J36,Patient3_Healthy!J36,Patient4_Healthy!J36,Patient5_Healthy!J36,Patient6_Healthy!J36)</f>
+        <v>0.48767827720701978</v>
+      </c>
+      <c r="L37">
+        <f>STDEV(Patient1_Healthy!J36,Patient2_Healthy!J36,Patient3_Healthy!J36,Patient4_Healthy!J36,Patient5_Healthy!J36,Patient6_Healthy!J36)</f>
+        <v>0.26056931566075769</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37">
+        <f>AVERAGE(Patient1_Healthy!Q36,Patient2_Healthy!Q36,Patient3_Healthy!Q36,Patient4_Healthy!Q36,Patient5_Healthy!Q36,Patient6_Healthy!Q36)</f>
+        <v>98.325678492520339</v>
+      </c>
+      <c r="R37">
+        <f>STDEV(Patient1_Healthy!Q36,Patient2_Healthy!Q36,Patient3_Healthy!Q36,Patient4_Healthy!Q36,Patient5_Healthy!Q36,Patient6_Healthy!Q36)</f>
+        <v>50.238904015712841</v>
+      </c>
+      <c r="S37" s="26">
+        <f>AVERAGE(Patient1_Healthy!R36,Patient2_Healthy!R36,Patient3_Healthy!R36,Patient4_Healthy!R36,Patient5_Healthy!R36,Patient6_Healthy!R36)</f>
+        <v>120.99543578384656</v>
+      </c>
+      <c r="T37">
+        <f>STDEV(Patient1_Healthy!R36,Patient2_Healthy!R36,Patient3_Healthy!R36,Patient4_Healthy!R36,Patient5_Healthy!R36,Patient6_Healthy!R36)</f>
+        <v>35.866290396477616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="21">
+        <f>AVERAGE(Patient1_Healthy!B37,Patient2_Healthy!B37,Patient3_Healthy!B37,Patient4_Healthy!B37,Patient5_Healthy!B37,Patient6_Healthy!B37)</f>
+        <v>33.175609411473289</v>
+      </c>
+      <c r="C38" s="21">
+        <f>STDEV(Patient1_Healthy!B37,Patient2_Healthy!B37,Patient3_Healthy!B37,Patient4_Healthy!B37,Patient5_Healthy!B37,Patient6_Healthy!B37)</f>
+        <v>7.8005836714235883</v>
+      </c>
+      <c r="D38" s="21">
+        <f>AVERAGE(Patient1_Healthy!C37,Patient2_Healthy!C37,Patient3_Healthy!C37,Patient4_Healthy!C37,Patient5_Healthy!C37,Patient6_Healthy!C37)</f>
+        <v>35.415582875110786</v>
+      </c>
+      <c r="E38" s="21">
+        <f>STDEV(Patient1_Healthy!C37,Patient2_Healthy!C37,Patient3_Healthy!C37,Patient4_Healthy!C37,Patient5_Healthy!C37,Patient6_Healthy!C37)</f>
+        <v>21.038455772885484</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38">
+        <f>AVERAGE(Patient1_Healthy!I37,Patient2_Healthy!I37,Patient3_Healthy!I37,Patient4_Healthy!I37,Patient5_Healthy!I37,Patient6_Healthy!I37)</f>
+        <v>0.63062104421622855</v>
+      </c>
+      <c r="J38">
+        <f>STDEV(Patient1_Healthy!I37,Patient2_Healthy!I37,Patient3_Healthy!I37,Patient4_Healthy!I37,Patient5_Healthy!I37,Patient6_Healthy!I37)</f>
+        <v>0.12400120092650095</v>
+      </c>
+      <c r="K38" s="26">
+        <f>AVERAGE(Patient1_Healthy!J37,Patient2_Healthy!J37,Patient3_Healthy!J37,Patient4_Healthy!J37,Patient5_Healthy!J37,Patient6_Healthy!J37)</f>
+        <v>0.63668507852865752</v>
+      </c>
+      <c r="L38">
+        <f>STDEV(Patient1_Healthy!J37,Patient2_Healthy!J37,Patient3_Healthy!J37,Patient4_Healthy!J37,Patient5_Healthy!J37,Patient6_Healthy!J37)</f>
+        <v>0.13443269139397554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H39" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39">
+        <f>AVERAGE(Patient1_Healthy!I38,Patient2_Healthy!I38,Patient3_Healthy!I38,Patient4_Healthy!I38,Patient5_Healthy!I38,Patient6_Healthy!I38)</f>
+        <v>0.41732410636238249</v>
+      </c>
+      <c r="J39">
+        <f>STDEV(Patient1_Healthy!I38,Patient2_Healthy!I38,Patient3_Healthy!I38,Patient4_Healthy!I38,Patient5_Healthy!I38,Patient6_Healthy!I38)</f>
+        <v>0.13924220907895701</v>
+      </c>
+      <c r="K39" s="26">
+        <f>AVERAGE(Patient1_Healthy!J38,Patient2_Healthy!J38,Patient3_Healthy!J38,Patient4_Healthy!J38,Patient5_Healthy!J38,Patient6_Healthy!J38)</f>
+        <v>0.42746855858784299</v>
+      </c>
+      <c r="L39">
+        <f>STDEV(Patient1_Healthy!J38,Patient2_Healthy!J38,Patient3_Healthy!J38,Patient4_Healthy!J38,Patient5_Healthy!J38,Patient6_Healthy!J38)</f>
+        <v>0.15609091774298037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H40" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40">
+        <f>AVERAGE(Patient1_Healthy!I39,Patient2_Healthy!I39,Patient3_Healthy!I39,Patient4_Healthy!I39,Patient5_Healthy!I39,Patient6_Healthy!I39)</f>
+        <v>0.41590134943820251</v>
+      </c>
+      <c r="J40">
+        <f>STDEV(Patient1_Healthy!I39,Patient2_Healthy!I39,Patient3_Healthy!I39,Patient4_Healthy!I39,Patient5_Healthy!I39,Patient6_Healthy!I39)</f>
+        <v>0.1468834185981524</v>
+      </c>
+      <c r="K40" s="26">
+        <f>AVERAGE(Patient1_Healthy!J39,Patient2_Healthy!J39,Patient3_Healthy!J39,Patient4_Healthy!J39,Patient5_Healthy!J39,Patient6_Healthy!J39)</f>
+        <v>0.41621336282953109</v>
+      </c>
+      <c r="L40">
+        <f>STDEV(Patient1_Healthy!J39,Patient2_Healthy!J39,Patient3_Healthy!J39,Patient4_Healthy!J39,Patient5_Healthy!J39,Patient6_Healthy!J39)</f>
+        <v>0.13859811636744332</v>
+      </c>
+      <c r="Q40" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R40" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H41" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41">
+        <f>AVERAGE(Patient1_Healthy!I40,Patient2_Healthy!I40,Patient3_Healthy!I40,Patient4_Healthy!I40,Patient5_Healthy!I40,Patient6_Healthy!I40)</f>
+        <v>0.54184122671766355</v>
+      </c>
+      <c r="J41">
+        <f>STDEV(Patient1_Healthy!I40,Patient2_Healthy!I40,Patient3_Healthy!I40,Patient4_Healthy!I40,Patient5_Healthy!I40,Patient6_Healthy!I40)</f>
+        <v>0.15427664827144097</v>
+      </c>
+      <c r="K41" s="26">
+        <f>AVERAGE(Patient1_Healthy!J40,Patient2_Healthy!J40,Patient3_Healthy!J40,Patient4_Healthy!J40,Patient5_Healthy!J40,Patient6_Healthy!J40)</f>
+        <v>0.52508844335157678</v>
+      </c>
+      <c r="L41">
+        <f>STDEV(Patient1_Healthy!J40,Patient2_Healthy!J40,Patient3_Healthy!J40,Patient4_Healthy!J40,Patient5_Healthy!J40,Patient6_Healthy!J40)</f>
+        <v>0.15516099532768551</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41">
+        <f>AVERAGE(Patient1_Healthy!Q39,Patient2_Healthy!Q39,Patient3_Healthy!Q39,Patient4_Healthy!Q39,Patient5_Healthy!Q39,Patient6_Healthy!Q39)</f>
+        <v>2860.9624734835502</v>
+      </c>
+      <c r="R41" s="26">
+        <f>STDEV(Patient1_Healthy!Q39,Patient2_Healthy!Q39,Patient3_Healthy!Q39,Patient4_Healthy!Q39,Patient5_Healthy!Q39,Patient6_Healthy!Q39)</f>
+        <v>2254.3877720130945</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(Patient1_Healthy!I41,Patient2_Healthy!I41,Patient3_Healthy!I41,Patient4_Healthy!I41,Patient5_Healthy!I41,Patient6_Healthy!I41)</f>
+        <v>0.49304852379608421</v>
+      </c>
+      <c r="J42">
+        <f>STDEV(Patient1_Healthy!I41,Patient2_Healthy!I41,Patient3_Healthy!I41,Patient4_Healthy!I41,Patient5_Healthy!I41,Patient6_Healthy!I41)</f>
+        <v>0.21570428512937498</v>
+      </c>
+      <c r="K42" s="26">
+        <f>AVERAGE(Patient1_Healthy!J41,Patient2_Healthy!J41,Patient3_Healthy!J41,Patient4_Healthy!J41,Patient5_Healthy!J41,Patient6_Healthy!J41)</f>
+        <v>0.52167963016851038</v>
+      </c>
+      <c r="L42">
+        <f>STDEV(Patient1_Healthy!J41,Patient2_Healthy!J41,Patient3_Healthy!J41,Patient4_Healthy!J41,Patient5_Healthy!J41,Patient6_Healthy!J41)</f>
+        <v>0.16484917893345491</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="43"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="41"/>
+      <c r="Q46" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R46" s="45"/>
+      <c r="S46" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="T46" s="45"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L47" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R47" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S47" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T47" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="21">
+        <f>AVERAGE(Patient1_Healthy!B47,Patient2_Healthy!B47,Patient3_Healthy!B47,Patient4_Healthy!B47,Patient5_Healthy!B47,Patient6_Healthy!B47)</f>
+        <v>39.691603838847264</v>
+      </c>
+      <c r="C48" s="21">
+        <f>STDEV(Patient1_Healthy!B47,Patient2_Healthy!B47,Patient3_Healthy!B47,Patient4_Healthy!B47,Patient5_Healthy!B47,Patient6_Healthy!B47)</f>
+        <v>55.030140022799749</v>
+      </c>
+      <c r="D48" s="21">
+        <f>AVERAGE(Patient1_Healthy!C47,Patient2_Healthy!C47,Patient3_Healthy!C47,Patient4_Healthy!C47,Patient5_Healthy!C47,Patient6_Healthy!C47)</f>
+        <v>15.483684851958587</v>
+      </c>
+      <c r="E48" s="21">
+        <f>STDEV(Patient1_Healthy!C47,Patient2_Healthy!C47,Patient3_Healthy!C47,Patient4_Healthy!C47,Patient5_Healthy!C47,Patient6_Healthy!C47)</f>
+        <v>22.803976088060583</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <f>AVERAGE(Patient1_Healthy!I60,Patient2_Healthy!I60,Patient3_Healthy!I47,Patient4_Healthy!I47,Patient5_Healthy!I47,Patient6_Healthy!I47)</f>
+        <v>0.12354810247863228</v>
+      </c>
+      <c r="J48">
+        <f>STDEV(Patient1_Healthy!I60,Patient2_Healthy!I60,Patient3_Healthy!I47,Patient4_Healthy!I47,Patient5_Healthy!I47,Patient6_Healthy!I47)</f>
+        <v>5.5046448271780506E-2</v>
+      </c>
+      <c r="K48" s="26">
+        <f>AVERAGE(Patient1_Healthy!J60,Patient2_Healthy!J60,Patient3_Healthy!J47,Patient4_Healthy!J47,Patient5_Healthy!J47,Patient6_Healthy!J47)</f>
+        <v>9.9027056751725184E-2</v>
+      </c>
+      <c r="L48">
+        <f>STDEV(Patient1_Healthy!J60,Patient2_Healthy!J60,Patient3_Healthy!J47,Patient4_Healthy!J47,Patient5_Healthy!J47,Patient6_Healthy!J47)</f>
+        <v>3.3065697349854296E-2</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48">
+        <f>AVERAGE(Patient1_Healthy!Q47,Patient2_Healthy!Q47,Patient3_Healthy!Q47,Patient4_Healthy!Q47,Patient5_Healthy!Q47,Patient6_Healthy!Q47)</f>
+        <v>-1.0145504104036454</v>
+      </c>
+      <c r="R48">
+        <f>STDEV(Patient1_Healthy!Q47,Patient2_Healthy!Q47,Patient3_Healthy!Q47,Patient4_Healthy!Q47,Patient5_Healthy!Q47,Patient6_Healthy!Q47)</f>
+        <v>2.7070420992063622</v>
+      </c>
+      <c r="S48" s="26">
+        <f>AVERAGE(Patient1_Healthy!R47,Patient2_Healthy!R47,Patient3_Healthy!R47,Patient4_Healthy!R47,Patient5_Healthy!R47,Patient6_Healthy!R47)</f>
+        <v>4.2733362143619074</v>
+      </c>
+      <c r="T48">
+        <f>STDEV(Patient1_Healthy!R47,Patient2_Healthy!R47,Patient3_Healthy!R47,Patient4_Healthy!R47,Patient5_Healthy!R47,Patient6_Healthy!R47)</f>
+        <v>5.9744099423884274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="21">
+        <f>AVERAGE(Patient1_Healthy!B48,Patient2_Healthy!B48,Patient3_Healthy!B48,Patient4_Healthy!B48,Patient5_Healthy!B48,Patient6_Healthy!B48)</f>
+        <v>22.882254092894645</v>
+      </c>
+      <c r="C49" s="21">
+        <f>STDEV(Patient1_Healthy!B48,Patient2_Healthy!B48,Patient3_Healthy!B48,Patient4_Healthy!B48,Patient5_Healthy!B48,Patient6_Healthy!B48)</f>
+        <v>8.8025198011626475</v>
+      </c>
+      <c r="D49" s="21">
+        <f>AVERAGE(Patient1_Healthy!C48,Patient2_Healthy!C48,Patient3_Healthy!C48,Patient4_Healthy!C48,Patient5_Healthy!C48,Patient6_Healthy!C48)</f>
+        <v>31.298680610777748</v>
+      </c>
+      <c r="E49" s="21">
+        <f>STDEV(Patient1_Healthy!C48,Patient2_Healthy!C48,Patient3_Healthy!C48,Patient4_Healthy!C48,Patient5_Healthy!C48,Patient6_Healthy!C48)</f>
+        <v>22.045623649463678</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <f>AVERAGE(Patient1_Healthy!I61,Patient2_Healthy!I61,Patient3_Healthy!I48,Patient4_Healthy!I48,Patient5_Healthy!I48,Patient6_Healthy!I48)</f>
+        <v>0.19556238035614226</v>
+      </c>
+      <c r="J49">
+        <f>STDEV(Patient1_Healthy!I61,Patient2_Healthy!I61,Patient3_Healthy!I48,Patient4_Healthy!I48,Patient5_Healthy!I48,Patient6_Healthy!I48)</f>
+        <v>0.11140621286178851</v>
+      </c>
+      <c r="K49" s="26">
+        <f>AVERAGE(Patient1_Healthy!J61,Patient2_Healthy!J61,Patient3_Healthy!J48,Patient4_Healthy!J48,Patient5_Healthy!J48,Patient6_Healthy!J48)</f>
+        <v>0.13381559246265498</v>
+      </c>
+      <c r="L49">
+        <f>STDEV(Patient1_Healthy!J61,Patient2_Healthy!J61,Patient3_Healthy!J48,Patient4_Healthy!J48,Patient5_Healthy!J48,Patient6_Healthy!J48)</f>
+        <v>6.5555164627162779E-2</v>
+      </c>
+      <c r="P49" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q49">
+        <f>AVERAGE(Patient1_Healthy!Q48,Patient2_Healthy!Q48,Patient3_Healthy!Q48,Patient4_Healthy!Q48,Patient5_Healthy!Q48,Patient6_Healthy!Q48)</f>
+        <v>18.962755246172687</v>
+      </c>
+      <c r="R49">
+        <f>STDEV(Patient1_Healthy!Q48,Patient2_Healthy!Q48,Patient3_Healthy!Q48,Patient4_Healthy!Q48,Patient5_Healthy!Q48,Patient6_Healthy!Q48)</f>
+        <v>9.0403069523717772</v>
+      </c>
+      <c r="S49" s="26">
+        <f>AVERAGE(Patient1_Healthy!R48,Patient2_Healthy!R48,Patient3_Healthy!R48,Patient4_Healthy!R48,Patient5_Healthy!R48,Patient6_Healthy!R48)</f>
+        <v>37.363784328799518</v>
+      </c>
+      <c r="T49">
+        <f>STDEV(Patient1_Healthy!R48,Patient2_Healthy!R48,Patient3_Healthy!R48,Patient4_Healthy!R48,Patient5_Healthy!R48,Patient6_Healthy!R48)</f>
+        <v>11.607836025958552</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="21">
+        <f>AVERAGE(Patient1_Healthy!B49,Patient2_Healthy!B49,Patient3_Healthy!B49,Patient4_Healthy!B49,Patient5_Healthy!B49,Patient6_Healthy!B49)</f>
+        <v>97.478592865350095</v>
+      </c>
+      <c r="C50" s="21">
+        <f>STDEV(Patient1_Healthy!B49,Patient2_Healthy!B49,Patient3_Healthy!B49,Patient4_Healthy!B49,Patient5_Healthy!B49,Patient6_Healthy!B49)</f>
+        <v>144.60323771887624</v>
+      </c>
+      <c r="D50" s="21">
+        <f>AVERAGE(Patient1_Healthy!C49,Patient2_Healthy!C49,Patient3_Healthy!C49,Patient4_Healthy!C49,Patient5_Healthy!C49,Patient6_Healthy!C49)</f>
+        <v>20.712635097621583</v>
+      </c>
+      <c r="E50" s="21">
+        <f>STDEV(Patient1_Healthy!C49,Patient2_Healthy!C49,Patient3_Healthy!C49,Patient4_Healthy!C49,Patient5_Healthy!C49,Patient6_Healthy!C49)</f>
+        <v>7.4371684008409042</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50">
+        <f>AVERAGE(Patient1_Healthy!I62,Patient2_Healthy!I62,Patient3_Healthy!I49,Patient4_Healthy!I49,Patient5_Healthy!I49,Patient6_Healthy!I49)</f>
+        <v>0.18468538592746966</v>
+      </c>
+      <c r="J50">
+        <f>STDEV(Patient1_Healthy!I62,Patient2_Healthy!I62,Patient3_Healthy!I49,Patient4_Healthy!I49,Patient5_Healthy!I49,Patient6_Healthy!I49)</f>
+        <v>0.17491638897628958</v>
+      </c>
+      <c r="K50" s="26">
+        <f>AVERAGE(Patient1_Healthy!J62,Patient2_Healthy!J62,Patient3_Healthy!J49,Patient4_Healthy!J49,Patient5_Healthy!J49,Patient6_Healthy!J49)</f>
+        <v>0.16261944356804847</v>
+      </c>
+      <c r="L50">
+        <f>STDEV(Patient1_Healthy!J62,Patient2_Healthy!J62,Patient3_Healthy!J49,Patient4_Healthy!J49,Patient5_Healthy!J49,Patient6_Healthy!J49)</f>
+        <v>0.12643048558001965</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50">
+        <f>AVERAGE(Patient1_Healthy!Q49,Patient2_Healthy!Q49,Patient3_Healthy!Q49,Patient4_Healthy!Q49,Patient5_Healthy!Q49,Patient6_Healthy!Q49)</f>
+        <v>84.758390354181131</v>
+      </c>
+      <c r="R50">
+        <f>STDEV(Patient1_Healthy!Q49,Patient2_Healthy!Q49,Patient3_Healthy!Q49,Patient4_Healthy!Q49,Patient5_Healthy!Q49,Patient6_Healthy!Q49)</f>
+        <v>52.099352327607633</v>
+      </c>
+      <c r="S50" s="26">
+        <f>AVERAGE(Patient1_Healthy!R49,Patient2_Healthy!R49,Patient3_Healthy!R49,Patient4_Healthy!R49,Patient5_Healthy!R49,Patient6_Healthy!R49)</f>
+        <v>129.1519194311021</v>
+      </c>
+      <c r="T50">
+        <f>STDEV(Patient1_Healthy!R49,Patient2_Healthy!R49,Patient3_Healthy!R49,Patient4_Healthy!R49,Patient5_Healthy!R49,Patient6_Healthy!R49)</f>
+        <v>25.98897976380325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="21">
+        <f>AVERAGE(Patient1_Healthy!B50,Patient2_Healthy!B50,Patient3_Healthy!B50,Patient4_Healthy!B50,Patient5_Healthy!B50,Patient6_Healthy!B50)</f>
+        <v>34.614412339602119</v>
+      </c>
+      <c r="C51" s="21">
+        <f>STDEV(Patient1_Healthy!B50,Patient2_Healthy!B50,Patient3_Healthy!B50,Patient4_Healthy!B50,Patient5_Healthy!B50,Patient6_Healthy!B50)</f>
+        <v>7.57141546264155</v>
+      </c>
+      <c r="D51" s="21">
+        <f>AVERAGE(Patient1_Healthy!C50,Patient2_Healthy!C50,Patient3_Healthy!C50,Patient4_Healthy!C50,Patient5_Healthy!C50,Patient6_Healthy!C50)</f>
+        <v>13.268614682183264</v>
+      </c>
+      <c r="E51" s="21">
+        <f>STDEV(Patient1_Healthy!C50,Patient2_Healthy!C50,Patient3_Healthy!C50,Patient4_Healthy!C50,Patient5_Healthy!C50,Patient6_Healthy!C50)</f>
+        <v>3.654646082389752</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51">
+        <f>AVERAGE(Patient1_Healthy!I63,Patient2_Healthy!I63,Patient3_Healthy!I50,Patient4_Healthy!I50,Patient5_Healthy!I50,Patient6_Healthy!I50)</f>
+        <v>0.13761846915175927</v>
+      </c>
+      <c r="J51">
+        <f>STDEV(Patient1_Healthy!I63,Patient2_Healthy!I63,Patient3_Healthy!I50,Patient4_Healthy!I50,Patient5_Healthy!I50,Patient6_Healthy!I50)</f>
+        <v>8.1508808949777384E-2</v>
+      </c>
+      <c r="K51" s="26">
+        <f>AVERAGE(Patient1_Healthy!J63,Patient2_Healthy!J63,Patient3_Healthy!J50,Patient4_Healthy!J50,Patient5_Healthy!J50,Patient6_Healthy!J50)</f>
+        <v>7.9501573526005939E-2</v>
+      </c>
+      <c r="L51">
+        <f>STDEV(Patient1_Healthy!J63,Patient2_Healthy!J63,Patient3_Healthy!J50,Patient4_Healthy!J50,Patient5_Healthy!J50,Patient6_Healthy!J50)</f>
+        <v>2.5203736695290427E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H52" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52">
+        <f>AVERAGE(Patient1_Healthy!I64,Patient2_Healthy!I64,Patient3_Healthy!I51,Patient4_Healthy!I51,Patient5_Healthy!I51,Patient6_Healthy!I51)</f>
+        <v>0.11324410462522201</v>
+      </c>
+      <c r="J52">
+        <f>STDEV(Patient1_Healthy!I64,Patient2_Healthy!I64,Patient3_Healthy!I51,Patient4_Healthy!I51,Patient5_Healthy!I51,Patient6_Healthy!I51)</f>
+        <v>2.1895810294542337E-2</v>
+      </c>
+      <c r="K52" s="26">
+        <f>AVERAGE(Patient1_Healthy!J64,Patient2_Healthy!J64,Patient3_Healthy!J51,Patient4_Healthy!J51,Patient5_Healthy!J51,Patient6_Healthy!J51)</f>
+        <v>0.10165628949714285</v>
+      </c>
+      <c r="L52">
+        <f>STDEV(Patient1_Healthy!J64,Patient2_Healthy!J64,Patient3_Healthy!J51,Patient4_Healthy!J51,Patient5_Healthy!J51,Patient6_Healthy!J51)</f>
+        <v>2.0467013908555501E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H53" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53">
+        <f>AVERAGE(Patient1_Healthy!I65,Patient2_Healthy!I65,Patient3_Healthy!I52,Patient4_Healthy!I52,Patient5_Healthy!I52,Patient6_Healthy!I52)</f>
+        <v>0.18305166267207376</v>
+      </c>
+      <c r="J53">
+        <f>STDEV(Patient1_Healthy!I65,Patient2_Healthy!I65,Patient3_Healthy!I52,Patient4_Healthy!I52,Patient5_Healthy!I52,Patient6_Healthy!I52)</f>
+        <v>0.13476001227426243</v>
+      </c>
+      <c r="K53" s="26">
+        <f>AVERAGE(Patient1_Healthy!J65,Patient2_Healthy!J65,Patient3_Healthy!J52,Patient4_Healthy!J52,Patient5_Healthy!J52,Patient6_Healthy!J52)</f>
+        <v>0.14884405668197767</v>
+      </c>
+      <c r="L53">
+        <f>STDEV(Patient1_Healthy!J65,Patient2_Healthy!J65,Patient3_Healthy!J52,Patient4_Healthy!J52,Patient5_Healthy!J52,Patient6_Healthy!J52)</f>
+        <v>0.10040771763060181</v>
+      </c>
+      <c r="Q53" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R53" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H54" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54">
+        <f>AVERAGE(Patient1_Healthy!I66,Patient2_Healthy!I66,Patient3_Healthy!I53,Patient4_Healthy!I53,Patient5_Healthy!I53,Patient6_Healthy!I53)</f>
+        <v>0.25086335889931349</v>
+      </c>
+      <c r="J54">
+        <f>STDEV(Patient1_Healthy!I66,Patient2_Healthy!I66,Patient3_Healthy!I53,Patient4_Healthy!I53,Patient5_Healthy!I53,Patient6_Healthy!I53)</f>
+        <v>0.1568936376966942</v>
+      </c>
+      <c r="K54" s="26">
+        <f>AVERAGE(Patient1_Healthy!J66,Patient2_Healthy!J66,Patient3_Healthy!J53,Patient4_Healthy!J53,Patient5_Healthy!J53,Patient6_Healthy!J53)</f>
+        <v>0.18815435517857862</v>
+      </c>
+      <c r="L54">
+        <f>STDEV(Patient1_Healthy!J66,Patient2_Healthy!J66,Patient3_Healthy!J53,Patient4_Healthy!J53,Patient5_Healthy!J53,Patient6_Healthy!J53)</f>
+        <v>0.12637700873666677</v>
+      </c>
+      <c r="P54" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54">
+        <f>AVERAGE(Patient1_Healthy!Q52,Patient2_Healthy!Q52,Patient3_Healthy!Q52,Patient4_Healthy!Q52,Patient5_Healthy!Q52,Patient6_Healthy!Q52)</f>
+        <v>4221.9851463713258</v>
+      </c>
+      <c r="R54">
+        <f>STDEV(Patient1_Healthy!Q52,Patient2_Healthy!Q52,Patient3_Healthy!Q52,Patient4_Healthy!Q52,Patient5_Healthy!Q52,Patient6_Healthy!Q52)</f>
+        <v>4533.0011028607896</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H55" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55">
+        <f>AVERAGE(Patient1_Healthy!I67,Patient2_Healthy!I67,Patient3_Healthy!I54,Patient4_Healthy!I54,Patient5_Healthy!I54,Patient6_Healthy!I54)</f>
+        <v>0.22143612292830631</v>
+      </c>
+      <c r="J55">
+        <f>STDEV(Patient1_Healthy!I67,Patient2_Healthy!I67,Patient3_Healthy!I54,Patient4_Healthy!I54,Patient5_Healthy!I54,Patient6_Healthy!I54)</f>
+        <v>9.968956411501094E-2</v>
+      </c>
+      <c r="K55" s="26">
+        <f>AVERAGE(Patient1_Healthy!J67,Patient2_Healthy!J67,Patient3_Healthy!J54,Patient4_Healthy!J54,Patient5_Healthy!J54,Patient6_Healthy!J54)</f>
+        <v>0.17436709142541332</v>
+      </c>
+      <c r="L55">
+        <f>STDEV(Patient1_Healthy!J67,Patient2_Healthy!J67,Patient3_Healthy!J54,Patient4_Healthy!J54,Patient5_Healthy!J54,Patient6_Healthy!J54)</f>
+        <v>7.6148703149433505E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="43"/>
+      <c r="D59" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="43"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="41"/>
+      <c r="K59" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="41"/>
+      <c r="Q59" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R59" s="45"/>
+      <c r="S59" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="T59" s="45"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K60" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L60" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R60" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S60" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T60" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="21">
+        <f>AVERAGE(Patient1_Healthy!B73,Patient2_Healthy!B73,Patient3_Healthy!B60,Patient4_Healthy!B60,Patient5_Healthy!B60,Patient6_Healthy!B60)</f>
+        <v>117.70648698989883</v>
+      </c>
+      <c r="C61" s="21">
+        <f>STDEV(Patient1_Healthy!B73,Patient2_Healthy!B73,Patient3_Healthy!B60,Patient4_Healthy!B60,Patient5_Healthy!B60,Patient6_Healthy!B60)</f>
+        <v>218.04985820807954</v>
+      </c>
+      <c r="D61" s="21">
+        <f>AVERAGE(Patient1_Healthy!C73,Patient2_Healthy!C73,Patient3_Healthy!C60,Patient4_Healthy!C60,Patient5_Healthy!C60,Patient6_Healthy!C60)</f>
+        <v>26.008733577298173</v>
+      </c>
+      <c r="E61" s="21">
+        <f>STDEV(Patient1_Healthy!C73,Patient2_Healthy!C73,Patient3_Healthy!C60,Patient4_Healthy!C60,Patient5_Healthy!C60,Patient6_Healthy!C60)</f>
+        <v>37.234700426973724</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61">
+        <f>AVERAGE(Patient1_Healthy!I73,Patient2_Healthy!I73,Patient3_Healthy!I60,Patient4_Healthy!I60,Patient5_Healthy!I60,Patient6_Healthy!I60)</f>
+        <v>0.10111833503975393</v>
+      </c>
+      <c r="J61">
+        <f>STDEV(Patient1_Healthy!I73,Patient2_Healthy!I73,Patient3_Healthy!I60,Patient4_Healthy!I60,Patient5_Healthy!I60,Patient6_Healthy!I60)</f>
+        <v>7.0667095743931471E-2</v>
+      </c>
+      <c r="K61" s="26">
+        <f>AVERAGE(Patient1_Healthy!J73,Patient2_Healthy!J73,Patient3_Healthy!J60,Patient4_Healthy!J60,Patient5_Healthy!J60,Patient6_Healthy!J60)</f>
+        <v>0.10142455848672755</v>
+      </c>
+      <c r="L61">
+        <f>STDEV(Patient1_Healthy!J73,Patient2_Healthy!J73,Patient3_Healthy!J60,Patient4_Healthy!J60,Patient5_Healthy!J60,Patient6_Healthy!J60)</f>
+        <v>4.4866340596257812E-2</v>
+      </c>
+      <c r="P61" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q61">
+        <f>AVERAGE(Patient1_Healthy!Q73,Patient2_Healthy!Q73,Patient3_Healthy!Q60,Patient4_Healthy!Q60,Patient5_Healthy!Q60,Patient6_Healthy!Q60)</f>
+        <v>-0.23819229033955427</v>
+      </c>
+      <c r="R61">
+        <f>STDEV(Patient1_Healthy!Q73,Patient2_Healthy!Q73,Patient3_Healthy!Q60,Patient4_Healthy!Q60,Patient5_Healthy!Q60,Patient6_Healthy!Q60)</f>
+        <v>0.80121862210336869</v>
+      </c>
+      <c r="S61" s="26">
+        <f>AVERAGE(Patient1_Healthy!R73,Patient2_Healthy!R73,Patient3_Healthy!R60,Patient4_Healthy!R60,Patient5_Healthy!R60,Patient6_Healthy!R60)</f>
+        <v>-4.0301919224143652E-3</v>
+      </c>
+      <c r="T61">
+        <f>STDEV(Patient1_Healthy!R73,Patient2_Healthy!R73,Patient3_Healthy!R60,Patient4_Healthy!R60,Patient5_Healthy!R60,Patient6_Healthy!R60)</f>
+        <v>0.74577469145227127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="21">
+        <f>AVERAGE(Patient1_Healthy!B74,Patient2_Healthy!B74,Patient3_Healthy!B61,Patient4_Healthy!B61,Patient5_Healthy!B61,Patient6_Healthy!B61)</f>
+        <v>48.318073977637198</v>
+      </c>
+      <c r="C62" s="21">
+        <f>STDEV(Patient1_Healthy!B74,Patient2_Healthy!B74,Patient3_Healthy!B61,Patient4_Healthy!B61,Patient5_Healthy!B61,Patient6_Healthy!B61)</f>
+        <v>18.131901164672886</v>
+      </c>
+      <c r="D62" s="21">
+        <f>AVERAGE(Patient1_Healthy!C74,Patient2_Healthy!C74,Patient3_Healthy!C61,Patient4_Healthy!C61,Patient5_Healthy!C61,Patient6_Healthy!C61)</f>
+        <v>59.485223517992445</v>
+      </c>
+      <c r="E62" s="21">
+        <f>STDEV(Patient1_Healthy!C74,Patient2_Healthy!C74,Patient3_Healthy!C61,Patient4_Healthy!C61,Patient5_Healthy!C61,Patient6_Healthy!C61)</f>
+        <v>28.192622348188586</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62">
+        <f>AVERAGE(Patient1_Healthy!I74,Patient2_Healthy!I74,Patient3_Healthy!I61,Patient4_Healthy!I61,Patient5_Healthy!I61,Patient6_Healthy!I61)</f>
+        <v>0.10419489624398691</v>
+      </c>
+      <c r="J62">
+        <f>STDEV(Patient1_Healthy!I74,Patient2_Healthy!I74,Patient3_Healthy!I61,Patient4_Healthy!I61,Patient5_Healthy!I61,Patient6_Healthy!I61)</f>
+        <v>6.5492203307258537E-2</v>
+      </c>
+      <c r="K62" s="26">
+        <f>AVERAGE(Patient1_Healthy!J74,Patient2_Healthy!J74,Patient3_Healthy!J61,Patient4_Healthy!J61,Patient5_Healthy!J61,Patient6_Healthy!J61)</f>
+        <v>0.1051402232086479</v>
+      </c>
+      <c r="L62">
+        <f>STDEV(Patient1_Healthy!J74,Patient2_Healthy!J74,Patient3_Healthy!J61,Patient4_Healthy!J61,Patient5_Healthy!J61,Patient6_Healthy!J61)</f>
+        <v>6.2956828447654323E-2</v>
+      </c>
+      <c r="P62" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q62">
+        <f>AVERAGE(Patient1_Healthy!Q74,Patient2_Healthy!Q74,Patient3_Healthy!Q61,Patient4_Healthy!Q61,Patient5_Healthy!Q61,Patient6_Healthy!Q61)</f>
+        <v>12.248540138152242</v>
+      </c>
+      <c r="R62">
+        <f>STDEV(Patient1_Healthy!Q74,Patient2_Healthy!Q74,Patient3_Healthy!Q61,Patient4_Healthy!Q61,Patient5_Healthy!Q61,Patient6_Healthy!Q61)</f>
+        <v>4.3693499430007714</v>
+      </c>
+      <c r="S62" s="26">
+        <f>AVERAGE(Patient1_Healthy!R74,Patient2_Healthy!R74,Patient3_Healthy!R61,Patient4_Healthy!R61,Patient5_Healthy!R61,Patient6_Healthy!R61)</f>
+        <v>16.981597364915729</v>
+      </c>
+      <c r="T62">
+        <f>STDEV(Patient1_Healthy!R74,Patient2_Healthy!R74,Patient3_Healthy!R61,Patient4_Healthy!R61,Patient5_Healthy!R61,Patient6_Healthy!R61)</f>
+        <v>4.1988596477600453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="21">
+        <f>AVERAGE(Patient1_Healthy!B75,Patient2_Healthy!B75,Patient3_Healthy!B62,Patient4_Healthy!B62,Patient5_Healthy!B62,Patient6_Healthy!B62)</f>
+        <v>25.391302454580664</v>
+      </c>
+      <c r="C63" s="21">
+        <f>STDEV(Patient1_Healthy!B75,Patient2_Healthy!B75,Patient3_Healthy!B62,Patient4_Healthy!B62,Patient5_Healthy!B62,Patient6_Healthy!B62)</f>
+        <v>18.07674319456796</v>
+      </c>
+      <c r="D63" s="21">
+        <f>AVERAGE(Patient1_Healthy!C75,Patient2_Healthy!C75,Patient3_Healthy!C62,Patient4_Healthy!C62,Patient5_Healthy!C62,Patient6_Healthy!C62)</f>
+        <v>21.340384281599512</v>
+      </c>
+      <c r="E63" s="21">
+        <f>STDEV(Patient1_Healthy!C75,Patient2_Healthy!C75,Patient3_Healthy!C62,Patient4_Healthy!C62,Patient5_Healthy!C62,Patient6_Healthy!C62)</f>
+        <v>9.7412272382922875</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63">
+        <f>AVERAGE(Patient1_Healthy!I75,Patient2_Healthy!I75,Patient3_Healthy!I62,Patient4_Healthy!I62,Patient5_Healthy!I62,Patient6_Healthy!I62)</f>
+        <v>0.1155824579135399</v>
+      </c>
+      <c r="J63">
+        <f>STDEV(Patient1_Healthy!I75,Patient2_Healthy!I75,Patient3_Healthy!I62,Patient4_Healthy!I62,Patient5_Healthy!I62,Patient6_Healthy!I62)</f>
+        <v>8.4802788471967247E-2</v>
+      </c>
+      <c r="K63" s="26">
+        <f>AVERAGE(Patient1_Healthy!J75,Patient2_Healthy!J75,Patient3_Healthy!J62,Patient4_Healthy!J62,Patient5_Healthy!J62,Patient6_Healthy!J62)</f>
+        <v>0.11399096682268615</v>
+      </c>
+      <c r="L63">
+        <f>STDEV(Patient1_Healthy!J75,Patient2_Healthy!J75,Patient3_Healthy!J62,Patient4_Healthy!J62,Patient5_Healthy!J62,Patient6_Healthy!J62)</f>
+        <v>6.2303715151788751E-2</v>
+      </c>
+      <c r="P63" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q63">
+        <f>AVERAGE(Patient1_Healthy!Q75,Patient2_Healthy!Q75,Patient3_Healthy!Q62,Patient4_Healthy!Q62,Patient5_Healthy!Q62,Patient6_Healthy!Q62)</f>
+        <v>81.988916766457066</v>
+      </c>
+      <c r="R63">
+        <f>STDEV(Patient1_Healthy!Q75,Patient2_Healthy!Q75,Patient3_Healthy!Q62,Patient4_Healthy!Q62,Patient5_Healthy!Q62,Patient6_Healthy!Q62)</f>
+        <v>43.59369878666655</v>
+      </c>
+      <c r="S63" s="26">
+        <f>AVERAGE(Patient1_Healthy!R75,Patient2_Healthy!R75,Patient3_Healthy!R62,Patient4_Healthy!R62,Patient5_Healthy!R62,Patient6_Healthy!R62)</f>
+        <v>107.66875273814685</v>
+      </c>
+      <c r="T63">
+        <f>STDEV(Patient1_Healthy!R75,Patient2_Healthy!R75,Patient3_Healthy!R62,Patient4_Healthy!R62,Patient5_Healthy!R62,Patient6_Healthy!R62)</f>
+        <v>33.049034440900734</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="21">
+        <f>AVERAGE(Patient1_Healthy!B76,Patient2_Healthy!B76,Patient3_Healthy!B63,Patient4_Healthy!B63,Patient5_Healthy!B63,Patient6_Healthy!B63)</f>
+        <v>42.722040064522993</v>
+      </c>
+      <c r="C64" s="21">
+        <f>STDEV(Patient1_Healthy!B76,Patient2_Healthy!B76,Patient3_Healthy!B63,Patient4_Healthy!B63,Patient5_Healthy!B63,Patient6_Healthy!B63)</f>
+        <v>44.625425425460314</v>
+      </c>
+      <c r="D64" s="21">
+        <f>AVERAGE(Patient1_Healthy!C76,Patient2_Healthy!C76,Patient3_Healthy!C63,Patient4_Healthy!C63,Patient5_Healthy!C63,Patient6_Healthy!C63)</f>
+        <v>26.649619197905533</v>
+      </c>
+      <c r="E64" s="21">
+        <f>STDEV(Patient1_Healthy!C76,Patient2_Healthy!C76,Patient3_Healthy!C63,Patient4_Healthy!C63,Patient5_Healthy!C63,Patient6_Healthy!C63)</f>
+        <v>20.4840547955876</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64">
+        <f>AVERAGE(Patient1_Healthy!I76,Patient2_Healthy!I76,Patient3_Healthy!I63,Patient4_Healthy!I63,Patient5_Healthy!I63,Patient6_Healthy!I63)</f>
+        <v>0.18711780630768424</v>
+      </c>
+      <c r="J64">
+        <f>STDEV(Patient1_Healthy!I76,Patient2_Healthy!I76,Patient3_Healthy!I63,Patient4_Healthy!I63,Patient5_Healthy!I63,Patient6_Healthy!I63)</f>
+        <v>0.1173241198445604</v>
+      </c>
+      <c r="K64" s="26">
+        <f>AVERAGE(Patient1_Healthy!J76,Patient2_Healthy!J76,Patient3_Healthy!J63,Patient4_Healthy!J63,Patient5_Healthy!J63,Patient6_Healthy!J63)</f>
+        <v>0.19117549117769042</v>
+      </c>
+      <c r="L64">
+        <f>STDEV(Patient1_Healthy!J76,Patient2_Healthy!J76,Patient3_Healthy!J63,Patient4_Healthy!J63,Patient5_Healthy!J63,Patient6_Healthy!J63)</f>
+        <v>0.10524208884452507</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H65" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65">
+        <f>AVERAGE(Patient1_Healthy!I77,Patient2_Healthy!I77,Patient3_Healthy!I64,Patient4_Healthy!I64,Patient5_Healthy!I64,Patient6_Healthy!I64)</f>
+        <v>8.4765132411949537E-2</v>
+      </c>
+      <c r="J65">
+        <f>STDEV(Patient1_Healthy!I77,Patient2_Healthy!I77,Patient3_Healthy!I64,Patient4_Healthy!I64,Patient5_Healthy!I64,Patient6_Healthy!I64)</f>
+        <v>6.0126538088304787E-2</v>
+      </c>
+      <c r="K65" s="26">
+        <f>AVERAGE(Patient1_Healthy!J77,Patient2_Healthy!J77,Patient3_Healthy!J64,Patient4_Healthy!J64,Patient5_Healthy!J64,Patient6_Healthy!J64)</f>
+        <v>9.7446122316445297E-2</v>
+      </c>
+      <c r="L65">
+        <f>STDEV(Patient1_Healthy!J77,Patient2_Healthy!J77,Patient3_Healthy!J64,Patient4_Healthy!J64,Patient5_Healthy!J64,Patient6_Healthy!J64)</f>
+        <v>5.7310212465810799E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H66" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66">
+        <f>AVERAGE(Patient1_Healthy!I78,Patient2_Healthy!I78,Patient3_Healthy!I65,Patient4_Healthy!I65,Patient5_Healthy!I65,Patient6_Healthy!I65)</f>
+        <v>9.5419152524026926E-2</v>
+      </c>
+      <c r="J66">
+        <f>STDEV(Patient1_Healthy!I78,Patient2_Healthy!I78,Patient3_Healthy!I65,Patient4_Healthy!I65,Patient5_Healthy!I65,Patient6_Healthy!I65)</f>
+        <v>6.4591335846261852E-2</v>
+      </c>
+      <c r="K66" s="26">
+        <f>AVERAGE(Patient1_Healthy!J78,Patient2_Healthy!J78,Patient3_Healthy!J65,Patient4_Healthy!J65,Patient5_Healthy!J65,Patient6_Healthy!J65)</f>
+        <v>8.1234691133863432E-2</v>
+      </c>
+      <c r="L66">
+        <f>STDEV(Patient1_Healthy!J78,Patient2_Healthy!J78,Patient3_Healthy!J65,Patient4_Healthy!J65,Patient5_Healthy!J65,Patient6_Healthy!J65)</f>
+        <v>3.3376512241205747E-2</v>
+      </c>
+      <c r="Q66" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R66" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H67" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67">
+        <f>AVERAGE(Patient1_Healthy!I79,Patient2_Healthy!I79,Patient3_Healthy!I66,Patient4_Healthy!I66,Patient5_Healthy!I66,Patient6_Healthy!I66)</f>
+        <v>0.13955466638116701</v>
+      </c>
+      <c r="J67">
+        <f>STDEV(Patient1_Healthy!I79,Patient2_Healthy!I79,Patient3_Healthy!I66,Patient4_Healthy!I66,Patient5_Healthy!I66,Patient6_Healthy!I66)</f>
+        <v>7.5929767300812287E-2</v>
+      </c>
+      <c r="K67" s="26">
+        <f>AVERAGE(Patient1_Healthy!J79,Patient2_Healthy!J79,Patient3_Healthy!J66,Patient4_Healthy!J66,Patient5_Healthy!J66,Patient6_Healthy!J66)</f>
+        <v>0.11073755405357681</v>
+      </c>
+      <c r="L67">
+        <f>STDEV(Patient1_Healthy!J79,Patient2_Healthy!J79,Patient3_Healthy!J66,Patient4_Healthy!J66,Patient5_Healthy!J66,Patient6_Healthy!J66)</f>
+        <v>6.2512253023330411E-2</v>
+      </c>
+      <c r="P67" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67">
+        <f>AVERAGE(Patient1_Healthy!Q78,Patient2_Healthy!Q78,Patient3_Healthy!Q65,Patient4_Healthy!Q65,Patient5_Healthy!Q65,Patient6_Healthy!Q65)</f>
+        <v>4649.536151032451</v>
+      </c>
+      <c r="R67" s="26">
+        <f>STDEV(Patient1_Healthy!Q78,Patient2_Healthy!Q78,Patient3_Healthy!Q65,Patient4_Healthy!Q65,Patient5_Healthy!Q65,Patient6_Healthy!Q65)</f>
+        <v>3865.3657876090006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H68" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68">
+        <f>AVERAGE(Patient1_Healthy!I80,Patient2_Healthy!I80,Patient3_Healthy!I67,Patient4_Healthy!I67,Patient5_Healthy!I67,Patient6_Healthy!I67)</f>
+        <v>0.10549731750719964</v>
+      </c>
+      <c r="J68">
+        <f>STDEV(Patient1_Healthy!I80,Patient2_Healthy!I80,Patient3_Healthy!I67,Patient4_Healthy!I67,Patient5_Healthy!I67,Patient6_Healthy!I67)</f>
+        <v>3.0962732377825042E-2</v>
+      </c>
+      <c r="K68" s="26">
+        <f>AVERAGE(Patient1_Healthy!J80,Patient2_Healthy!J80,Patient3_Healthy!J67,Patient4_Healthy!J67,Patient5_Healthy!J67,Patient6_Healthy!J67)</f>
+        <v>0.10168223015577589</v>
+      </c>
+      <c r="L68">
+        <f>STDEV(Patient1_Healthy!J80,Patient2_Healthy!J80,Patient3_Healthy!J67,Patient4_Healthy!J67,Patient5_Healthy!J67,Patient6_Healthy!J67)</f>
+        <v>3.8134071531428226E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="43"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="41"/>
+      <c r="K72" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72" s="41"/>
+      <c r="Q72" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R72" s="45"/>
+      <c r="S72" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="T72" s="45"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L73" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R73" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S73" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T73" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="21">
+        <f>AVERAGE(Patient1_Healthy!B86,Patient2_Healthy!B86,Patient3_Healthy!B73,Patient4_Healthy!B73,Patient5_Healthy!B73,Patient6_Healthy!B73)</f>
+        <v>16.682644370285519</v>
+      </c>
+      <c r="C74" s="21">
+        <f>STDEV(Patient1_Healthy!B86,Patient2_Healthy!B86,Patient3_Healthy!B73,Patient4_Healthy!B73,Patient5_Healthy!B73,Patient6_Healthy!B73)</f>
+        <v>23.299923496619584</v>
+      </c>
+      <c r="D74" s="21">
+        <f>AVERAGE(Patient1_Healthy!C86,Patient2_Healthy!C86,Patient3_Healthy!C73,Patient4_Healthy!C73,Patient5_Healthy!C73,Patient6_Healthy!C73)</f>
+        <v>6.6301755074815745</v>
+      </c>
+      <c r="E74" s="21">
+        <f>STDEV(Patient1_Healthy!C86,Patient2_Healthy!C86,Patient3_Healthy!C73,Patient4_Healthy!C73,Patient5_Healthy!C73,Patient6_Healthy!C73)</f>
+        <v>4.3992046674836134</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74">
+        <f>AVERAGE(Patient1_Healthy!I86,Patient2_Healthy!I86,Patient3_Healthy!I73,Patient4_Healthy!I73,Patient5_Healthy!I73,Patient6_Healthy!I73)</f>
+        <v>0.22942926822487875</v>
+      </c>
+      <c r="J74">
+        <f>STDEV(Patient1_Healthy!I86,Patient2_Healthy!I86,Patient3_Healthy!I73,Patient4_Healthy!I73,Patient5_Healthy!I73,Patient6_Healthy!I73)</f>
+        <v>0.12168121817751809</v>
+      </c>
+      <c r="K74" s="26">
+        <f>AVERAGE(Patient1_Healthy!J86,Patient2_Healthy!J86,Patient3_Healthy!J73,Patient4_Healthy!J73,Patient5_Healthy!J73,Patient6_Healthy!J73)</f>
+        <v>0.19830255653226866</v>
+      </c>
+      <c r="L74">
+        <f>STDEV(Patient1_Healthy!J86,Patient2_Healthy!J86,Patient3_Healthy!J73,Patient4_Healthy!J73,Patient5_Healthy!J73,Patient6_Healthy!J73)</f>
+        <v>8.311305191054591E-2</v>
+      </c>
+      <c r="P74" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q74">
+        <f>AVERAGE(Patient1_Healthy!Q86,Patient2_Healthy!Q86,Patient3_Healthy!Q73,Patient4_Healthy!Q73,Patient5_Healthy!Q73,Patient6_Healthy!Q73)</f>
+        <v>-4.2873512152253018E-2</v>
+      </c>
+      <c r="R74">
+        <f>STDEV(Patient1_Healthy!Q86,Patient2_Healthy!Q86,Patient3_Healthy!Q73,Patient4_Healthy!Q73,Patient5_Healthy!Q73,Patient6_Healthy!Q73)</f>
+        <v>0.2857201098028378</v>
+      </c>
+      <c r="S74" s="26">
+        <f>AVERAGE(Patient1_Healthy!R86,Patient2_Healthy!R86,Patient3_Healthy!R73,Patient4_Healthy!R73,Patient5_Healthy!R73,Patient6_Healthy!R73)</f>
+        <v>4.5325922638728604E-3</v>
+      </c>
+      <c r="T74">
+        <f>STDEV(Patient1_Healthy!R86,Patient2_Healthy!R86,Patient3_Healthy!R73,Patient4_Healthy!R73,Patient5_Healthy!R73,Patient6_Healthy!R73)</f>
+        <v>0.42630077146769413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="21">
+        <f>AVERAGE(Patient1_Healthy!B87,Patient2_Healthy!B87,Patient3_Healthy!B74,Patient4_Healthy!B74,Patient5_Healthy!B74,Patient6_Healthy!B74)</f>
+        <v>19.224796719172939</v>
+      </c>
+      <c r="C75" s="21">
+        <f>STDEV(Patient1_Healthy!B87,Patient2_Healthy!B87,Patient3_Healthy!B74,Patient4_Healthy!B74,Patient5_Healthy!B74,Patient6_Healthy!B74)</f>
+        <v>10.389502844044705</v>
+      </c>
+      <c r="D75" s="21">
+        <f>AVERAGE(Patient1_Healthy!C87,Patient2_Healthy!C87,Patient3_Healthy!C74,Patient4_Healthy!C74,Patient5_Healthy!C74,Patient6_Healthy!C74)</f>
+        <v>20.99428296320054</v>
+      </c>
+      <c r="E75" s="21">
+        <f>STDEV(Patient1_Healthy!C87,Patient2_Healthy!C87,Patient3_Healthy!C74,Patient4_Healthy!C74,Patient5_Healthy!C74,Patient6_Healthy!C74)</f>
+        <v>22.381795057206634</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75">
+        <f>AVERAGE(Patient1_Healthy!I87,Patient2_Healthy!I87,Patient3_Healthy!I74,Patient4_Healthy!I74,Patient5_Healthy!I74,Patient6_Healthy!I74)</f>
+        <v>0.24943037783830782</v>
+      </c>
+      <c r="J75">
+        <f>STDEV(Patient1_Healthy!I87,Patient2_Healthy!I87,Patient3_Healthy!I74,Patient4_Healthy!I74,Patient5_Healthy!I74,Patient6_Healthy!I74)</f>
+        <v>0.14481804755108726</v>
+      </c>
+      <c r="K75" s="26">
+        <f>AVERAGE(Patient1_Healthy!J87,Patient2_Healthy!J87,Patient3_Healthy!J74,Patient4_Healthy!J74,Patient5_Healthy!J74,Patient6_Healthy!J74)</f>
+        <v>0.19102117057958459</v>
+      </c>
+      <c r="L75">
+        <f>STDEV(Patient1_Healthy!J87,Patient2_Healthy!J87,Patient3_Healthy!J74,Patient4_Healthy!J74,Patient5_Healthy!J74,Patient6_Healthy!J74)</f>
+        <v>9.7971744901607941E-2</v>
+      </c>
+      <c r="P75" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q75">
+        <f>AVERAGE(Patient1_Healthy!Q87,Patient2_Healthy!Q87,Patient3_Healthy!Q74,Patient4_Healthy!Q74,Patient5_Healthy!Q74,Patient6_Healthy!Q74)</f>
+        <v>3.2784003899747067</v>
+      </c>
+      <c r="R75">
+        <f>STDEV(Patient1_Healthy!Q87,Patient2_Healthy!Q87,Patient3_Healthy!Q74,Patient4_Healthy!Q74,Patient5_Healthy!Q74,Patient6_Healthy!Q74)</f>
+        <v>0.92808458317472142</v>
+      </c>
+      <c r="S75" s="26">
+        <f>AVERAGE(Patient1_Healthy!R87,Patient2_Healthy!R87,Patient3_Healthy!R74,Patient4_Healthy!R74,Patient5_Healthy!R74,Patient6_Healthy!R74)</f>
+        <v>4.8703462411437064</v>
+      </c>
+      <c r="T75">
+        <f>STDEV(Patient1_Healthy!R87,Patient2_Healthy!R87,Patient3_Healthy!R74,Patient4_Healthy!R74,Patient5_Healthy!R74,Patient6_Healthy!R74)</f>
+        <v>0.93436278387570815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="21">
+        <f>AVERAGE(Patient1_Healthy!B88,Patient2_Healthy!B88,Patient3_Healthy!B75,Patient4_Healthy!B75,Patient5_Healthy!B75,Patient6_Healthy!B75)</f>
+        <v>3.7321331135720648</v>
+      </c>
+      <c r="C76" s="21">
+        <f>STDEV(Patient1_Healthy!B88,Patient2_Healthy!B88,Patient3_Healthy!B75,Patient4_Healthy!B75,Patient5_Healthy!B75,Patient6_Healthy!B75)</f>
+        <v>1.1977920019798773</v>
+      </c>
+      <c r="D76" s="21">
+        <f>AVERAGE(Patient1_Healthy!C88,Patient2_Healthy!C88,Patient3_Healthy!C75,Patient4_Healthy!C75,Patient5_Healthy!C75,Patient6_Healthy!C75)</f>
+        <v>4.2666651509022318</v>
+      </c>
+      <c r="E76" s="21">
+        <f>STDEV(Patient1_Healthy!C88,Patient2_Healthy!C88,Patient3_Healthy!C75,Patient4_Healthy!C75,Patient5_Healthy!C75,Patient6_Healthy!C75)</f>
+        <v>1.5468036429717058</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76">
+        <f>AVERAGE(Patient1_Healthy!I88,Patient2_Healthy!I88,Patient3_Healthy!I75,Patient4_Healthy!I75,Patient5_Healthy!I75,Patient6_Healthy!I75)</f>
+        <v>0.22260339962477829</v>
+      </c>
+      <c r="J76">
+        <f>STDEV(Patient1_Healthy!I88,Patient2_Healthy!I88,Patient3_Healthy!I75,Patient4_Healthy!I75,Patient5_Healthy!I75,Patient6_Healthy!I75)</f>
+        <v>0.14144649256213032</v>
+      </c>
+      <c r="K76" s="26">
+        <f>AVERAGE(Patient1_Healthy!J88,Patient2_Healthy!J88,Patient3_Healthy!J75,Patient4_Healthy!J75,Patient5_Healthy!J75,Patient6_Healthy!J75)</f>
+        <v>0.157525011342384</v>
+      </c>
+      <c r="L76">
+        <f>STDEV(Patient1_Healthy!J88,Patient2_Healthy!J88,Patient3_Healthy!J75,Patient4_Healthy!J75,Patient5_Healthy!J75,Patient6_Healthy!J75)</f>
+        <v>0.10372741788342468</v>
+      </c>
+      <c r="P76" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q76">
+        <f>AVERAGE(Patient1_Healthy!Q88,Patient2_Healthy!Q88,Patient3_Healthy!Q75,Patient4_Healthy!Q75,Patient5_Healthy!Q75,Patient6_Healthy!Q75)</f>
+        <v>18.654232755258914</v>
+      </c>
+      <c r="R76">
+        <f>STDEV(Patient1_Healthy!Q88,Patient2_Healthy!Q88,Patient3_Healthy!Q75,Patient4_Healthy!Q75,Patient5_Healthy!Q75,Patient6_Healthy!Q75)</f>
+        <v>6.1019961132152414</v>
+      </c>
+      <c r="S76" s="26">
+        <f>AVERAGE(Patient1_Healthy!R88,Patient2_Healthy!R88,Patient3_Healthy!R75,Patient4_Healthy!R75,Patient5_Healthy!R75,Patient6_Healthy!R75)</f>
+        <v>31.436410023179064</v>
+      </c>
+      <c r="T76">
+        <f>STDEV(Patient1_Healthy!R88,Patient2_Healthy!R88,Patient3_Healthy!R75,Patient4_Healthy!R75,Patient5_Healthy!R75,Patient6_Healthy!R75)</f>
+        <v>9.9457898628801775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="21">
+        <f>AVERAGE(Patient1_Healthy!B89,Patient2_Healthy!B89,Patient3_Healthy!B76,Patient4_Healthy!B76,Patient5_Healthy!B76,Patient6_Healthy!B76)</f>
+        <v>7.0418961113548919</v>
+      </c>
+      <c r="C77" s="21">
+        <f>STDEV(Patient1_Healthy!B89,Patient2_Healthy!B89,Patient3_Healthy!B76,Patient4_Healthy!B76,Patient5_Healthy!B76,Patient6_Healthy!B76)</f>
+        <v>2.031290175948381</v>
+      </c>
+      <c r="D77" s="21">
+        <f>AVERAGE(Patient1_Healthy!C89,Patient2_Healthy!C89,Patient3_Healthy!C76,Patient4_Healthy!C76,Patient5_Healthy!C76,Patient6_Healthy!C76)</f>
+        <v>5.5890774947658208</v>
+      </c>
+      <c r="E77" s="21">
+        <f>STDEV(Patient1_Healthy!C89,Patient2_Healthy!C89,Patient3_Healthy!C76,Patient4_Healthy!C76,Patient5_Healthy!C76,Patient6_Healthy!C76)</f>
+        <v>2.8631422240794029</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77">
+        <f>AVERAGE(Patient1_Healthy!I89,Patient2_Healthy!I89,Patient3_Healthy!I76,Patient4_Healthy!I76,Patient5_Healthy!I76,Patient6_Healthy!I76)</f>
+        <v>0.19826606220858403</v>
+      </c>
+      <c r="J77">
+        <f>STDEV(Patient1_Healthy!I89,Patient2_Healthy!I89,Patient3_Healthy!I76,Patient4_Healthy!I76,Patient5_Healthy!I76,Patient6_Healthy!I76)</f>
+        <v>0.10152368276234101</v>
+      </c>
+      <c r="K77" s="26">
+        <f>AVERAGE(Patient1_Healthy!J89,Patient2_Healthy!J89,Patient3_Healthy!J76,Patient4_Healthy!J76,Patient5_Healthy!J76,Patient6_Healthy!J76)</f>
+        <v>0.18139948955117646</v>
+      </c>
+      <c r="L77">
+        <f>STDEV(Patient1_Healthy!J89,Patient2_Healthy!J89,Patient3_Healthy!J76,Patient4_Healthy!J76,Patient5_Healthy!J76,Patient6_Healthy!J76)</f>
+        <v>4.6654070929253014E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H78" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78">
+        <f>AVERAGE(Patient1_Healthy!I90,Patient2_Healthy!I90,Patient3_Healthy!I77,Patient4_Healthy!I77,Patient5_Healthy!I77,Patient6_Healthy!I77)</f>
+        <v>0.21136204822761864</v>
+      </c>
+      <c r="J78">
+        <f>STDEV(Patient1_Healthy!I90,Patient2_Healthy!I90,Patient3_Healthy!I77,Patient4_Healthy!I77,Patient5_Healthy!I77,Patient6_Healthy!I77)</f>
+        <v>0.14858377701332676</v>
+      </c>
+      <c r="K78" s="26">
+        <f>AVERAGE(Patient1_Healthy!J90,Patient2_Healthy!J90,Patient3_Healthy!J77,Patient4_Healthy!J77,Patient5_Healthy!J77,Patient6_Healthy!J77)</f>
+        <v>0.18225976145971626</v>
+      </c>
+      <c r="L78">
+        <f>STDEV(Patient1_Healthy!J90,Patient2_Healthy!J90,Patient3_Healthy!J77,Patient4_Healthy!J77,Patient5_Healthy!J77,Patient6_Healthy!J77)</f>
+        <v>9.949240976975092E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H79" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79">
+        <f>AVERAGE(Patient1_Healthy!I91,Patient2_Healthy!I91,Patient3_Healthy!I78,Patient4_Healthy!I78,Patient5_Healthy!I78,Patient6_Healthy!I78)</f>
+        <v>0.21132842418212192</v>
+      </c>
+      <c r="J79">
+        <f>STDEV(Patient1_Healthy!I91,Patient2_Healthy!I91,Patient3_Healthy!I78,Patient4_Healthy!I78,Patient5_Healthy!I78,Patient6_Healthy!I78)</f>
+        <v>0.15375879980306342</v>
+      </c>
+      <c r="K79" s="26">
+        <f>AVERAGE(Patient1_Healthy!J91,Patient2_Healthy!J91,Patient3_Healthy!J78,Patient4_Healthy!J78,Patient5_Healthy!J78,Patient6_Healthy!J78)</f>
+        <v>0.16993420928643596</v>
+      </c>
+      <c r="L79">
+        <f>STDEV(Patient1_Healthy!J91,Patient2_Healthy!J91,Patient3_Healthy!J78,Patient4_Healthy!J78,Patient5_Healthy!J78,Patient6_Healthy!J78)</f>
+        <v>0.10887359939307881</v>
+      </c>
+      <c r="Q79" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R79" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H80" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80">
+        <f>AVERAGE(Patient1_Healthy!I92,Patient2_Healthy!I92,Patient3_Healthy!I79,Patient4_Healthy!I79,Patient5_Healthy!I79,Patient6_Healthy!I79)</f>
+        <v>0.21643144143064499</v>
+      </c>
+      <c r="J80">
+        <f>STDEV(Patient1_Healthy!I92,Patient2_Healthy!I92,Patient3_Healthy!I79,Patient4_Healthy!I79,Patient5_Healthy!I79,Patient6_Healthy!I79)</f>
+        <v>0.12772156484174171</v>
+      </c>
+      <c r="K80" s="26">
+        <f>AVERAGE(Patient1_Healthy!J92,Patient2_Healthy!J92,Patient3_Healthy!J79,Patient4_Healthy!J79,Patient5_Healthy!J79,Patient6_Healthy!J79)</f>
+        <v>0.18664286956946011</v>
+      </c>
+      <c r="L80">
+        <f>STDEV(Patient1_Healthy!J92,Patient2_Healthy!J92,Patient3_Healthy!J79,Patient4_Healthy!J79,Patient5_Healthy!J79,Patient6_Healthy!J79)</f>
+        <v>7.5137500264039939E-2</v>
+      </c>
+      <c r="P80" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q80">
+        <f>AVERAGE(Patient1_Healthy!Q91,Patient2_Healthy!Q91,Patient3_Healthy!Q78,Patient4_Healthy!Q78,Patient5_Healthy!Q78,Patient6_Healthy!Q78)</f>
+        <v>214.84522138379671</v>
+      </c>
+      <c r="R80" s="26">
+        <f>STDEV(Patient1_Healthy!Q91,Patient2_Healthy!Q91,Patient3_Healthy!Q78,Patient4_Healthy!Q78,Patient5_Healthy!Q78,Patient6_Healthy!Q78)</f>
+        <v>107.42242427567052</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H81" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81">
+        <f>AVERAGE(Patient1_Healthy!I93,Patient2_Healthy!I93,Patient3_Healthy!I80,Patient4_Healthy!I80,Patient5_Healthy!I80,Patient6_Healthy!I80)</f>
+        <v>0.17607338625768076</v>
+      </c>
+      <c r="J81">
+        <f>STDEV(Patient1_Healthy!I93,Patient2_Healthy!I93,Patient3_Healthy!I80,Patient4_Healthy!I80,Patient5_Healthy!I80,Patient6_Healthy!I80)</f>
+        <v>7.8804569936831728E-2</v>
+      </c>
+      <c r="K81" s="26">
+        <f>AVERAGE(Patient1_Healthy!J93,Patient2_Healthy!J93,Patient3_Healthy!J80,Patient4_Healthy!J80,Patient5_Healthy!J80,Patient6_Healthy!J80)</f>
+        <v>0.15010885161529861</v>
+      </c>
+      <c r="L81">
+        <f>STDEV(Patient1_Healthy!J93,Patient2_Healthy!J93,Patient3_Healthy!J80,Patient4_Healthy!J80,Patient5_Healthy!J80,Patient6_Healthy!J80)</f>
+        <v>5.2330540746132546E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="43"/>
+      <c r="D85" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="43"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="41"/>
+      <c r="K85" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L85" s="41"/>
+      <c r="Q85" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R85" s="45"/>
+      <c r="S85" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="T85" s="45"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J86" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L86" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R86" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S86" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T86" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="21">
+        <f>AVERAGE(Patient1_Healthy!B99,Patient2_Healthy!B99,Patient3_Healthy!B86,Patient4_Healthy!B86,Patient5_Healthy!B86,Patient6_Healthy!B86)</f>
+        <v>170.98960973956227</v>
+      </c>
+      <c r="C87" s="21">
+        <f>STDEV(Patient1_Healthy!B99,Patient2_Healthy!B99,Patient3_Healthy!B86,Patient4_Healthy!B86,Patient5_Healthy!B86,Patient6_Healthy!B86)</f>
+        <v>348.21130164220415</v>
+      </c>
+      <c r="D87" s="21">
+        <f>AVERAGE(Patient1_Healthy!C99,Patient2_Healthy!C99,Patient3_Healthy!C86,Patient4_Healthy!C86,Patient5_Healthy!C86,Patient6_Healthy!C86)</f>
+        <v>25.975886036499546</v>
+      </c>
+      <c r="E87" s="21">
+        <f>STDEV(Patient1_Healthy!C99,Patient2_Healthy!C99,Patient3_Healthy!C86,Patient4_Healthy!C86,Patient5_Healthy!C86,Patient6_Healthy!C86)</f>
+        <v>22.219261229971675</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87">
+        <f>AVERAGE(Patient1_Healthy!I112,Patient2_Healthy!I112,Patient3_Healthy!I86,Patient4_Healthy!I86,Patient5_Healthy!I86,Patient6_Healthy!I86)</f>
+        <v>0.55063760878435053</v>
+      </c>
+      <c r="J87">
+        <f>STDEV(Patient1_Healthy!I112,Patient2_Healthy!I112,Patient3_Healthy!I86,Patient4_Healthy!I86,Patient5_Healthy!I86,Patient6_Healthy!I86)</f>
+        <v>0.26493547630489744</v>
+      </c>
+      <c r="K87" s="26">
+        <f>AVERAGE(Patient1_Healthy!J112,Patient2_Healthy!J112,Patient3_Healthy!J86,Patient4_Healthy!J86,Patient5_Healthy!J86,Patient6_Healthy!J86)</f>
+        <v>0.53376718651057375</v>
+      </c>
+      <c r="L87">
+        <f>STDEV(Patient1_Healthy!J112,Patient2_Healthy!J112,Patient3_Healthy!J86,Patient4_Healthy!J86,Patient5_Healthy!J86,Patient6_Healthy!J86)</f>
+        <v>0.22779762164933365</v>
+      </c>
+      <c r="P87" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q87">
+        <f>AVERAGE(Patient1_Healthy!Q99,Patient2_Healthy!Q99,Patient3_Healthy!Q86,Patient4_Healthy!Q86,Patient5_Healthy!Q86,Patient6_Healthy!Q86)</f>
+        <v>0.17020706866749177</v>
+      </c>
+      <c r="R87">
+        <f>STDEV(Patient1_Healthy!Q99,Patient2_Healthy!Q99,Patient3_Healthy!Q86,Patient4_Healthy!Q86,Patient5_Healthy!Q86,Patient6_Healthy!Q86)</f>
+        <v>0.74360690503620008</v>
+      </c>
+      <c r="S87" s="26">
+        <f>AVERAGE(Patient1_Healthy!R99,Patient2_Healthy!R99,Patient3_Healthy!R86,Patient4_Healthy!R86,Patient5_Healthy!R86,Patient6_Healthy!R86)</f>
+        <v>0.55809178817015426</v>
+      </c>
+      <c r="T87">
+        <f>STDEV(Patient1_Healthy!R99,Patient2_Healthy!R99,Patient3_Healthy!R86,Patient4_Healthy!R86,Patient5_Healthy!R86,Patient6_Healthy!R86)</f>
+        <v>1.5316095900956874</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="21">
+        <f>AVERAGE(Patient1_Healthy!B100,Patient2_Healthy!B100,Patient3_Healthy!B87,Patient4_Healthy!B87,Patient5_Healthy!B87,Patient6_Healthy!B87)</f>
+        <v>70.548504122450268</v>
+      </c>
+      <c r="C88" s="21">
+        <f>STDEV(Patient1_Healthy!B100,Patient2_Healthy!B100,Patient3_Healthy!B87,Patient4_Healthy!B87,Patient5_Healthy!B87,Patient6_Healthy!B87)</f>
+        <v>28.287520321871334</v>
+      </c>
+      <c r="D88" s="21">
+        <f>AVERAGE(Patient1_Healthy!C100,Patient2_Healthy!C100,Patient3_Healthy!C87,Patient4_Healthy!C87,Patient5_Healthy!C87,Patient6_Healthy!C87)</f>
+        <v>75.701331299853976</v>
+      </c>
+      <c r="E88" s="21">
+        <f>STDEV(Patient1_Healthy!C100,Patient2_Healthy!C100,Patient3_Healthy!C87,Patient4_Healthy!C87,Patient5_Healthy!C87,Patient6_Healthy!C87)</f>
+        <v>30.820911947819813</v>
+      </c>
+      <c r="H88" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88">
+        <f>AVERAGE(Patient1_Healthy!I113,Patient2_Healthy!I113,Patient3_Healthy!I87,Patient4_Healthy!I87,Patient5_Healthy!I87,Patient6_Healthy!I87)</f>
+        <v>0.56726819711296061</v>
+      </c>
+      <c r="J88">
+        <f>STDEV(Patient1_Healthy!I113,Patient2_Healthy!I113,Patient3_Healthy!I87,Patient4_Healthy!I87,Patient5_Healthy!I87,Patient6_Healthy!I87)</f>
+        <v>0.25997640113213144</v>
+      </c>
+      <c r="K88" s="26">
+        <f>AVERAGE(Patient1_Healthy!J113,Patient2_Healthy!J113,Patient3_Healthy!J87,Patient4_Healthy!J87,Patient5_Healthy!J87,Patient6_Healthy!J87)</f>
+        <v>0.5727657444687273</v>
+      </c>
+      <c r="L88">
+        <f>STDEV(Patient1_Healthy!J113,Patient2_Healthy!J113,Patient3_Healthy!J87,Patient4_Healthy!J87,Patient5_Healthy!J87,Patient6_Healthy!J87)</f>
+        <v>0.28896950962495793</v>
+      </c>
+      <c r="P88" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q88">
+        <f>AVERAGE(Patient1_Healthy!Q100,Patient2_Healthy!Q100,Patient3_Healthy!Q87,Patient4_Healthy!Q87,Patient5_Healthy!Q87,Patient6_Healthy!Q87)</f>
+        <v>12.510833276596067</v>
+      </c>
+      <c r="R88">
+        <f>STDEV(Patient1_Healthy!Q100,Patient2_Healthy!Q100,Patient3_Healthy!Q87,Patient4_Healthy!Q87,Patient5_Healthy!Q87,Patient6_Healthy!Q87)</f>
+        <v>2.0889184904230236</v>
+      </c>
+      <c r="S88" s="26">
+        <f>AVERAGE(Patient1_Healthy!R100,Patient2_Healthy!R100,Patient3_Healthy!R87,Patient4_Healthy!R87,Patient5_Healthy!R87,Patient6_Healthy!R87)</f>
+        <v>18.235432230719351</v>
+      </c>
+      <c r="T88">
+        <f>STDEV(Patient1_Healthy!R100,Patient2_Healthy!R100,Patient3_Healthy!R87,Patient4_Healthy!R87,Patient5_Healthy!R87,Patient6_Healthy!R87)</f>
+        <v>2.3051769693575013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="21">
+        <f>AVERAGE(Patient1_Healthy!B101,Patient2_Healthy!B101,Patient3_Healthy!B88,Patient4_Healthy!B88,Patient5_Healthy!B88,Patient6_Healthy!B88)</f>
+        <v>30.209373691310322</v>
+      </c>
+      <c r="C89" s="21">
+        <f>STDEV(Patient1_Healthy!B101,Patient2_Healthy!B101,Patient3_Healthy!B88,Patient4_Healthy!B88,Patient5_Healthy!B88,Patient6_Healthy!B88)</f>
+        <v>15.927774425014844</v>
+      </c>
+      <c r="D89" s="21">
+        <f>AVERAGE(Patient1_Healthy!C101,Patient2_Healthy!C101,Patient3_Healthy!C88,Patient4_Healthy!C88,Patient5_Healthy!C88,Patient6_Healthy!C88)</f>
+        <v>23.922676261290164</v>
+      </c>
+      <c r="E89" s="21">
+        <f>STDEV(Patient1_Healthy!C101,Patient2_Healthy!C101,Patient3_Healthy!C88,Patient4_Healthy!C88,Patient5_Healthy!C88,Patient6_Healthy!C88)</f>
+        <v>6.6237355017035124</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89">
+        <f>AVERAGE(Patient1_Healthy!I114,Patient2_Healthy!I114,Patient3_Healthy!I88,Patient4_Healthy!I88,Patient5_Healthy!I88,Patient6_Healthy!I88)</f>
+        <v>0.72439191823313098</v>
+      </c>
+      <c r="J89">
+        <f>STDEV(Patient1_Healthy!I114,Patient2_Healthy!I114,Patient3_Healthy!I88,Patient4_Healthy!I88,Patient5_Healthy!I88,Patient6_Healthy!I88)</f>
+        <v>0.16406011806726092</v>
+      </c>
+      <c r="K89" s="26">
+        <f>AVERAGE(Patient1_Healthy!J114,Patient2_Healthy!J114,Patient3_Healthy!J88,Patient4_Healthy!J88,Patient5_Healthy!J88,Patient6_Healthy!J88)</f>
+        <v>0.6183623568526645</v>
+      </c>
+      <c r="L89">
+        <f>STDEV(Patient1_Healthy!J114,Patient2_Healthy!J114,Patient3_Healthy!J88,Patient4_Healthy!J88,Patient5_Healthy!J88,Patient6_Healthy!J88)</f>
+        <v>0.18945021448230334</v>
+      </c>
+      <c r="P89" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q89">
+        <f>AVERAGE(Patient1_Healthy!Q101,Patient2_Healthy!Q101,Patient3_Healthy!Q88,Patient4_Healthy!Q88,Patient5_Healthy!Q88,Patient6_Healthy!Q88)</f>
+        <v>89.583824208685201</v>
+      </c>
+      <c r="R89">
+        <f>STDEV(Patient1_Healthy!Q101,Patient2_Healthy!Q101,Patient3_Healthy!Q88,Patient4_Healthy!Q88,Patient5_Healthy!Q88,Patient6_Healthy!Q88)</f>
+        <v>29.778792074968731</v>
+      </c>
+      <c r="S89" s="26">
+        <f>AVERAGE(Patient1_Healthy!R101,Patient2_Healthy!R101,Patient3_Healthy!R88,Patient4_Healthy!R88,Patient5_Healthy!R88,Patient6_Healthy!R88)</f>
+        <v>139.38922576734265</v>
+      </c>
+      <c r="T89">
+        <f>STDEV(Patient1_Healthy!R101,Patient2_Healthy!R101,Patient3_Healthy!R88,Patient4_Healthy!R88,Patient5_Healthy!R88,Patient6_Healthy!R88)</f>
+        <v>47.746241707835267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="21">
+        <f>AVERAGE(Patient1_Healthy!B102,Patient2_Healthy!B102,Patient3_Healthy!B89,Patient4_Healthy!B89,Patient5_Healthy!B89,Patient6_Healthy!B89)</f>
+        <v>45.688306296206115</v>
+      </c>
+      <c r="C90" s="21">
+        <f>STDEV(Patient1_Healthy!B102,Patient2_Healthy!B102,Patient3_Healthy!B89,Patient4_Healthy!B89,Patient5_Healthy!B89,Patient6_Healthy!B89)</f>
+        <v>20.385252411043581</v>
+      </c>
+      <c r="D90" s="21">
+        <f>AVERAGE(Patient1_Healthy!C102,Patient2_Healthy!C102,Patient3_Healthy!C89,Patient4_Healthy!C89,Patient5_Healthy!C89,Patient6_Healthy!C89)</f>
+        <v>14.293228827186065</v>
+      </c>
+      <c r="E90" s="21">
+        <f>STDEV(Patient1_Healthy!C102,Patient2_Healthy!C102,Patient3_Healthy!C89,Patient4_Healthy!C89,Patient5_Healthy!C89,Patient6_Healthy!C89)</f>
+        <v>5.4976982657156643</v>
+      </c>
+      <c r="H90" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90">
+        <f>AVERAGE(Patient1_Healthy!I115,Patient2_Healthy!I115,Patient3_Healthy!I89,Patient4_Healthy!I89,Patient5_Healthy!I89,Patient6_Healthy!I89)</f>
+        <v>0.63453816248244754</v>
+      </c>
+      <c r="J90">
+        <f>STDEV(Patient1_Healthy!I115,Patient2_Healthy!I115,Patient3_Healthy!I89,Patient4_Healthy!I89,Patient5_Healthy!I89,Patient6_Healthy!I89)</f>
+        <v>0.26933619913736329</v>
+      </c>
+      <c r="K90" s="26">
+        <f>AVERAGE(Patient1_Healthy!J115,Patient2_Healthy!J115,Patient3_Healthy!J89,Patient4_Healthy!J89,Patient5_Healthy!J89,Patient6_Healthy!J89)</f>
+        <v>0.6947560395336394</v>
+      </c>
+      <c r="L90">
+        <f>STDEV(Patient1_Healthy!J115,Patient2_Healthy!J115,Patient3_Healthy!J89,Patient4_Healthy!J89,Patient5_Healthy!J89,Patient6_Healthy!J89)</f>
+        <v>0.1965011365493404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H91" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91">
+        <f>AVERAGE(Patient1_Healthy!I116,Patient2_Healthy!I116,Patient3_Healthy!I90,Patient4_Healthy!I90,Patient5_Healthy!I90,Patient6_Healthy!I90)</f>
+        <v>0.60840453278006346</v>
+      </c>
+      <c r="J91">
+        <f>STDEV(Patient1_Healthy!I116,Patient2_Healthy!I116,Patient3_Healthy!I90,Patient4_Healthy!I90,Patient5_Healthy!I90,Patient6_Healthy!I90)</f>
+        <v>0.27650702809927064</v>
+      </c>
+      <c r="K91" s="26">
+        <f>AVERAGE(Patient1_Healthy!J116,Patient2_Healthy!J116,Patient3_Healthy!J90,Patient4_Healthy!J90,Patient5_Healthy!J90,Patient6_Healthy!J90)</f>
+        <v>0.57598511279659736</v>
+      </c>
+      <c r="L91">
+        <f>STDEV(Patient1_Healthy!J116,Patient2_Healthy!J116,Patient3_Healthy!J90,Patient4_Healthy!J90,Patient5_Healthy!J90,Patient6_Healthy!J90)</f>
+        <v>0.27824605301401489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H92" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92">
+        <f>AVERAGE(Patient1_Healthy!I117,Patient2_Healthy!I117,Patient3_Healthy!I91,Patient4_Healthy!I91,Patient5_Healthy!I91,Patient6_Healthy!I91)</f>
+        <v>0.58191599635979718</v>
+      </c>
+      <c r="J92">
+        <f>STDEV(Patient1_Healthy!I117,Patient2_Healthy!I117,Patient3_Healthy!I91,Patient4_Healthy!I91,Patient5_Healthy!I91,Patient6_Healthy!I91)</f>
+        <v>0.28172734250131543</v>
+      </c>
+      <c r="K92" s="26">
+        <f>AVERAGE(Patient1_Healthy!J117,Patient2_Healthy!J117,Patient3_Healthy!J91,Patient4_Healthy!J91,Patient5_Healthy!J91,Patient6_Healthy!J91)</f>
+        <v>0.61428053407390115</v>
+      </c>
+      <c r="L92">
+        <f>STDEV(Patient1_Healthy!J117,Patient2_Healthy!J117,Patient3_Healthy!J91,Patient4_Healthy!J91,Patient5_Healthy!J91,Patient6_Healthy!J91)</f>
+        <v>0.23054446389969302</v>
+      </c>
+      <c r="Q92" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R92" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H93" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93">
+        <f>AVERAGE(Patient1_Healthy!I118,Patient2_Healthy!I118,Patient3_Healthy!I92,Patient4_Healthy!I92,Patient5_Healthy!I92,Patient6_Healthy!I92)</f>
+        <v>0.67215739571927002</v>
+      </c>
+      <c r="J93">
+        <f>STDEV(Patient1_Healthy!I118,Patient2_Healthy!I118,Patient3_Healthy!I92,Patient4_Healthy!I92,Patient5_Healthy!I92,Patient6_Healthy!I92)</f>
+        <v>0.25716095328538863</v>
+      </c>
+      <c r="K93" s="26">
+        <f>AVERAGE(Patient1_Healthy!J118,Patient2_Healthy!J118,Patient3_Healthy!J92,Patient4_Healthy!J92,Patient5_Healthy!J92,Patient6_Healthy!J92)</f>
+        <v>0.66323484530315191</v>
+      </c>
+      <c r="L93">
+        <f>STDEV(Patient1_Healthy!J118,Patient2_Healthy!J118,Patient3_Healthy!J92,Patient4_Healthy!J92,Patient5_Healthy!J92,Patient6_Healthy!J92)</f>
+        <v>0.21855175037837934</v>
+      </c>
+      <c r="P93" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q93">
+        <f>AVERAGE(Patient1_Healthy!Q104,Patient2_Healthy!Q104,Patient3_Healthy!Q91,Patient4_Healthy!Q91,Patient5_Healthy!Q91,Patient6_Healthy!Q91)</f>
+        <v>3158.3934106981146</v>
+      </c>
+      <c r="R93" s="26">
+        <f>STDEV(Patient1_Healthy!Q104,Patient2_Healthy!Q104,Patient3_Healthy!Q91,Patient4_Healthy!Q91,Patient5_Healthy!Q91,Patient6_Healthy!Q91)</f>
+        <v>1043.7449779191491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H94" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94">
+        <f>AVERAGE(Patient1_Healthy!I119,Patient2_Healthy!I119,Patient3_Healthy!I93,Patient4_Healthy!I93,Patient5_Healthy!I93,Patient6_Healthy!I93)</f>
+        <v>0.65394304843908468</v>
+      </c>
+      <c r="J94">
+        <f>STDEV(Patient1_Healthy!I119,Patient2_Healthy!I119,Patient3_Healthy!I93,Patient4_Healthy!I93,Patient5_Healthy!I93,Patient6_Healthy!I93)</f>
+        <v>0.22014283131953441</v>
+      </c>
+      <c r="K94" s="26">
+        <f>AVERAGE(Patient1_Healthy!J119,Patient2_Healthy!J119,Patient3_Healthy!J93,Patient4_Healthy!J93,Patient5_Healthy!J93,Patient6_Healthy!J93)</f>
+        <v>0.59937337339702612</v>
+      </c>
+      <c r="L94">
+        <f>STDEV(Patient1_Healthy!J119,Patient2_Healthy!J119,Patient3_Healthy!J93,Patient4_Healthy!J93,Patient5_Healthy!J93,Patient6_Healthy!J93)</f>
+        <v>0.21931874925439968</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="43"/>
+      <c r="D98" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="43"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="41"/>
+      <c r="K98" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98" s="41"/>
+      <c r="Q98" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R98" s="45"/>
+      <c r="S98" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="T98" s="45"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J99" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K99" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L99" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R99" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S99" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T99" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="21">
+        <f>AVERAGE(Patient1_Healthy!B125,Patient2_Healthy!B125,Patient3_Healthy!B99,Patient4_Healthy!B99,Patient5_Healthy!B99,Patient6_Healthy!B99)</f>
+        <v>26.232910049366719</v>
+      </c>
+      <c r="C100" s="21">
+        <f>STDEV(Patient1_Healthy!B125,Patient2_Healthy!B125,Patient3_Healthy!B99,Patient4_Healthy!B99,Patient5_Healthy!B99,Patient6_Healthy!B99)</f>
+        <v>39.532294171769792</v>
+      </c>
+      <c r="D100" s="21">
+        <f>AVERAGE(Patient1_Healthy!C125,Patient2_Healthy!C125,Patient3_Healthy!C99,Patient4_Healthy!C99,Patient5_Healthy!C99,Patient6_Healthy!C99)</f>
+        <v>9.0901635642482184</v>
+      </c>
+      <c r="E100" s="21">
+        <f>STDEV(Patient1_Healthy!C125,Patient2_Healthy!C125,Patient3_Healthy!C99,Patient4_Healthy!C99,Patient5_Healthy!C99,Patient6_Healthy!C99)</f>
+        <v>8.3098103464976898</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100">
+        <f>AVERAGE(Patient1_Healthy!I125,Patient2_Healthy!I125,Patient3_Healthy!I99,Patient4_Healthy!I99,Patient5_Healthy!I99,Patient6_Healthy!I99)</f>
+        <v>0.1865389845146059</v>
+      </c>
+      <c r="J100">
+        <f>STDEV(Patient1_Healthy!I125,Patient2_Healthy!I125,Patient3_Healthy!I99,Patient4_Healthy!I99,Patient5_Healthy!I99,Patient6_Healthy!I99)</f>
+        <v>0.1427090613995598</v>
+      </c>
+      <c r="K100" s="26">
+        <f>AVERAGE(Patient1_Healthy!J125,Patient2_Healthy!J125,Patient3_Healthy!J99,Patient4_Healthy!J99,Patient5_Healthy!J99,Patient6_Healthy!J99)</f>
+        <v>0.15902178905881018</v>
+      </c>
+      <c r="L100">
+        <f>STDEV(Patient1_Healthy!J125,Patient2_Healthy!J125,Patient3_Healthy!J99,Patient4_Healthy!J99,Patient5_Healthy!J99,Patient6_Healthy!J99)</f>
+        <v>9.9506439518521922E-2</v>
+      </c>
+      <c r="P100" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100">
+        <f>AVERAGE(Patient1_Healthy!Q125,Patient2_Healthy!Q125,Patient3_Healthy!Q99,Patient4_Healthy!Q99,Patient5_Healthy!Q99,Patient6_Healthy!Q99)</f>
+        <v>-4.8142189247649382E-2</v>
+      </c>
+      <c r="R100">
+        <f>STDEV(Patient1_Healthy!Q125,Patient2_Healthy!Q125,Patient3_Healthy!Q99,Patient4_Healthy!Q99,Patient5_Healthy!Q99,Patient6_Healthy!Q99)</f>
+        <v>0.22669684105027174</v>
+      </c>
+      <c r="S100" s="26">
+        <f>AVERAGE(Patient1_Healthy!R125,Patient2_Healthy!R125,Patient3_Healthy!R99,Patient4_Healthy!R99,Patient5_Healthy!R99,Patient6_Healthy!R99)</f>
+        <v>9.4206856589940366E-2</v>
+      </c>
+      <c r="T100">
+        <f>STDEV(Patient1_Healthy!R125,Patient2_Healthy!R125,Patient3_Healthy!R99,Patient4_Healthy!R99,Patient5_Healthy!R99,Patient6_Healthy!R99)</f>
+        <v>0.48839462319290983</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="21">
+        <f>AVERAGE(Patient1_Healthy!B126,Patient2_Healthy!B126,Patient3_Healthy!B100,Patient4_Healthy!B100,Patient5_Healthy!B100,Patient6_Healthy!B100)</f>
+        <v>21.295074046421689</v>
+      </c>
+      <c r="C101" s="21">
+        <f>STDEV(Patient1_Healthy!B126,Patient2_Healthy!B126,Patient3_Healthy!B100,Patient4_Healthy!B100,Patient5_Healthy!B100,Patient6_Healthy!B100)</f>
+        <v>10.197433196179063</v>
+      </c>
+      <c r="D101" s="21">
+        <f>AVERAGE(Patient1_Healthy!C126,Patient2_Healthy!C126,Patient3_Healthy!C100,Patient4_Healthy!C100,Patient5_Healthy!C100,Patient6_Healthy!C100)</f>
+        <v>26.860005092461545</v>
+      </c>
+      <c r="E101" s="21">
+        <f>STDEV(Patient1_Healthy!C126,Patient2_Healthy!C126,Patient3_Healthy!C100,Patient4_Healthy!C100,Patient5_Healthy!C100,Patient6_Healthy!C100)</f>
+        <v>18.789657297423421</v>
+      </c>
+      <c r="H101" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101">
+        <f>AVERAGE(Patient1_Healthy!I126,Patient2_Healthy!I126,Patient3_Healthy!I100,Patient4_Healthy!I100,Patient5_Healthy!I100,Patient6_Healthy!I100)</f>
+        <v>0.17210397501328711</v>
+      </c>
+      <c r="J101">
+        <f>STDEV(Patient1_Healthy!I126,Patient2_Healthy!I126,Patient3_Healthy!I100,Patient4_Healthy!I100,Patient5_Healthy!I100,Patient6_Healthy!I100)</f>
+        <v>0.11884767808714569</v>
+      </c>
+      <c r="K101" s="26">
+        <f>AVERAGE(Patient1_Healthy!J126,Patient2_Healthy!J126,Patient3_Healthy!J100,Patient4_Healthy!J100,Patient5_Healthy!J100,Patient6_Healthy!J100)</f>
+        <v>0.14300891106516847</v>
+      </c>
+      <c r="L101">
+        <f>STDEV(Patient1_Healthy!J126,Patient2_Healthy!J126,Patient3_Healthy!J100,Patient4_Healthy!J100,Patient5_Healthy!J100,Patient6_Healthy!J100)</f>
+        <v>9.3707584029902077E-2</v>
+      </c>
+      <c r="P101" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q101">
+        <f>AVERAGE(Patient1_Healthy!Q126,Patient2_Healthy!Q126,Patient3_Healthy!Q100,Patient4_Healthy!Q100,Patient5_Healthy!Q100,Patient6_Healthy!Q100)</f>
+        <v>6.1391605483217537</v>
+      </c>
+      <c r="R101">
+        <f>STDEV(Patient1_Healthy!Q126,Patient2_Healthy!Q126,Patient3_Healthy!Q100,Patient4_Healthy!Q100,Patient5_Healthy!Q100,Patient6_Healthy!Q100)</f>
+        <v>1.6957606036048007</v>
+      </c>
+      <c r="S101" s="26">
+        <f>AVERAGE(Patient1_Healthy!R126,Patient2_Healthy!R126,Patient3_Healthy!R100,Patient4_Healthy!R100,Patient5_Healthy!R100,Patient6_Healthy!R100)</f>
+        <v>9.5567358747308706</v>
+      </c>
+      <c r="T101">
+        <f>STDEV(Patient1_Healthy!R126,Patient2_Healthy!R126,Patient3_Healthy!R100,Patient4_Healthy!R100,Patient5_Healthy!R100,Patient6_Healthy!R100)</f>
+        <v>2.4387455478241296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="21">
+        <f>AVERAGE(Patient1_Healthy!B127,Patient2_Healthy!B127,Patient3_Healthy!B101,Patient4_Healthy!B101,Patient5_Healthy!B101,Patient6_Healthy!B101)</f>
+        <v>7.0496657755221257</v>
+      </c>
+      <c r="C102" s="21">
+        <f>STDEV(Patient1_Healthy!B127,Patient2_Healthy!B127,Patient3_Healthy!B101,Patient4_Healthy!B101,Patient5_Healthy!B101,Patient6_Healthy!B101)</f>
+        <v>4.0769631077069688</v>
+      </c>
+      <c r="D102" s="21">
+        <f>AVERAGE(Patient1_Healthy!C127,Patient2_Healthy!C127,Patient3_Healthy!C101,Patient4_Healthy!C101,Patient5_Healthy!C101,Patient6_Healthy!C101)</f>
+        <v>9.8834239070659446</v>
+      </c>
+      <c r="E102" s="21">
+        <f>STDEV(Patient1_Healthy!C127,Patient2_Healthy!C127,Patient3_Healthy!C101,Patient4_Healthy!C101,Patient5_Healthy!C101,Patient6_Healthy!C101)</f>
+        <v>7.790406212533588</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102">
+        <f>AVERAGE(Patient1_Healthy!I127,Patient2_Healthy!I127,Patient3_Healthy!I101,Patient4_Healthy!I101,Patient5_Healthy!I101,Patient6_Healthy!I101)</f>
+        <v>0.17622147811761013</v>
+      </c>
+      <c r="J102">
+        <f>STDEV(Patient1_Healthy!I127,Patient2_Healthy!I127,Patient3_Healthy!I101,Patient4_Healthy!I101,Patient5_Healthy!I101,Patient6_Healthy!I101)</f>
+        <v>0.14996079058719067</v>
+      </c>
+      <c r="K102" s="26">
+        <f>AVERAGE(Patient1_Healthy!J127,Patient2_Healthy!J127,Patient3_Healthy!J101,Patient4_Healthy!J101,Patient5_Healthy!J101,Patient6_Healthy!J101)</f>
+        <v>0.16838733810972503</v>
+      </c>
+      <c r="L102">
+        <f>STDEV(Patient1_Healthy!J127,Patient2_Healthy!J127,Patient3_Healthy!J101,Patient4_Healthy!J101,Patient5_Healthy!J101,Patient6_Healthy!J101)</f>
+        <v>0.10567025097791574</v>
+      </c>
+      <c r="P102" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q102">
+        <f>AVERAGE(Patient1_Healthy!Q127,Patient2_Healthy!Q127,Patient3_Healthy!Q101,Patient4_Healthy!Q101,Patient5_Healthy!Q101,Patient6_Healthy!Q101)</f>
+        <v>34.628362034614106</v>
+      </c>
+      <c r="R102">
+        <f>STDEV(Patient1_Healthy!Q127,Patient2_Healthy!Q127,Patient3_Healthy!Q101,Patient4_Healthy!Q101,Patient5_Healthy!Q101,Patient6_Healthy!Q101)</f>
+        <v>9.6645737092145474</v>
+      </c>
+      <c r="S102" s="26">
+        <f>AVERAGE(Patient1_Healthy!R127,Patient2_Healthy!R127,Patient3_Healthy!R101,Patient4_Healthy!R101,Patient5_Healthy!R101,Patient6_Healthy!R101)</f>
+        <v>50.549989333458733</v>
+      </c>
+      <c r="T102">
+        <f>STDEV(Patient1_Healthy!R127,Patient2_Healthy!R127,Patient3_Healthy!R101,Patient4_Healthy!R101,Patient5_Healthy!R101,Patient6_Healthy!R101)</f>
+        <v>9.8592825972963869</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="21">
+        <f>AVERAGE(Patient1_Healthy!B128,Patient2_Healthy!B128,Patient3_Healthy!B102,Patient4_Healthy!B102,Patient5_Healthy!B102,Patient6_Healthy!B102)</f>
+        <v>18.244292590192796</v>
+      </c>
+      <c r="C103" s="21">
+        <f>STDEV(Patient1_Healthy!B128,Patient2_Healthy!B128,Patient3_Healthy!B102,Patient4_Healthy!B102,Patient5_Healthy!B102,Patient6_Healthy!B102)</f>
+        <v>10.914927466889468</v>
+      </c>
+      <c r="D103" s="21">
+        <f>AVERAGE(Patient1_Healthy!C128,Patient2_Healthy!C128,Patient3_Healthy!C102,Patient4_Healthy!C102,Patient5_Healthy!C102,Patient6_Healthy!C102)</f>
+        <v>9.0495314892467906</v>
+      </c>
+      <c r="E103" s="21">
+        <f>STDEV(Patient1_Healthy!C128,Patient2_Healthy!C128,Patient3_Healthy!C102,Patient4_Healthy!C102,Patient5_Healthy!C102,Patient6_Healthy!C102)</f>
+        <v>5.660103584114669</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103">
+        <f>AVERAGE(Patient1_Healthy!I128,Patient2_Healthy!I128,Patient3_Healthy!I102,Patient4_Healthy!I102,Patient5_Healthy!I102,Patient6_Healthy!I102)</f>
+        <v>0.14652252281274863</v>
+      </c>
+      <c r="J103">
+        <f>STDEV(Patient1_Healthy!I128,Patient2_Healthy!I128,Patient3_Healthy!I102,Patient4_Healthy!I102,Patient5_Healthy!I102,Patient6_Healthy!I102)</f>
+        <v>5.6885996566453365E-2</v>
+      </c>
+      <c r="K103" s="26">
+        <f>AVERAGE(Patient1_Healthy!J128,Patient2_Healthy!J128,Patient3_Healthy!J102,Patient4_Healthy!J102,Patient5_Healthy!J102,Patient6_Healthy!J102)</f>
+        <v>0.12942957279842479</v>
+      </c>
+      <c r="L103">
+        <f>STDEV(Patient1_Healthy!J128,Patient2_Healthy!J128,Patient3_Healthy!J102,Patient4_Healthy!J102,Patient5_Healthy!J102,Patient6_Healthy!J102)</f>
+        <v>7.014485099600315E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H104" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104">
+        <f>AVERAGE(Patient1_Healthy!I129,Patient2_Healthy!I129,Patient3_Healthy!I103,Patient4_Healthy!I103,Patient5_Healthy!I103,Patient6_Healthy!I103)</f>
+        <v>0.19697035647622332</v>
+      </c>
+      <c r="J104">
+        <f>STDEV(Patient1_Healthy!I129,Patient2_Healthy!I129,Patient3_Healthy!I103,Patient4_Healthy!I103,Patient5_Healthy!I103,Patient6_Healthy!I103)</f>
+        <v>0.13872814558514354</v>
+      </c>
+      <c r="K104" s="26">
+        <f>AVERAGE(Patient1_Healthy!J129,Patient2_Healthy!J129,Patient3_Healthy!J103,Patient4_Healthy!J103,Patient5_Healthy!J103,Patient6_Healthy!J103)</f>
+        <v>0.13999610766272083</v>
+      </c>
+      <c r="L104">
+        <f>STDEV(Patient1_Healthy!J129,Patient2_Healthy!J129,Patient3_Healthy!J103,Patient4_Healthy!J103,Patient5_Healthy!J103,Patient6_Healthy!J103)</f>
+        <v>9.9414061232431697E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H105" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105">
+        <f>AVERAGE(Patient1_Healthy!I130,Patient2_Healthy!I130,Patient3_Healthy!I104,Patient4_Healthy!I104,Patient5_Healthy!I104,Patient6_Healthy!I104)</f>
+        <v>0.19260592171943156</v>
+      </c>
+      <c r="J105">
+        <f>STDEV(Patient1_Healthy!I130,Patient2_Healthy!I130,Patient3_Healthy!I104,Patient4_Healthy!I104,Patient5_Healthy!I104,Patient6_Healthy!I104)</f>
+        <v>0.16239577588825377</v>
+      </c>
+      <c r="K105" s="26">
+        <f>AVERAGE(Patient1_Healthy!J130,Patient2_Healthy!J130,Patient3_Healthy!J104,Patient4_Healthy!J104,Patient5_Healthy!J104,Patient6_Healthy!J104)</f>
+        <v>0.14562946501270321</v>
+      </c>
+      <c r="L105">
+        <f>STDEV(Patient1_Healthy!J130,Patient2_Healthy!J130,Patient3_Healthy!J104,Patient4_Healthy!J104,Patient5_Healthy!J104,Patient6_Healthy!J104)</f>
+        <v>0.11220686031009849</v>
+      </c>
+      <c r="Q105" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R105" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H106" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106">
+        <f>AVERAGE(Patient1_Healthy!I131,Patient2_Healthy!I131,Patient3_Healthy!I105,Patient4_Healthy!I105,Patient5_Healthy!I105,Patient6_Healthy!I105)</f>
+        <v>0.16792078754187523</v>
+      </c>
+      <c r="J106">
+        <f>STDEV(Patient1_Healthy!I131,Patient2_Healthy!I131,Patient3_Healthy!I105,Patient4_Healthy!I105,Patient5_Healthy!I105,Patient6_Healthy!I105)</f>
+        <v>7.9720496517409353E-2</v>
+      </c>
+      <c r="K106" s="26">
+        <f>AVERAGE(Patient1_Healthy!J131,Patient2_Healthy!J131,Patient3_Healthy!J105,Patient4_Healthy!J105,Patient5_Healthy!J105,Patient6_Healthy!J105)</f>
+        <v>0.13915074574906752</v>
+      </c>
+      <c r="L106">
+        <f>STDEV(Patient1_Healthy!J131,Patient2_Healthy!J131,Patient3_Healthy!J105,Patient4_Healthy!J105,Patient5_Healthy!J105,Patient6_Healthy!J105)</f>
+        <v>7.457415900956528E-2</v>
+      </c>
+      <c r="P106" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q106">
+        <f>AVERAGE(Patient1_Healthy!Q130,Patient2_Healthy!Q130,Patient3_Healthy!Q104,Patient4_Healthy!Q104,Patient5_Healthy!Q104,Patient6_Healthy!Q104)</f>
+        <v>668.97792306080862</v>
+      </c>
+      <c r="R106" s="26">
+        <f>STDEV(Patient1_Healthy!Q130,Patient2_Healthy!Q130,Patient3_Healthy!Q104,Patient4_Healthy!Q104,Patient5_Healthy!Q104,Patient6_Healthy!Q104)</f>
+        <v>237.99575267285641</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H107" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I107">
+        <f>AVERAGE(Patient1_Healthy!I132,Patient2_Healthy!I132,Patient3_Healthy!I106,Patient4_Healthy!I106,Patient5_Healthy!I106,Patient6_Healthy!I106)</f>
+        <v>0.14509383226497766</v>
+      </c>
+      <c r="J107">
+        <f>STDEV(Patient1_Healthy!I132,Patient2_Healthy!I132,Patient3_Healthy!I106,Patient4_Healthy!I106,Patient5_Healthy!I106,Patient6_Healthy!I106)</f>
+        <v>7.2070767797751317E-2</v>
+      </c>
+      <c r="K107" s="26">
+        <f>AVERAGE(Patient1_Healthy!J132,Patient2_Healthy!J132,Patient3_Healthy!J106,Patient4_Healthy!J106,Patient5_Healthy!J106,Patient6_Healthy!J106)</f>
+        <v>0.11379109341567982</v>
+      </c>
+      <c r="L107">
+        <f>STDEV(Patient1_Healthy!J132,Patient2_Healthy!J132,Patient3_Healthy!J106,Patient4_Healthy!J106,Patient5_Healthy!J106,Patient6_Healthy!J106)</f>
+        <v>5.2949542826288921E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="23"/>
+      <c r="B111" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="43"/>
+      <c r="D111" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="43"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="41"/>
+      <c r="K111" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L111" s="41"/>
+      <c r="Q111" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="R111" s="45"/>
+      <c r="S111" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="T111" s="45"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J112" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K112" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L112" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P112" s="28"/>
+      <c r="Q112" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="R112" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="S112" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="T112" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="21">
+        <f>AVERAGE(Patient1_Healthy!B138,Patient2_Healthy!B138,Patient3_Healthy!B112,Patient4_Healthy!B112,Patient5_Healthy!B112,Patient6_Healthy!B112)</f>
+        <v>22.981240517929251</v>
+      </c>
+      <c r="C113" s="21">
+        <f>STDEV(Patient1_Healthy!B138,Patient2_Healthy!B138,Patient3_Healthy!B112,Patient4_Healthy!B112,Patient5_Healthy!B112,Patient6_Healthy!B112)</f>
+        <v>26.761107156166506</v>
+      </c>
+      <c r="D113" s="21">
+        <f>AVERAGE(Patient1_Healthy!C138,Patient2_Healthy!C138,Patient3_Healthy!C112,Patient4_Healthy!C112,Patient5_Healthy!C112,Patient6_Healthy!C112)</f>
+        <v>13.410738975113143</v>
+      </c>
+      <c r="E113" s="21">
+        <f>STDEV(Patient1_Healthy!C138,Patient2_Healthy!C138,Patient3_Healthy!C112,Patient4_Healthy!C112,Patient5_Healthy!C112,Patient6_Healthy!C112)</f>
+        <v>12.578950888969269</v>
+      </c>
+      <c r="H113" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113">
+        <f>AVERAGE(Patient1_Healthy!I138,Patient2_Healthy!I138,Patient3_Healthy!I112,Patient4_Healthy!I112,Patient5_Healthy!I112,Patient6_Healthy!I112)</f>
+        <v>0.1565430654736748</v>
+      </c>
+      <c r="J113">
+        <f>STDEV(Patient1_Healthy!I138,Patient2_Healthy!I138,Patient3_Healthy!I112,Patient4_Healthy!I112,Patient5_Healthy!I112,Patient6_Healthy!I112)</f>
+        <v>6.1247116312527064E-2</v>
+      </c>
+      <c r="K113" s="26">
+        <f>AVERAGE(Patient1_Healthy!J138,Patient2_Healthy!J138,Patient3_Healthy!J112,Patient4_Healthy!J112,Patient5_Healthy!J112,Patient6_Healthy!J112)</f>
+        <v>0.17665960838331515</v>
+      </c>
+      <c r="L113">
+        <f>STDEV(Patient1_Healthy!J138,Patient2_Healthy!J138,Patient3_Healthy!J112,Patient4_Healthy!J112,Patient5_Healthy!J112,Patient6_Healthy!J112)</f>
+        <v>0.10709247471423075</v>
+      </c>
+      <c r="P113" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q113">
+        <f>AVERAGE(Patient1_Healthy!Q138,Patient2_Healthy!Q138,Patient3_Healthy!Q112,Patient4_Healthy!Q112,Patient5_Healthy!Q112,Patient6_Healthy!Q112)</f>
+        <v>3.5452997278897964</v>
+      </c>
+      <c r="R113">
+        <f>STDEV(Patient1_Healthy!Q138,Patient2_Healthy!Q138,Patient3_Healthy!Q112,Patient4_Healthy!Q112,Patient5_Healthy!Q112,Patient6_Healthy!Q112)</f>
+        <v>6.2348828475545215</v>
+      </c>
+      <c r="S113" s="26">
+        <f>AVERAGE(Patient1_Healthy!R138,Patient2_Healthy!R138,Patient3_Healthy!R112,Patient4_Healthy!R112,Patient5_Healthy!R112,Patient6_Healthy!R112)</f>
+        <v>8.7406019230397156</v>
+      </c>
+      <c r="T113">
+        <f>STDEV(Patient1_Healthy!R138,Patient2_Healthy!R138,Patient3_Healthy!R112,Patient4_Healthy!R112,Patient5_Healthy!R112,Patient6_Healthy!R112)</f>
+        <v>21.145278006198474</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="21">
+        <f>AVERAGE(Patient1_Healthy!B139,Patient2_Healthy!B139,Patient3_Healthy!B113,Patient4_Healthy!B113,Patient5_Healthy!B113,Patient6_Healthy!B113)</f>
+        <v>44.986233570631441</v>
+      </c>
+      <c r="C114" s="21">
+        <f>STDEV(Patient1_Healthy!B139,Patient2_Healthy!B139,Patient3_Healthy!B113,Patient4_Healthy!B113,Patient5_Healthy!B113,Patient6_Healthy!B113)</f>
+        <v>37.376897371156105</v>
+      </c>
+      <c r="D114" s="21">
+        <f>AVERAGE(Patient1_Healthy!C139,Patient2_Healthy!C139,Patient3_Healthy!C113,Patient4_Healthy!C113,Patient5_Healthy!C113,Patient6_Healthy!C113)</f>
+        <v>31.780208556155287</v>
+      </c>
+      <c r="E114" s="21">
+        <f>STDEV(Patient1_Healthy!C139,Patient2_Healthy!C139,Patient3_Healthy!C113,Patient4_Healthy!C113,Patient5_Healthy!C113,Patient6_Healthy!C113)</f>
+        <v>15.43464650597331</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114">
+        <f>AVERAGE(Patient1_Healthy!I139,Patient2_Healthy!I139,Patient3_Healthy!I113,Patient4_Healthy!I113,Patient5_Healthy!I113,Patient6_Healthy!I113)</f>
+        <v>0.21008589128346467</v>
+      </c>
+      <c r="J114">
+        <f>STDEV(Patient1_Healthy!I139,Patient2_Healthy!I139,Patient3_Healthy!I113,Patient4_Healthy!I113,Patient5_Healthy!I113,Patient6_Healthy!I113)</f>
+        <v>0.12014506529659866</v>
+      </c>
+      <c r="K114" s="26">
+        <f>AVERAGE(Patient1_Healthy!J139,Patient2_Healthy!J139,Patient3_Healthy!J113,Patient4_Healthy!J113,Patient5_Healthy!J113,Patient6_Healthy!J113)</f>
+        <v>0.20416824591280278</v>
+      </c>
+      <c r="L114">
+        <f>STDEV(Patient1_Healthy!J139,Patient2_Healthy!J139,Patient3_Healthy!J113,Patient4_Healthy!J113,Patient5_Healthy!J113,Patient6_Healthy!J113)</f>
+        <v>0.12865050109093559</v>
+      </c>
+      <c r="P114" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q114">
+        <f>AVERAGE(Patient1_Healthy!Q139,Patient2_Healthy!Q139,Patient3_Healthy!Q113,Patient4_Healthy!Q113,Patient5_Healthy!Q113,Patient6_Healthy!Q113)</f>
+        <v>15.624227201180844</v>
+      </c>
+      <c r="R114">
+        <f>STDEV(Patient1_Healthy!Q139,Patient2_Healthy!Q139,Patient3_Healthy!Q113,Patient4_Healthy!Q113,Patient5_Healthy!Q113,Patient6_Healthy!Q113)</f>
+        <v>9.8192954855373742</v>
+      </c>
+      <c r="S114" s="26">
+        <f>AVERAGE(Patient1_Healthy!R139,Patient2_Healthy!R139,Patient3_Healthy!R113,Patient4_Healthy!R113,Patient5_Healthy!R113,Patient6_Healthy!R113)</f>
+        <v>35.360771314099374</v>
+      </c>
+      <c r="T114">
+        <f>STDEV(Patient1_Healthy!R139,Patient2_Healthy!R139,Patient3_Healthy!R113,Patient4_Healthy!R113,Patient5_Healthy!R113,Patient6_Healthy!R113)</f>
+        <v>10.096984956230973</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="21">
+        <f>AVERAGE(Patient1_Healthy!B140,Patient2_Healthy!B140,Patient3_Healthy!B114,Patient4_Healthy!B114,Patient5_Healthy!B114,Patient6_Healthy!B114)</f>
+        <v>65.31108580849822</v>
+      </c>
+      <c r="C115" s="21">
+        <f>STDEV(Patient1_Healthy!B140,Patient2_Healthy!B140,Patient3_Healthy!B114,Patient4_Healthy!B114,Patient5_Healthy!B114,Patient6_Healthy!B114)</f>
+        <v>69.943295779271693</v>
+      </c>
+      <c r="D115" s="21">
+        <f>AVERAGE(Patient1_Healthy!C140,Patient2_Healthy!C140,Patient3_Healthy!C114,Patient4_Healthy!C114,Patient5_Healthy!C114,Patient6_Healthy!C114)</f>
+        <v>35.65503920005208</v>
+      </c>
+      <c r="E115" s="21">
+        <f>STDEV(Patient1_Healthy!C140,Patient2_Healthy!C140,Patient3_Healthy!C114,Patient4_Healthy!C114,Patient5_Healthy!C114,Patient6_Healthy!C114)</f>
+        <v>13.63108801678913</v>
+      </c>
+      <c r="H115" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115">
+        <f>AVERAGE(Patient1_Healthy!I140,Patient2_Healthy!I140,Patient3_Healthy!I114,Patient4_Healthy!I114,Patient5_Healthy!I114,Patient6_Healthy!I114)</f>
+        <v>0.20836078450405152</v>
+      </c>
+      <c r="J115">
+        <f>STDEV(Patient1_Healthy!I140,Patient2_Healthy!I140,Patient3_Healthy!I114,Patient4_Healthy!I114,Patient5_Healthy!I114,Patient6_Healthy!I114)</f>
+        <v>0.18348971217764337</v>
+      </c>
+      <c r="K115" s="26">
+        <f>AVERAGE(Patient1_Healthy!J140,Patient2_Healthy!J140,Patient3_Healthy!J114,Patient4_Healthy!J114,Patient5_Healthy!J114,Patient6_Healthy!J114)</f>
+        <v>0.21369905656337354</v>
+      </c>
+      <c r="L115">
+        <f>STDEV(Patient1_Healthy!J140,Patient2_Healthy!J140,Patient3_Healthy!J114,Patient4_Healthy!J114,Patient5_Healthy!J114,Patient6_Healthy!J114)</f>
+        <v>0.10433713823600328</v>
+      </c>
+      <c r="P115" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q115">
+        <f>AVERAGE(Patient1_Healthy!Q140,Patient2_Healthy!Q140,Patient3_Healthy!Q114,Patient4_Healthy!Q114,Patient5_Healthy!Q114,Patient6_Healthy!Q114)</f>
+        <v>54.879363367516078</v>
+      </c>
+      <c r="R115">
+        <f>STDEV(Patient1_Healthy!Q140,Patient2_Healthy!Q140,Patient3_Healthy!Q114,Patient4_Healthy!Q114,Patient5_Healthy!Q114,Patient6_Healthy!Q114)</f>
+        <v>28.448109656200959</v>
+      </c>
+      <c r="S115" s="26">
+        <f>AVERAGE(Patient1_Healthy!R140,Patient2_Healthy!R140,Patient3_Healthy!R114,Patient4_Healthy!R114,Patient5_Healthy!R114,Patient6_Healthy!R114)</f>
+        <v>118.81505385639537</v>
+      </c>
+      <c r="T115">
+        <f>STDEV(Patient1_Healthy!R140,Patient2_Healthy!R140,Patient3_Healthy!R114,Patient4_Healthy!R114,Patient5_Healthy!R114,Patient6_Healthy!R114)</f>
+        <v>27.337584377448703</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="21">
+        <f>AVERAGE(Patient1_Healthy!B141,Patient2_Healthy!B141,Patient3_Healthy!B115,Patient4_Healthy!B115,Patient5_Healthy!B115,Patient6_Healthy!B115)</f>
+        <v>32.781681707135512</v>
+      </c>
+      <c r="C116" s="21">
+        <f>STDEV(Patient1_Healthy!B141,Patient2_Healthy!B141,Patient3_Healthy!B115,Patient4_Healthy!B115,Patient5_Healthy!B115,Patient6_Healthy!B115)</f>
+        <v>12.720603028825636</v>
+      </c>
+      <c r="D116" s="21">
+        <f>AVERAGE(Patient1_Healthy!C141,Patient2_Healthy!C141,Patient3_Healthy!C115,Patient4_Healthy!C115,Patient5_Healthy!C115,Patient6_Healthy!C115)</f>
+        <v>66.440581301545663</v>
+      </c>
+      <c r="E116" s="21">
+        <f>STDEV(Patient1_Healthy!C141,Patient2_Healthy!C141,Patient3_Healthy!C115,Patient4_Healthy!C115,Patient5_Healthy!C115,Patient6_Healthy!C115)</f>
+        <v>79.076808083372583</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116">
+        <f>AVERAGE(Patient1_Healthy!I141,Patient2_Healthy!I141,Patient3_Healthy!I115,Patient4_Healthy!I115,Patient5_Healthy!I115,Patient6_Healthy!I115)</f>
+        <v>0.23524680701048309</v>
+      </c>
+      <c r="J116">
+        <f>STDEV(Patient1_Healthy!I141,Patient2_Healthy!I141,Patient3_Healthy!I115,Patient4_Healthy!I115,Patient5_Healthy!I115,Patient6_Healthy!I115)</f>
+        <v>0.14638845851846169</v>
+      </c>
+      <c r="K116" s="26">
+        <f>AVERAGE(Patient1_Healthy!J141,Patient2_Healthy!J141,Patient3_Healthy!J115,Patient4_Healthy!J115,Patient5_Healthy!J115,Patient6_Healthy!J115)</f>
+        <v>0.28430060874070201</v>
+      </c>
+      <c r="L116">
+        <f>STDEV(Patient1_Healthy!J141,Patient2_Healthy!J141,Patient3_Healthy!J115,Patient4_Healthy!J115,Patient5_Healthy!J115,Patient6_Healthy!J115)</f>
+        <v>0.21092177122943798</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H117" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I117">
+        <f>AVERAGE(Patient1_Healthy!I142,Patient2_Healthy!I142,Patient3_Healthy!I116,Patient4_Healthy!I116,Patient5_Healthy!I116,Patient6_Healthy!I116)</f>
+        <v>0.12807200849323422</v>
+      </c>
+      <c r="J117">
+        <f>STDEV(Patient1_Healthy!I142,Patient2_Healthy!I142,Patient3_Healthy!I116,Patient4_Healthy!I116,Patient5_Healthy!I116,Patient6_Healthy!I116)</f>
+        <v>6.3720486418483949E-2</v>
+      </c>
+      <c r="K117" s="26">
+        <f>AVERAGE(Patient1_Healthy!J142,Patient2_Healthy!J142,Patient3_Healthy!J116,Patient4_Healthy!J116,Patient5_Healthy!J116,Patient6_Healthy!J116)</f>
+        <v>0.16629535191564435</v>
+      </c>
+      <c r="L117">
+        <f>STDEV(Patient1_Healthy!J142,Patient2_Healthy!J142,Patient3_Healthy!J116,Patient4_Healthy!J116,Patient5_Healthy!J116,Patient6_Healthy!J116)</f>
+        <v>5.6832117475423438E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H118" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118">
+        <f>AVERAGE(Patient1_Healthy!I143,Patient2_Healthy!I143,Patient3_Healthy!I117,Patient4_Healthy!I117,Patient5_Healthy!I117,Patient6_Healthy!I117)</f>
+        <v>0.21197018778495946</v>
+      </c>
+      <c r="J118">
+        <f>STDEV(Patient1_Healthy!I143,Patient2_Healthy!I143,Patient3_Healthy!I117,Patient4_Healthy!I117,Patient5_Healthy!I117,Patient6_Healthy!I117)</f>
+        <v>4.3550578998170282E-2</v>
+      </c>
+      <c r="K118" s="26">
+        <f>AVERAGE(Patient1_Healthy!J143,Patient2_Healthy!J143,Patient3_Healthy!J117,Patient4_Healthy!J117,Patient5_Healthy!J117,Patient6_Healthy!J117)</f>
+        <v>0.19400597923683804</v>
+      </c>
+      <c r="L118">
+        <f>STDEV(Patient1_Healthy!J143,Patient2_Healthy!J143,Patient3_Healthy!J117,Patient4_Healthy!J117,Patient5_Healthy!J117,Patient6_Healthy!J117)</f>
+        <v>6.2921969639900252E-2</v>
+      </c>
+      <c r="Q118" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R118" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H119" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I119">
+        <f>AVERAGE(Patient1_Healthy!I144,Patient2_Healthy!I144,Patient3_Healthy!I118,Patient4_Healthy!I118,Patient5_Healthy!I118,Patient6_Healthy!I118)</f>
+        <v>0.24131780910746101</v>
+      </c>
+      <c r="J119">
+        <f>STDEV(Patient1_Healthy!I144,Patient2_Healthy!I144,Patient3_Healthy!I118,Patient4_Healthy!I118,Patient5_Healthy!I118,Patient6_Healthy!I118)</f>
+        <v>6.355776294147078E-2</v>
+      </c>
+      <c r="K119" s="26">
+        <f>AVERAGE(Patient1_Healthy!J144,Patient2_Healthy!J144,Patient3_Healthy!J118,Patient4_Healthy!J118,Patient5_Healthy!J118,Patient6_Healthy!J118)</f>
+        <v>0.23867725600190273</v>
+      </c>
+      <c r="L119">
+        <f>STDEV(Patient1_Healthy!J144,Patient2_Healthy!J144,Patient3_Healthy!J118,Patient4_Healthy!J118,Patient5_Healthy!J118,Patient6_Healthy!J118)</f>
+        <v>5.6723751753724863E-2</v>
+      </c>
+      <c r="P119" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q119">
+        <f>AVERAGE(Patient1_Healthy!Q143,Patient2_Healthy!Q143,Patient3_Healthy!Q117,Patient4_Healthy!Q117,Patient5_Healthy!Q117,Patient6_Healthy!Q117)</f>
+        <v>1778.264545618905</v>
+      </c>
+      <c r="R119" s="26">
+        <f>STDEV(Patient1_Healthy!Q143,Patient2_Healthy!Q143,Patient3_Healthy!Q117,Patient4_Healthy!Q117,Patient5_Healthy!Q117,Patient6_Healthy!Q117)</f>
+        <v>768.48228232387601</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H120" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120">
+        <f>AVERAGE(Patient1_Healthy!I145,Patient2_Healthy!I145,Patient3_Healthy!I119,Patient4_Healthy!I119,Patient5_Healthy!I119,Patient6_Healthy!I119)</f>
+        <v>0.2142231421252502</v>
+      </c>
+      <c r="J120">
+        <f>STDEV(Patient1_Healthy!I145,Patient2_Healthy!I145,Patient3_Healthy!I119,Patient4_Healthy!I119,Patient5_Healthy!I119,Patient6_Healthy!I119)</f>
+        <v>9.6478686942608236E-2</v>
+      </c>
+      <c r="K120" s="26">
+        <f>AVERAGE(Patient1_Healthy!J145,Patient2_Healthy!J145,Patient3_Healthy!J119,Patient4_Healthy!J119,Patient5_Healthy!J119,Patient6_Healthy!J119)</f>
+        <v>0.31470664156167771</v>
+      </c>
+      <c r="L120">
+        <f>STDEV(Patient1_Healthy!J145,Patient2_Healthy!J145,Patient3_Healthy!J119,Patient4_Healthy!J119,Patient5_Healthy!J119,Patient6_Healthy!J119)</f>
+        <v>0.10257013470937337</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="34"/>
+      <c r="B159" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="40"/>
+      <c r="D159" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E159" s="38"/>
+      <c r="F159" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G159" s="40"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="32"/>
+      <c r="B160" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C160" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D160" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E160" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F160" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G160" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161">
+        <f>AVERAGE(Patient1_Healthy!B160,Patient2_Healthy!B160,Patient3_Healthy!B160,Patient4_Healthy!B160,Patient5_Healthy!B160,Patient6_Healthy!B160)</f>
+        <v>-1.5025430607429988E-2</v>
+      </c>
+      <c r="C161">
+        <f>STDEV(Patient1_Healthy!B160,Patient2_Healthy!B160,Patient3_Healthy!B160,Patient4_Healthy!B160,Patient5_Healthy!B160,Patient6_Healthy!B160)</f>
+        <v>7.202585590120672E-2</v>
+      </c>
+      <c r="D161" s="26">
+        <f>AVERAGE(Patient1_Healthy!C160,Patient2_Healthy!C160,Patient3_Healthy!C160,Patient4_Healthy!C160,Patient5_Healthy!C160,Patient6_Healthy!C160)</f>
+        <v>-6.1925994686848661E-3</v>
+      </c>
+      <c r="E161" s="33">
+        <f>STDEV(Patient1_Healthy!C160,Patient2_Healthy!C160,Patient3_Healthy!C160,Patient4_Healthy!C160,Patient5_Healthy!C160,Patient6_Healthy!C160)</f>
+        <v>8.2952405398521584E-2</v>
+      </c>
+      <c r="F161">
+        <f>AVERAGE(Patient1_Healthy!D160,Patient2_Healthy!D160,Patient3_Healthy!D160,Patient4_Healthy!D160,Patient5_Healthy!D160,Patient6_Healthy!D160)</f>
+        <v>-1.0044719751658071E-2</v>
+      </c>
+      <c r="G161">
+        <f>STDEV(Patient1_Healthy!D160,Patient2_Healthy!D160,Patient3_Healthy!D160,Patient4_Healthy!D160,Patient5_Healthy!D160,Patient6_Healthy!D160)</f>
+        <v>8.0201009155856318E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162">
+        <f>AVERAGE(Patient1_Healthy!B161,Patient2_Healthy!B161,Patient3_Healthy!B161,Patient4_Healthy!B161,Patient5_Healthy!B161,Patient6_Healthy!B161)</f>
+        <v>5.3198027125122276E-2</v>
+      </c>
+      <c r="C162">
+        <f>STDEV(Patient1_Healthy!B161,Patient2_Healthy!B161,Patient3_Healthy!B161,Patient4_Healthy!B161,Patient5_Healthy!B161,Patient6_Healthy!B161)</f>
+        <v>9.7953099118138029E-2</v>
+      </c>
+      <c r="D162" s="26">
+        <f>AVERAGE(Patient1_Healthy!C161,Patient2_Healthy!C161,Patient3_Healthy!C161,Patient4_Healthy!C161,Patient5_Healthy!C161,Patient6_Healthy!C161)</f>
+        <v>6.9151620537952069E-2</v>
+      </c>
+      <c r="E162" s="33">
+        <f>STDEV(Patient1_Healthy!C161,Patient2_Healthy!C161,Patient3_Healthy!C161,Patient4_Healthy!C161,Patient5_Healthy!C161,Patient6_Healthy!C161)</f>
+        <v>8.8242741388767199E-2</v>
+      </c>
+      <c r="F162">
+        <f>AVERAGE(Patient1_Healthy!D161,Patient2_Healthy!D161,Patient3_Healthy!D161,Patient4_Healthy!D161,Patient5_Healthy!D161,Patient6_Healthy!D161)</f>
+        <v>5.8060335740308729E-2</v>
+      </c>
+      <c r="G162">
+        <f>STDEV(Patient1_Healthy!D161,Patient2_Healthy!D161,Patient3_Healthy!D161,Patient4_Healthy!D161,Patient5_Healthy!D161,Patient6_Healthy!D161)</f>
+        <v>8.1884770582987307E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163">
+        <f>AVERAGE(Patient1_Healthy!B162,Patient2_Healthy!B162,Patient3_Healthy!B162,Patient4_Healthy!B162,Patient5_Healthy!B162,Patient6_Healthy!B162)</f>
+        <v>2.2838947368132998E-2</v>
+      </c>
+      <c r="C163">
+        <f>STDEV(Patient1_Healthy!B162,Patient2_Healthy!B162,Patient3_Healthy!B162,Patient4_Healthy!B162,Patient5_Healthy!B162,Patient6_Healthy!B162)</f>
+        <v>0.19110170925892694</v>
+      </c>
+      <c r="D163" s="26">
+        <f>AVERAGE(Patient1_Healthy!C162,Patient2_Healthy!C162,Patient3_Healthy!C162,Patient4_Healthy!C162,Patient5_Healthy!C162,Patient6_Healthy!C162)</f>
+        <v>5.367292409189308E-2</v>
+      </c>
+      <c r="E163" s="33">
+        <f>STDEV(Patient1_Healthy!C162,Patient2_Healthy!C162,Patient3_Healthy!C162,Patient4_Healthy!C162,Patient5_Healthy!C162,Patient6_Healthy!C162)</f>
+        <v>0.19946784334563003</v>
+      </c>
+      <c r="F163">
+        <f>AVERAGE(Patient1_Healthy!D162,Patient2_Healthy!D162,Patient3_Healthy!D162,Patient4_Healthy!D162,Patient5_Healthy!D162,Patient6_Healthy!D162)</f>
+        <v>5.3554555492171051E-2</v>
+      </c>
+      <c r="G163">
+        <f>STDEV(Patient1_Healthy!D162,Patient2_Healthy!D162,Patient3_Healthy!D162,Patient4_Healthy!D162,Patient5_Healthy!D162,Patient6_Healthy!D162)</f>
+        <v>0.19753662649791864</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" s="29">
+        <f>AVERAGE(Patient1_Healthy!B163,Patient2_Healthy!B163,Patient3_Healthy!B163,Patient4_Healthy!B163,Patient5_Healthy!B163,Patient6_Healthy!B163)</f>
+        <v>3.6765724976574522E-2</v>
+      </c>
+      <c r="C164" s="29">
+        <f>STDEV(Patient1_Healthy!B163,Patient2_Healthy!B163,Patient3_Healthy!B163,Patient4_Healthy!B163,Patient5_Healthy!B163,Patient6_Healthy!B163)</f>
+        <v>0.17639653045628742</v>
+      </c>
+      <c r="D164" s="26">
+        <f>AVERAGE(Patient1_Healthy!C163,Patient2_Healthy!C163,Patient3_Healthy!C163,Patient4_Healthy!C163,Patient5_Healthy!C163,Patient6_Healthy!C163)</f>
+        <v>0.12994270904632155</v>
+      </c>
+      <c r="E164" s="33">
+        <f>STDEV(Patient1_Healthy!C163,Patient2_Healthy!C163,Patient3_Healthy!C163,Patient4_Healthy!C163,Patient5_Healthy!C163,Patient6_Healthy!C163)</f>
+        <v>0.13731880471137667</v>
+      </c>
+      <c r="F164" s="29">
+        <f>AVERAGE(Patient1_Healthy!D163,Patient2_Healthy!D163,Patient3_Healthy!D163,Patient4_Healthy!D163,Patient5_Healthy!D163,Patient6_Healthy!D163)</f>
+        <v>0.11481967519677923</v>
+      </c>
+      <c r="G164" s="29">
+        <f>STDEV(Patient1_Healthy!D163,Patient2_Healthy!D163,Patient3_Healthy!D163,Patient4_Healthy!D163,Patient5_Healthy!D163,Patient6_Healthy!D163)</f>
+        <v>0.14023115465992869</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="34"/>
+      <c r="B167" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="38"/>
+      <c r="D167" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E167" s="38"/>
+      <c r="F167" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G167" s="40"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="32"/>
+      <c r="B168" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C168" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D168" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E168" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F168" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G168" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169">
+        <f>AVERAGE(Patient1_Healthy!B168,Patient2_Healthy!B168,Patient3_Healthy!B168,Patient4_Healthy!B168,Patient5_Healthy!B168,Patient6_Healthy!B168)</f>
+        <v>0.12869256017435485</v>
+      </c>
+      <c r="C169">
+        <f>STDEV(Patient1_Healthy!B168,Patient2_Healthy!B168,Patient3_Healthy!B168,Patient4_Healthy!B168,Patient5_Healthy!B168,Patient6_Healthy!B168)</f>
+        <v>0.15241834922682884</v>
+      </c>
+      <c r="D169" s="26">
+        <f>AVERAGE(Patient1_Healthy!C168,Patient2_Healthy!C168,Patient3_Healthy!C168,Patient4_Healthy!C168,Patient5_Healthy!C168,Patient6_Healthy!C168)</f>
+        <v>8.8071742570649217E-2</v>
+      </c>
+      <c r="E169" s="33">
+        <f>STDEV(Patient1_Healthy!C168,Patient2_Healthy!C168,Patient3_Healthy!C168,Patient4_Healthy!C168,Patient5_Healthy!C168,Patient6_Healthy!C168)</f>
+        <v>0.18186651068496079</v>
+      </c>
+      <c r="F169">
+        <f>AVERAGE(Patient1_Healthy!D168,Patient2_Healthy!D168,Patient3_Healthy!D168,Patient4_Healthy!D168,Patient5_Healthy!D168,Patient6_Healthy!D168)</f>
+        <v>5.7062229670898301E-2</v>
+      </c>
+      <c r="G169">
+        <f>STDEV(Patient1_Healthy!D168,Patient2_Healthy!D168,Patient3_Healthy!D168,Patient4_Healthy!D168,Patient5_Healthy!D168,Patient6_Healthy!D168)</f>
+        <v>0.15112787375029843</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170">
+        <f>AVERAGE(Patient1_Healthy!B169,Patient2_Healthy!B169,Patient3_Healthy!B169,Patient4_Healthy!B169,Patient5_Healthy!B169,Patient6_Healthy!B169)</f>
+        <v>0.24584393514482586</v>
+      </c>
+      <c r="C170">
+        <f>STDEV(Patient1_Healthy!B169,Patient2_Healthy!B169,Patient3_Healthy!B169,Patient4_Healthy!B169,Patient5_Healthy!B169,Patient6_Healthy!B169)</f>
+        <v>0.43226808753718732</v>
+      </c>
+      <c r="D170" s="26">
+        <f>AVERAGE(Patient1_Healthy!C169,Patient2_Healthy!C169,Patient3_Healthy!C169,Patient4_Healthy!C169,Patient5_Healthy!C169,Patient6_Healthy!C169)</f>
+        <v>0.1937022419773847</v>
+      </c>
+      <c r="E170" s="33">
+        <f>STDEV(Patient1_Healthy!C169,Patient2_Healthy!C169,Patient3_Healthy!C169,Patient4_Healthy!C169,Patient5_Healthy!C169,Patient6_Healthy!C169)</f>
+        <v>0.23644633776575694</v>
+      </c>
+      <c r="F170">
+        <f>AVERAGE(Patient1_Healthy!D169,Patient2_Healthy!D169,Patient3_Healthy!D169,Patient4_Healthy!D169,Patient5_Healthy!D169,Patient6_Healthy!D169)</f>
+        <v>0.17978501180263876</v>
+      </c>
+      <c r="G170">
+        <f>STDEV(Patient1_Healthy!D169,Patient2_Healthy!D169,Patient3_Healthy!D169,Patient4_Healthy!D169,Patient5_Healthy!D169,Patient6_Healthy!D169)</f>
+        <v>0.22204350119380273</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B171">
+        <f>AVERAGE(Patient1_Healthy!B170,Patient2_Healthy!B170,Patient3_Healthy!B170,Patient4_Healthy!B170,Patient5_Healthy!B170,Patient6_Healthy!B170)</f>
+        <v>8.4889495362995504E-2</v>
+      </c>
+      <c r="C171">
+        <f>STDEV(Patient1_Healthy!B170,Patient2_Healthy!B170,Patient3_Healthy!B170,Patient4_Healthy!B170,Patient5_Healthy!B170,Patient6_Healthy!B170)</f>
+        <v>0.48370893187174963</v>
+      </c>
+      <c r="D171" s="26">
+        <f>AVERAGE(Patient1_Healthy!C170,Patient2_Healthy!C170,Patient3_Healthy!C170,Patient4_Healthy!C170,Patient5_Healthy!C170,Patient6_Healthy!C170)</f>
+        <v>0.13643165822369505</v>
+      </c>
+      <c r="E171" s="33">
+        <f>STDEV(Patient1_Healthy!C170,Patient2_Healthy!C170,Patient3_Healthy!C170,Patient4_Healthy!C170,Patient5_Healthy!C170,Patient6_Healthy!C170)</f>
+        <v>0.4029834686567893</v>
+      </c>
+      <c r="F171">
+        <f>AVERAGE(Patient1_Healthy!D170,Patient2_Healthy!D170,Patient3_Healthy!D170,Patient4_Healthy!D170,Patient5_Healthy!D170,Patient6_Healthy!D170)</f>
+        <v>0.10463906754223005</v>
+      </c>
+      <c r="G171">
+        <f>STDEV(Patient1_Healthy!D170,Patient2_Healthy!D170,Patient3_Healthy!D170,Patient4_Healthy!D170,Patient5_Healthy!D170,Patient6_Healthy!D170)</f>
+        <v>0.39343529873339056</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" s="29">
+        <f>AVERAGE(Patient1_Healthy!B171,Patient2_Healthy!B171,Patient3_Healthy!B171,Patient4_Healthy!B171,Patient5_Healthy!B171,Patient6_Healthy!B171)</f>
+        <v>0.26870720987740265</v>
+      </c>
+      <c r="C172" s="29">
+        <f>STDEV(Patient1_Healthy!B171,Patient2_Healthy!B171,Patient3_Healthy!B171,Patient4_Healthy!B171,Patient5_Healthy!B171,Patient6_Healthy!B171)</f>
+        <v>0.57028282512324524</v>
+      </c>
+      <c r="D172" s="26">
+        <f>AVERAGE(Patient1_Healthy!C171,Patient2_Healthy!C171,Patient3_Healthy!C171,Patient4_Healthy!C171,Patient5_Healthy!C171,Patient6_Healthy!C171)</f>
+        <v>0.21197719796269313</v>
+      </c>
+      <c r="E172" s="33">
+        <f>STDEV(Patient1_Healthy!C171,Patient2_Healthy!C171,Patient3_Healthy!C171,Patient4_Healthy!C171,Patient5_Healthy!C171,Patient6_Healthy!C171)</f>
+        <v>0.36133081572622328</v>
+      </c>
+      <c r="F172" s="29">
+        <f>AVERAGE(Patient1_Healthy!D171,Patient2_Healthy!D171,Patient3_Healthy!D171,Patient4_Healthy!D171,Patient5_Healthy!D171,Patient6_Healthy!D171)</f>
+        <v>0.20239293180036919</v>
+      </c>
+      <c r="G172" s="29">
+        <f>STDEV(Patient1_Healthy!D171,Patient2_Healthy!D171,Patient3_Healthy!D171,Patient4_Healthy!D171,Patient5_Healthy!D171,Patient6_Healthy!D171)</f>
+        <v>0.35752973291497092</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="34"/>
+      <c r="B175" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="38"/>
+      <c r="D175" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E175" s="38"/>
+      <c r="F175" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G175" s="40"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C176" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D176" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E176" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F176" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G176" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177">
+        <f>AVERAGE(Patient1_Healthy!B176,Patient2_Healthy!B176,Patient3_Healthy!B176,Patient4_Healthy!B176,Patient5_Healthy!B176,Patient6_Healthy!B176)</f>
+        <v>-0.10267631963167294</v>
+      </c>
+      <c r="C177">
+        <f>STDEV(Patient1_Healthy!B176,Patient2_Healthy!B176,Patient3_Healthy!B176,Patient4_Healthy!B176,Patient5_Healthy!B176,Patient6_Healthy!B176)</f>
+        <v>0.16882171506776802</v>
+      </c>
+      <c r="D177" s="26">
+        <f>AVERAGE(Patient1_Healthy!C176,Patient2_Healthy!C176,Patient3_Healthy!C176,Patient4_Healthy!C176,Patient5_Healthy!C176,Patient6_Healthy!C176)</f>
+        <v>-5.4108567985123555E-2</v>
+      </c>
+      <c r="E177" s="33">
+        <f>STDEV(Patient1_Healthy!C176,Patient2_Healthy!C176,Patient3_Healthy!C176,Patient4_Healthy!C176,Patient5_Healthy!C176,Patient6_Healthy!C176)</f>
+        <v>0.1937045695051193</v>
+      </c>
+      <c r="F177">
+        <f>AVERAGE(Patient1_Healthy!D176,Patient2_Healthy!D176,Patient3_Healthy!D176,Patient4_Healthy!D176,Patient5_Healthy!D176,Patient6_Healthy!D176)</f>
+        <v>-0.10741409020800567</v>
+      </c>
+      <c r="G177">
+        <f>STDEV(Patient1_Healthy!D176,Patient2_Healthy!D176,Patient3_Healthy!D176,Patient4_Healthy!D176,Patient5_Healthy!D176,Patient6_Healthy!D176)</f>
+        <v>9.8143885874266618E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178">
+        <f>AVERAGE(Patient1_Healthy!B177,Patient2_Healthy!B177,Patient3_Healthy!B177,Patient4_Healthy!B177,Patient5_Healthy!B177,Patient6_Healthy!B177)</f>
+        <v>0.11497275535591377</v>
+      </c>
+      <c r="C178">
+        <f>STDEV(Patient1_Healthy!B177,Patient2_Healthy!B177,Patient3_Healthy!B177,Patient4_Healthy!B177,Patient5_Healthy!B177,Patient6_Healthy!B177)</f>
+        <v>0.30423642512773402</v>
+      </c>
+      <c r="D178" s="26">
+        <f>AVERAGE(Patient1_Healthy!C177,Patient2_Healthy!C177,Patient3_Healthy!C177,Patient4_Healthy!C177,Patient5_Healthy!C177,Patient6_Healthy!C177)</f>
+        <v>6.6466901697517108E-2</v>
+      </c>
+      <c r="E178" s="33">
+        <f>STDEV(Patient1_Healthy!C177,Patient2_Healthy!C177,Patient3_Healthy!C177,Patient4_Healthy!C177,Patient5_Healthy!C177,Patient6_Healthy!C177)</f>
+        <v>0.18594987198384624</v>
+      </c>
+      <c r="F178">
+        <f>AVERAGE(Patient1_Healthy!D177,Patient2_Healthy!D177,Patient3_Healthy!D177,Patient4_Healthy!D177,Patient5_Healthy!D177,Patient6_Healthy!D177)</f>
+        <v>3.9237581900992462E-2</v>
+      </c>
+      <c r="G178">
+        <f>STDEV(Patient1_Healthy!D177,Patient2_Healthy!D177,Patient3_Healthy!D177,Patient4_Healthy!D177,Patient5_Healthy!D177,Patient6_Healthy!D177)</f>
+        <v>0.17744100005353644</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179">
+        <f>AVERAGE(Patient1_Healthy!B178,Patient2_Healthy!B178,Patient3_Healthy!B178,Patient4_Healthy!B178,Patient5_Healthy!B178,Patient6_Healthy!B178)</f>
+        <v>1.6821054609117762E-2</v>
+      </c>
+      <c r="C179">
+        <f>STDEV(Patient1_Healthy!B178,Patient2_Healthy!B178,Patient3_Healthy!B178,Patient4_Healthy!B178,Patient5_Healthy!B178,Patient6_Healthy!B178)</f>
+        <v>0.14327366230830837</v>
+      </c>
+      <c r="D179" s="26">
+        <f>AVERAGE(Patient1_Healthy!C178,Patient2_Healthy!C178,Patient3_Healthy!C178,Patient4_Healthy!C178,Patient5_Healthy!C178,Patient6_Healthy!C178)</f>
+        <v>7.4873232467551662E-2</v>
+      </c>
+      <c r="E179" s="33">
+        <f>STDEV(Patient1_Healthy!C178,Patient2_Healthy!C178,Patient3_Healthy!C178,Patient4_Healthy!C178,Patient5_Healthy!C178,Patient6_Healthy!C178)</f>
+        <v>0.23880024310533529</v>
+      </c>
+      <c r="F179">
+        <f>AVERAGE(Patient1_Healthy!D178,Patient2_Healthy!D178,Patient3_Healthy!D178,Patient4_Healthy!D178,Patient5_Healthy!D178,Patient6_Healthy!D178)</f>
+        <v>7.647270796093035E-2</v>
+      </c>
+      <c r="G179">
+        <f>STDEV(Patient1_Healthy!D178,Patient2_Healthy!D178,Patient3_Healthy!D178,Patient4_Healthy!D178,Patient5_Healthy!D178,Patient6_Healthy!D178)</f>
+        <v>0.23268535020007372</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" s="29">
+        <f>AVERAGE(Patient1_Healthy!B179,Patient2_Healthy!B179,Patient3_Healthy!B179,Patient4_Healthy!B179,Patient5_Healthy!B179,Patient6_Healthy!B179)</f>
+        <v>0.14411431946955044</v>
+      </c>
+      <c r="C180" s="29">
+        <f>STDEV(Patient1_Healthy!B179,Patient2_Healthy!B179,Patient3_Healthy!B179,Patient4_Healthy!B179,Patient5_Healthy!B179,Patient6_Healthy!B179)</f>
+        <v>0.36005332065762019</v>
+      </c>
+      <c r="D180" s="26">
+        <f>AVERAGE(Patient1_Healthy!C179,Patient2_Healthy!C179,Patient3_Healthy!C179,Patient4_Healthy!C179,Patient5_Healthy!C179,Patient6_Healthy!C179)</f>
+        <v>8.1793369612426739E-2</v>
+      </c>
+      <c r="E180" s="33">
+        <f>STDEV(Patient1_Healthy!C179,Patient2_Healthy!C179,Patient3_Healthy!C179,Patient4_Healthy!C179,Patient5_Healthy!C179,Patient6_Healthy!C179)</f>
+        <v>0.29650251255714777</v>
+      </c>
+      <c r="F180" s="29">
+        <f>AVERAGE(Patient1_Healthy!D179,Patient2_Healthy!D179,Patient3_Healthy!D179,Patient4_Healthy!D179,Patient5_Healthy!D179,Patient6_Healthy!D179)</f>
+        <v>2.8113806893380625E-2</v>
+      </c>
+      <c r="G180">
+        <f>STDEV(Patient1_Healthy!D179,Patient2_Healthy!D179,Patient3_Healthy!D179,Patient4_Healthy!D179,Patient5_Healthy!D179,Patient6_Healthy!D179)</f>
+        <v>0.25455436613544097</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="34"/>
+      <c r="B183" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="38"/>
+      <c r="D183" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E183" s="38"/>
+      <c r="F183" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G183" s="40"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="32"/>
+      <c r="B184" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C184" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D184" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E184" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F184" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G184" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185">
+        <f>AVERAGE(Patient1_Healthy!B192,Patient2_Healthy!B192,Patient3_Healthy!B184,Patient4_Healthy!B184,Patient5_Healthy!B184,Patient6_Healthy!B184)</f>
+        <v>8.4748943341717065E-2</v>
+      </c>
+      <c r="C185" s="29">
+        <f>STDEV(Patient1_Healthy!B192,Patient2_Healthy!B192,Patient3_Healthy!B184,Patient4_Healthy!B184,Patient5_Healthy!B184,Patient6_Healthy!B184)</f>
+        <v>9.3571468216429865E-2</v>
+      </c>
+      <c r="D185" s="26">
+        <f>AVERAGE(Patient1_Healthy!C192,Patient2_Healthy!C192,Patient3_Healthy!C184,Patient4_Healthy!C184,Patient5_Healthy!C184,Patient6_Healthy!C184)</f>
+        <v>7.1365962964892405E-3</v>
+      </c>
+      <c r="E185" s="33">
+        <f>STDEV(Patient1_Healthy!C192,Patient2_Healthy!C192,Patient3_Healthy!C184,Patient4_Healthy!C184,Patient5_Healthy!C184,Patient6_Healthy!C184)</f>
+        <v>8.2470205093606308E-2</v>
+      </c>
+      <c r="F185" s="29">
+        <f>AVERAGE(Patient1_Healthy!D192,Patient2_Healthy!D192,Patient3_Healthy!D184,Patient4_Healthy!D184,Patient5_Healthy!D184,Patient6_Healthy!D184)</f>
+        <v>-1.39596761791735E-2</v>
+      </c>
+      <c r="G185" s="29">
+        <f>STDEV(Patient1_Healthy!D192,Patient2_Healthy!D192,Patient3_Healthy!D184,Patient4_Healthy!D184,Patient5_Healthy!D184,Patient6_Healthy!D184)</f>
+        <v>8.2198712911096608E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="29">
+        <f>AVERAGE(Patient1_Healthy!B193,Patient2_Healthy!B193,Patient3_Healthy!B185,Patient4_Healthy!B185,Patient5_Healthy!B185,Patient6_Healthy!B185)</f>
+        <v>7.2049248914838618E-2</v>
+      </c>
+      <c r="C186" s="29">
+        <f>STDEV(Patient1_Healthy!B193,Patient2_Healthy!B193,Patient3_Healthy!B185,Patient4_Healthy!B185,Patient5_Healthy!B185,Patient6_Healthy!B185)</f>
+        <v>6.3294646907970528E-2</v>
+      </c>
+      <c r="D186" s="26">
+        <f>AVERAGE(Patient1_Healthy!C193,Patient2_Healthy!C193,Patient3_Healthy!C185,Patient4_Healthy!C185,Patient5_Healthy!C185,Patient6_Healthy!C185)</f>
+        <v>-1.7234799684595622E-2</v>
+      </c>
+      <c r="E186" s="33">
+        <f>STDEV(Patient1_Healthy!C193,Patient2_Healthy!C193,Patient3_Healthy!C185,Patient4_Healthy!C185,Patient5_Healthy!C185,Patient6_Healthy!C185)</f>
+        <v>0.12891643692069957</v>
+      </c>
+      <c r="F186" s="29">
+        <f>AVERAGE(Patient1_Healthy!D193,Patient2_Healthy!D193,Patient3_Healthy!D185,Patient4_Healthy!D185,Patient5_Healthy!D185,Patient6_Healthy!D185)</f>
+        <v>-3.524207791981377E-2</v>
+      </c>
+      <c r="G186" s="29">
+        <f>STDEV(Patient1_Healthy!D193,Patient2_Healthy!D193,Patient3_Healthy!D185,Patient4_Healthy!D185,Patient5_Healthy!D185,Patient6_Healthy!D185)</f>
+        <v>0.13290664136990415</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="29">
+        <f>AVERAGE(Patient1_Healthy!B194,Patient2_Healthy!B194,Patient3_Healthy!B186,Patient4_Healthy!B186,Patient5_Healthy!B186,Patient6_Healthy!B186)</f>
+        <v>0.10026899178981065</v>
+      </c>
+      <c r="C187" s="29">
+        <f>STDEV(Patient1_Healthy!B194,Patient2_Healthy!B194,Patient3_Healthy!B186,Patient4_Healthy!B186,Patient5_Healthy!B186,Patient6_Healthy!B186)</f>
+        <v>7.7832634813510784E-2</v>
+      </c>
+      <c r="D187" s="26">
+        <f>AVERAGE(Patient1_Healthy!C194,Patient2_Healthy!C194,Patient3_Healthy!C186,Patient4_Healthy!C186,Patient5_Healthy!C186,Patient6_Healthy!C186)</f>
+        <v>5.942154694638422E-2</v>
+      </c>
+      <c r="E187" s="33">
+        <f>STDEV(Patient1_Healthy!C194,Patient2_Healthy!C194,Patient3_Healthy!C186,Patient4_Healthy!C186,Patient5_Healthy!C186,Patient6_Healthy!C186)</f>
+        <v>7.9810323101167341E-2</v>
+      </c>
+      <c r="F187" s="29">
+        <f>AVERAGE(Patient1_Healthy!D194,Patient2_Healthy!D194,Patient3_Healthy!D186,Patient4_Healthy!D186,Patient5_Healthy!D186,Patient6_Healthy!D186)</f>
+        <v>3.5350582915419038E-2</v>
+      </c>
+      <c r="G187" s="29">
+        <f>STDEV(Patient1_Healthy!D194,Patient2_Healthy!D194,Patient3_Healthy!D186,Patient4_Healthy!D186,Patient5_Healthy!D186,Patient6_Healthy!D186)</f>
+        <v>9.3680381431172799E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="29">
+        <f>AVERAGE(Patient1_Healthy!B195,Patient2_Healthy!B195,Patient3_Healthy!B187,Patient4_Healthy!B187,Patient5_Healthy!B187,Patient6_Healthy!B187)</f>
+        <v>5.6115308805645893E-2</v>
+      </c>
+      <c r="C188" s="29">
+        <f>STDEV(Patient1_Healthy!B195,Patient2_Healthy!B195,Patient3_Healthy!B187,Patient4_Healthy!B187,Patient5_Healthy!B187,Patient6_Healthy!B187)</f>
+        <v>0.11273592007561145</v>
+      </c>
+      <c r="D188" s="26">
+        <f>AVERAGE(Patient1_Healthy!C195,Patient2_Healthy!C195,Patient3_Healthy!C187,Patient4_Healthy!C187,Patient5_Healthy!C187,Patient6_Healthy!C187)</f>
+        <v>5.7317994240923799E-2</v>
+      </c>
+      <c r="E188" s="33">
+        <f>STDEV(Patient1_Healthy!C195,Patient2_Healthy!C195,Patient3_Healthy!C187,Patient4_Healthy!C187,Patient5_Healthy!C187,Patient6_Healthy!C187)</f>
+        <v>7.6326181934406073E-2</v>
+      </c>
+      <c r="F188" s="29">
+        <f>AVERAGE(Patient1_Healthy!D195,Patient2_Healthy!D195,Patient3_Healthy!D187,Patient4_Healthy!D187,Patient5_Healthy!D187,Patient6_Healthy!D187)</f>
+        <v>4.8614077597788526E-2</v>
+      </c>
+      <c r="G188" s="29">
+        <f>STDEV(Patient1_Healthy!D195,Patient2_Healthy!D195,Patient3_Healthy!D187,Patient4_Healthy!D187,Patient5_Healthy!D187,Patient6_Healthy!D187)</f>
+        <v>4.9031178167980687E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="34"/>
+      <c r="B191" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="38"/>
+      <c r="D191" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E191" s="38"/>
+      <c r="F191" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G191" s="40"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="32"/>
+      <c r="B192" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C192" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D192" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E192" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F192" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G192" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193">
+        <f>AVERAGE(Patient1_Healthy!B200,Patient2_Healthy!B200,Patient3_Healthy!B192,Patient4_Healthy!B192,Patient5_Healthy!B192,Patient6_Healthy!B192)</f>
+        <v>-4.3458801259935044E-2</v>
+      </c>
+      <c r="C193" s="29">
+        <f>STDEV(Patient1_Healthy!B200,Patient2_Healthy!B200,Patient3_Healthy!B192,Patient4_Healthy!B192,Patient5_Healthy!B192,Patient6_Healthy!B192)</f>
+        <v>0.11672542136476965</v>
+      </c>
+      <c r="D193" s="26">
+        <f>AVERAGE(Patient1_Healthy!C200,Patient2_Healthy!C200,Patient3_Healthy!C192,Patient4_Healthy!C192,Patient5_Healthy!C192,Patient6_Healthy!C192)</f>
+        <v>-4.5435418546248647E-3</v>
+      </c>
+      <c r="E193" s="33">
+        <f>STDEV(Patient1_Healthy!C200,Patient2_Healthy!C200,Patient3_Healthy!C192,Patient4_Healthy!C192,Patient5_Healthy!C192,Patient6_Healthy!C192)</f>
+        <v>2.8280501896048974E-2</v>
+      </c>
+      <c r="F193" s="29">
+        <f>AVERAGE(Patient1_Healthy!D200,Patient2_Healthy!D200,Patient3_Healthy!D192,Patient4_Healthy!D192,Patient5_Healthy!D192,Patient6_Healthy!D192)</f>
+        <v>-3.4370030798875633E-3</v>
+      </c>
+      <c r="G193" s="29">
+        <f>STDEV(Patient1_Healthy!D200,Patient2_Healthy!D200,Patient3_Healthy!D192,Patient4_Healthy!D192,Patient5_Healthy!D192,Patient6_Healthy!D192)</f>
+        <v>2.2229507097074074E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" s="29">
+        <f>AVERAGE(Patient1_Healthy!B201,Patient2_Healthy!B201,Patient3_Healthy!B193,Patient4_Healthy!B193,Patient5_Healthy!B193,Patient6_Healthy!B193)</f>
+        <v>2.1573290068589223E-2</v>
+      </c>
+      <c r="C194" s="29">
+        <f>STDEV(Patient1_Healthy!B201,Patient2_Healthy!B201,Patient3_Healthy!B193,Patient4_Healthy!B193,Patient5_Healthy!B193,Patient6_Healthy!B193)</f>
+        <v>7.8432926273665354E-2</v>
+      </c>
+      <c r="D194" s="26">
+        <f>AVERAGE(Patient1_Healthy!C201,Patient2_Healthy!C201,Patient3_Healthy!C193,Patient4_Healthy!C193,Patient5_Healthy!C193,Patient6_Healthy!C193)</f>
+        <v>4.8586324163830963E-2</v>
+      </c>
+      <c r="E194" s="33">
+        <f>STDEV(Patient1_Healthy!C201,Patient2_Healthy!C201,Patient3_Healthy!C193,Patient4_Healthy!C193,Patient5_Healthy!C193,Patient6_Healthy!C193)</f>
+        <v>5.8945670993213919E-2</v>
+      </c>
+      <c r="F194" s="29">
+        <f>AVERAGE(Patient1_Healthy!D201,Patient2_Healthy!D201,Patient3_Healthy!D193,Patient4_Healthy!D193,Patient5_Healthy!D193,Patient6_Healthy!D193)</f>
+        <v>4.1834472513973299E-2</v>
+      </c>
+      <c r="G194" s="29">
+        <f>STDEV(Patient1_Healthy!D201,Patient2_Healthy!D201,Patient3_Healthy!D193,Patient4_Healthy!D193,Patient5_Healthy!D193,Patient6_Healthy!D193)</f>
+        <v>5.9023623388628807E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" s="29">
+        <f>AVERAGE(Patient1_Healthy!B202,Patient2_Healthy!B202,Patient3_Healthy!B194,Patient4_Healthy!B194,Patient5_Healthy!B194,Patient6_Healthy!B194)</f>
+        <v>-1.0661241819309461E-2</v>
+      </c>
+      <c r="C195" s="29">
+        <f>STDEV(Patient1_Healthy!B202,Patient2_Healthy!B202,Patient3_Healthy!B194,Patient4_Healthy!B194,Patient5_Healthy!B194,Patient6_Healthy!B194)</f>
+        <v>0.10112506124894655</v>
+      </c>
+      <c r="D195" s="26">
+        <f>AVERAGE(Patient1_Healthy!C202,Patient2_Healthy!C202,Patient3_Healthy!C194,Patient4_Healthy!C194,Patient5_Healthy!C194,Patient6_Healthy!C194)</f>
+        <v>2.9734691014080775E-2</v>
+      </c>
+      <c r="E195" s="33">
+        <f>STDEV(Patient1_Healthy!C202,Patient2_Healthy!C202,Patient3_Healthy!C194,Patient4_Healthy!C194,Patient5_Healthy!C194,Patient6_Healthy!C194)</f>
+        <v>8.8193222327158496E-2</v>
+      </c>
+      <c r="F195" s="29">
+        <f>AVERAGE(Patient1_Healthy!D202,Patient2_Healthy!D202,Patient3_Healthy!D194,Patient4_Healthy!D194,Patient5_Healthy!D194,Patient6_Healthy!D194)</f>
+        <v>1.6152068251405527E-2</v>
+      </c>
+      <c r="G195" s="29">
+        <f>STDEV(Patient1_Healthy!D202,Patient2_Healthy!D202,Patient3_Healthy!D194,Patient4_Healthy!D194,Patient5_Healthy!D194,Patient6_Healthy!D194)</f>
+        <v>7.5759372310336179E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="29">
+        <f>AVERAGE(Patient1_Healthy!B203,Patient2_Healthy!B203,Patient3_Healthy!B195,Patient4_Healthy!B195,Patient5_Healthy!B195,Patient6_Healthy!B195)</f>
+        <v>3.6944518618316442E-2</v>
+      </c>
+      <c r="C196" s="29">
+        <f>STDEV(Patient1_Healthy!B203,Patient2_Healthy!B203,Patient3_Healthy!B195,Patient4_Healthy!B195,Patient5_Healthy!B195,Patient6_Healthy!B195)</f>
+        <v>0.13877279301851977</v>
+      </c>
+      <c r="D196" s="26">
+        <f>AVERAGE(Patient1_Healthy!C203,Patient2_Healthy!C203,Patient3_Healthy!C195,Patient4_Healthy!C195,Patient5_Healthy!C195,Patient6_Healthy!C195)</f>
+        <v>3.5066323254738456E-2</v>
+      </c>
+      <c r="E196" s="33">
+        <f>STDEV(Patient1_Healthy!C203,Patient2_Healthy!C203,Patient3_Healthy!C195,Patient4_Healthy!C195,Patient5_Healthy!C195,Patient6_Healthy!C195)</f>
+        <v>6.7325112647562607E-2</v>
+      </c>
+      <c r="F196" s="29">
+        <f>AVERAGE(Patient1_Healthy!D203,Patient2_Healthy!D203,Patient3_Healthy!D195,Patient4_Healthy!D195,Patient5_Healthy!D195,Patient6_Healthy!D195)</f>
+        <v>3.2334846891668344E-2</v>
+      </c>
+      <c r="G196" s="29">
+        <f>STDEV(Patient1_Healthy!D203,Patient2_Healthy!D203,Patient3_Healthy!D195,Patient4_Healthy!D195,Patient5_Healthy!D195,Patient6_Healthy!D195)</f>
+        <v>5.5763267672775021E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="34"/>
+      <c r="B199" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="38"/>
+      <c r="D199" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E199" s="38"/>
+      <c r="F199" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G199" s="40"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="32"/>
+      <c r="B200" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C200" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D200" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E200" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F200" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G200" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201">
+        <f>AVERAGE(Patient1_Healthy!B208,Patient2_Healthy!B208,Patient3_Healthy!B200,Patient4_Healthy!B200,Patient5_Healthy!B200,Patient6_Healthy!B200)</f>
+        <v>-3.3737915203637447E-2</v>
+      </c>
+      <c r="C201" s="29">
+        <f>STDEV(Patient1_Healthy!B208,Patient2_Healthy!B208,Patient3_Healthy!B200,Patient4_Healthy!B200,Patient5_Healthy!B200,Patient6_Healthy!B200)</f>
+        <v>7.3820961183803102E-2</v>
+      </c>
+      <c r="D201" s="26">
+        <f>AVERAGE(Patient1_Healthy!C208,Patient2_Healthy!C208,Patient3_Healthy!C200,Patient4_Healthy!C200,Patient5_Healthy!C200,Patient6_Healthy!C200)</f>
+        <v>-1.1682057621632538E-2</v>
+      </c>
+      <c r="E201" s="33">
+        <f>STDEV(Patient1_Healthy!C208,Patient2_Healthy!C208,Patient3_Healthy!C200,Patient4_Healthy!C200,Patient5_Healthy!C200,Patient6_Healthy!C200)</f>
+        <v>6.5108623054046258E-2</v>
+      </c>
+      <c r="F201" s="29">
+        <f>AVERAGE(Patient1_Healthy!D208,Patient2_Healthy!D208,Patient3_Healthy!D200,Patient4_Healthy!D200,Patient5_Healthy!D200,Patient6_Healthy!D200)</f>
+        <v>-1.1809605924753865E-2</v>
+      </c>
+      <c r="G201" s="29">
+        <f>STDEV(Patient1_Healthy!D208,Patient2_Healthy!D208,Patient3_Healthy!D200,Patient4_Healthy!D200,Patient5_Healthy!D200,Patient6_Healthy!D200)</f>
+        <v>6.3338603966238069E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="29">
+        <f>AVERAGE(Patient1_Healthy!B209,Patient2_Healthy!B209,Patient3_Healthy!B201,Patient4_Healthy!B201,Patient5_Healthy!B201,Patient6_Healthy!B201)</f>
+        <v>3.9688639235619501E-2</v>
+      </c>
+      <c r="C202" s="29">
+        <f>STDEV(Patient1_Healthy!B209,Patient2_Healthy!B209,Patient3_Healthy!B201,Patient4_Healthy!B201,Patient5_Healthy!B201,Patient6_Healthy!B201)</f>
+        <v>9.5216234485905285E-2</v>
+      </c>
+      <c r="D202" s="26">
+        <f>AVERAGE(Patient1_Healthy!C209,Patient2_Healthy!C209,Patient3_Healthy!C201,Patient4_Healthy!C201,Patient5_Healthy!C201,Patient6_Healthy!C201)</f>
+        <v>1.4722448306391038E-2</v>
+      </c>
+      <c r="E202" s="33">
+        <f>STDEV(Patient1_Healthy!C209,Patient2_Healthy!C209,Patient3_Healthy!C201,Patient4_Healthy!C201,Patient5_Healthy!C201,Patient6_Healthy!C201)</f>
+        <v>5.7715072148104535E-2</v>
+      </c>
+      <c r="F202" s="29">
+        <f>AVERAGE(Patient1_Healthy!D209,Patient2_Healthy!D209,Patient3_Healthy!D201,Patient4_Healthy!D201,Patient5_Healthy!D201,Patient6_Healthy!D201)</f>
+        <v>1.5068479582891181E-2</v>
+      </c>
+      <c r="G202" s="29">
+        <f>STDEV(Patient1_Healthy!D209,Patient2_Healthy!D209,Patient3_Healthy!D201,Patient4_Healthy!D201,Patient5_Healthy!D201,Patient6_Healthy!D201)</f>
+        <v>4.436408768444268E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="29">
+        <f>AVERAGE(Patient1_Healthy!B210,Patient2_Healthy!B210,Patient3_Healthy!B202,Patient4_Healthy!B202,Patient5_Healthy!B202,Patient6_Healthy!B202)</f>
+        <v>-6.1106500968939902E-2</v>
+      </c>
+      <c r="C203" s="29">
+        <f>STDEV(Patient1_Healthy!B210,Patient2_Healthy!B210,Patient3_Healthy!B202,Patient4_Healthy!B202,Patient5_Healthy!B202,Patient6_Healthy!B202)</f>
+        <v>0.1400260307012374</v>
+      </c>
+      <c r="D203" s="26">
+        <f>AVERAGE(Patient1_Healthy!C210,Patient2_Healthy!C210,Patient3_Healthy!C202,Patient4_Healthy!C202,Patient5_Healthy!C202,Patient6_Healthy!C202)</f>
+        <v>-5.1794859919165631E-2</v>
+      </c>
+      <c r="E203" s="33">
+        <f>STDEV(Patient1_Healthy!C210,Patient2_Healthy!C210,Patient3_Healthy!C202,Patient4_Healthy!C202,Patient5_Healthy!C202,Patient6_Healthy!C202)</f>
+        <v>5.0817664278921142E-2</v>
+      </c>
+      <c r="F203" s="29">
+        <f>AVERAGE(Patient1_Healthy!D210,Patient2_Healthy!D210,Patient3_Healthy!D202,Patient4_Healthy!D202,Patient5_Healthy!D202,Patient6_Healthy!D202)</f>
+        <v>-5.3205469632958337E-2</v>
+      </c>
+      <c r="G203" s="29">
+        <f>STDEV(Patient1_Healthy!D210,Patient2_Healthy!D210,Patient3_Healthy!D202,Patient4_Healthy!D202,Patient5_Healthy!D202,Patient6_Healthy!D202)</f>
+        <v>4.8887831747078975E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="29">
+        <f>AVERAGE(Patient1_Healthy!B211,Patient2_Healthy!B211,Patient3_Healthy!B203,Patient4_Healthy!B203,Patient5_Healthy!B203,Patient6_Healthy!B203)</f>
+        <v>-3.2634406054718054E-2</v>
+      </c>
+      <c r="C204" s="29">
+        <f>STDEV(Patient1_Healthy!B211,Patient2_Healthy!B211,Patient3_Healthy!B203,Patient4_Healthy!B203,Patient5_Healthy!B203,Patient6_Healthy!B203)</f>
+        <v>0.20272204509897349</v>
+      </c>
+      <c r="D204" s="26">
+        <f>AVERAGE(Patient1_Healthy!C211,Patient2_Healthy!C211,Patient3_Healthy!C203,Patient4_Healthy!C203,Patient5_Healthy!C203,Patient6_Healthy!C203)</f>
+        <v>-6.7905591224946896E-2</v>
+      </c>
+      <c r="E204" s="33">
+        <f>STDEV(Patient1_Healthy!C211,Patient2_Healthy!C211,Patient3_Healthy!C203,Patient4_Healthy!C203,Patient5_Healthy!C203,Patient6_Healthy!C203)</f>
+        <v>7.1673252192373832E-2</v>
+      </c>
+      <c r="F204" s="29">
+        <f>AVERAGE(Patient1_Healthy!D211,Patient2_Healthy!D211,Patient3_Healthy!D203,Patient4_Healthy!D203,Patient5_Healthy!D203,Patient6_Healthy!D203)</f>
+        <v>-6.1544110939688999E-2</v>
+      </c>
+      <c r="G204" s="29">
+        <f>STDEV(Patient1_Healthy!D211,Patient2_Healthy!D211,Patient3_Healthy!D203,Patient4_Healthy!D203,Patient5_Healthy!D203,Patient6_Healthy!D203)</f>
+        <v>6.9862799269768835E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="34"/>
+      <c r="B207" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="38"/>
+      <c r="D207" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E207" s="38"/>
+      <c r="F207" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G207" s="40"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="32"/>
+      <c r="B208" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C208" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D208" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E208" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F208" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G208" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209">
+        <f>AVERAGE(Patient1_Healthy!B224,Patient2_Healthy!B224,Patient3_Healthy!B208,Patient4_Healthy!B208,Patient5_Healthy!B208,Patient6_Healthy!B208)</f>
+        <v>0.12102000528719022</v>
+      </c>
+      <c r="C209" s="29">
+        <f>STDEV(Patient1_Healthy!B224,Patient2_Healthy!B224,Patient3_Healthy!B208,Patient4_Healthy!B208,Patient5_Healthy!B208,Patient6_Healthy!B208)</f>
+        <v>0.23002325835426912</v>
+      </c>
+      <c r="D209" s="26">
+        <f>AVERAGE(Patient1_Healthy!C224,Patient2_Healthy!C224,Patient3_Healthy!C208,Patient4_Healthy!C208,Patient5_Healthy!C208,Patient6_Healthy!C208)</f>
+        <v>-0.12449910276120207</v>
+      </c>
+      <c r="E209" s="33">
+        <f>STDEV(Patient1_Healthy!C224,Patient2_Healthy!C224,Patient3_Healthy!C208,Patient4_Healthy!C208,Patient5_Healthy!C208,Patient6_Healthy!C208)</f>
+        <v>0.19803991963563419</v>
+      </c>
+      <c r="F209" s="33">
+        <f>AVERAGE(Patient1_Healthy!D224,Patient2_Healthy!D224,Patient3_Healthy!D208,Patient4_Healthy!D208,Patient5_Healthy!D208,Patient6_Healthy!D208)</f>
+        <v>-0.13105788533858434</v>
+      </c>
+      <c r="G209" s="33">
+        <f>STDEV(Patient1_Healthy!D224,Patient2_Healthy!D224,Patient3_Healthy!D208,Patient4_Healthy!D208,Patient5_Healthy!D208,Patient6_Healthy!D208)</f>
+        <v>0.18990560766790399</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="29">
+        <f>AVERAGE(Patient1_Healthy!B225,Patient2_Healthy!B225,Patient3_Healthy!B209,Patient4_Healthy!B209,Patient5_Healthy!B209,Patient6_Healthy!B209)</f>
+        <v>7.9899146506649407E-2</v>
+      </c>
+      <c r="C210" s="29">
+        <f>STDEV(Patient1_Healthy!B225,Patient2_Healthy!B225,Patient3_Healthy!B209,Patient4_Healthy!B209,Patient5_Healthy!B209,Patient6_Healthy!B209)</f>
+        <v>0.25390053280028008</v>
+      </c>
+      <c r="D210" s="26">
+        <f>AVERAGE(Patient1_Healthy!C225,Patient2_Healthy!C225,Patient3_Healthy!C209,Patient4_Healthy!C209,Patient5_Healthy!C209,Patient6_Healthy!C209)</f>
+        <v>-0.11715529964651433</v>
+      </c>
+      <c r="E210" s="33">
+        <f>STDEV(Patient1_Healthy!C225,Patient2_Healthy!C225,Patient3_Healthy!C209,Patient4_Healthy!C209,Patient5_Healthy!C209,Patient6_Healthy!C209)</f>
+        <v>0.21866668186961266</v>
+      </c>
+      <c r="F210" s="33">
+        <f>AVERAGE(Patient1_Healthy!D225,Patient2_Healthy!D225,Patient3_Healthy!D209,Patient4_Healthy!D209,Patient5_Healthy!D209,Patient6_Healthy!D209)</f>
+        <v>-0.1304494127689742</v>
+      </c>
+      <c r="G210" s="33">
+        <f>STDEV(Patient1_Healthy!D225,Patient2_Healthy!D225,Patient3_Healthy!D209,Patient4_Healthy!D209,Patient5_Healthy!D209,Patient6_Healthy!D209)</f>
+        <v>0.2137104807136653</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B211" s="29">
+        <f>AVERAGE(Patient1_Healthy!B226,Patient2_Healthy!B226,Patient3_Healthy!B210,Patient4_Healthy!B210,Patient5_Healthy!B210,Patient6_Healthy!B210)</f>
+        <v>0.22182466181271468</v>
+      </c>
+      <c r="C211" s="29">
+        <f>STDEV(Patient1_Healthy!B226,Patient2_Healthy!B226,Patient3_Healthy!B210,Patient4_Healthy!B210,Patient5_Healthy!B210,Patient6_Healthy!B210)</f>
+        <v>0.3746159594208005</v>
+      </c>
+      <c r="D211" s="26">
+        <f>AVERAGE(Patient1_Healthy!C226,Patient2_Healthy!C226,Patient3_Healthy!C210,Patient4_Healthy!C210,Patient5_Healthy!C210,Patient6_Healthy!C210)</f>
+        <v>2.7196156458781557E-2</v>
+      </c>
+      <c r="E211" s="33">
+        <f>STDEV(Patient1_Healthy!C226,Patient2_Healthy!C226,Patient3_Healthy!C210,Patient4_Healthy!C210,Patient5_Healthy!C210,Patient6_Healthy!C210)</f>
+        <v>0.31786267001126062</v>
+      </c>
+      <c r="F211" s="33">
+        <f>AVERAGE(Patient1_Healthy!D226,Patient2_Healthy!D226,Patient3_Healthy!D210,Patient4_Healthy!D210,Patient5_Healthy!D210,Patient6_Healthy!D210)</f>
+        <v>1.8706939630830324E-2</v>
+      </c>
+      <c r="G211" s="33">
+        <f>STDEV(Patient1_Healthy!D226,Patient2_Healthy!D226,Patient3_Healthy!D210,Patient4_Healthy!D210,Patient5_Healthy!D210,Patient6_Healthy!D210)</f>
+        <v>0.31168883229298405</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" s="29">
+        <f>AVERAGE(Patient1_Healthy!B227,Patient2_Healthy!B227,Patient3_Healthy!B211,Patient4_Healthy!B211,Patient5_Healthy!B211,Patient6_Healthy!B211)</f>
+        <v>0.22040698326936578</v>
+      </c>
+      <c r="C212" s="29">
+        <f>STDEV(Patient1_Healthy!B227,Patient2_Healthy!B227,Patient3_Healthy!B211,Patient4_Healthy!B211,Patient5_Healthy!B211,Patient6_Healthy!B211)</f>
+        <v>0.29700443822787892</v>
+      </c>
+      <c r="D212" s="26">
+        <f>AVERAGE(Patient1_Healthy!C227,Patient2_Healthy!C227,Patient3_Healthy!C211,Patient4_Healthy!C211,Patient5_Healthy!C211,Patient6_Healthy!C211)</f>
+        <v>-3.1539270813343588E-2</v>
+      </c>
+      <c r="E212" s="33">
+        <f>STDEV(Patient1_Healthy!C227,Patient2_Healthy!C227,Patient3_Healthy!C211,Patient4_Healthy!C211,Patient5_Healthy!C211,Patient6_Healthy!C211)</f>
+        <v>0.35414196894468813</v>
+      </c>
+      <c r="F212" s="33">
+        <f>AVERAGE(Patient1_Healthy!D227,Patient2_Healthy!D227,Patient3_Healthy!D211,Patient4_Healthy!D211,Patient5_Healthy!D211,Patient6_Healthy!D211)</f>
+        <v>-4.4908576346837203E-2</v>
+      </c>
+      <c r="G212" s="33">
+        <f>STDEV(Patient1_Healthy!D227,Patient2_Healthy!D227,Patient3_Healthy!D211,Patient4_Healthy!D211,Patient5_Healthy!D211,Patient6_Healthy!D211)</f>
+        <v>0.35312876825389772</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="34"/>
+      <c r="B215" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="38"/>
+      <c r="D215" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E215" s="38"/>
+      <c r="F215" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G215" s="40"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="32"/>
+      <c r="B216" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C216" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D216" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E216" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F216" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G216" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217">
+        <f>AVERAGE(Patient1_Healthy!B232,Patient2_Healthy!B232,Patient3_Healthy!B216,Patient4_Healthy!B216,Patient5_Healthy!B216,Patient6_Healthy!B216)</f>
+        <v>-1.2475462426638155E-2</v>
+      </c>
+      <c r="C217" s="29">
+        <f>STDEV(Patient1_Healthy!B232,Patient2_Healthy!B232,Patient3_Healthy!B216,Patient4_Healthy!B216,Patient5_Healthy!B216,Patient6_Healthy!B216)</f>
+        <v>5.0281981310471201E-2</v>
+      </c>
+      <c r="D217" s="29">
+        <f>AVERAGE(Patient1_Healthy!C232,Patient2_Healthy!C232,Patient3_Healthy!C216,Patient4_Healthy!C216,Patient5_Healthy!C216,Patient6_Healthy!C216)</f>
+        <v>1.9334154117756186E-2</v>
+      </c>
+      <c r="E217" s="33">
+        <f>STDEV(Patient1_Healthy!C232,Patient2_Healthy!C232,Patient3_Healthy!C216,Patient4_Healthy!C216,Patient5_Healthy!C216,Patient6_Healthy!C216)</f>
+        <v>6.1869326182278424E-2</v>
+      </c>
+      <c r="F217" s="29">
+        <f>AVERAGE(Patient1_Healthy!D232,Patient2_Healthy!D232,Patient3_Healthy!D216,Patient4_Healthy!D216,Patient5_Healthy!D216,Patient6_Healthy!D216)</f>
+        <v>1.2918326686146864E-2</v>
+      </c>
+      <c r="G217" s="29">
+        <f>STDEV(Patient1_Healthy!D232,Patient2_Healthy!D232,Patient3_Healthy!D216,Patient4_Healthy!D216,Patient5_Healthy!D216,Patient6_Healthy!D216)</f>
+        <v>6.8542741974803548E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" s="29">
+        <f>AVERAGE(Patient1_Healthy!B233,Patient2_Healthy!B233,Patient3_Healthy!B217,Patient4_Healthy!B217,Patient5_Healthy!B217,Patient6_Healthy!B217)</f>
+        <v>-3.5340147658901255E-2</v>
+      </c>
+      <c r="C218" s="29">
+        <f>STDEV(Patient1_Healthy!B233,Patient2_Healthy!B233,Patient3_Healthy!B217,Patient4_Healthy!B217,Patient5_Healthy!B217,Patient6_Healthy!B217)</f>
+        <v>0.1700325824343617</v>
+      </c>
+      <c r="D218" s="29">
+        <f>AVERAGE(Patient1_Healthy!C233,Patient2_Healthy!C233,Patient3_Healthy!C217,Patient4_Healthy!C217,Patient5_Healthy!C217,Patient6_Healthy!C217)</f>
+        <v>-3.4356234924802034E-3</v>
+      </c>
+      <c r="E218" s="33">
+        <f>STDEV(Patient1_Healthy!C233,Patient2_Healthy!C233,Patient3_Healthy!C217,Patient4_Healthy!C217,Patient5_Healthy!C217,Patient6_Healthy!C217)</f>
+        <v>4.2290999880868228E-2</v>
+      </c>
+      <c r="F218" s="29">
+        <f>AVERAGE(Patient1_Healthy!D233,Patient2_Healthy!D233,Patient3_Healthy!D217,Patient4_Healthy!D217,Patient5_Healthy!D217,Patient6_Healthy!D217)</f>
+        <v>-7.1203807462885439E-3</v>
+      </c>
+      <c r="G218" s="29">
+        <f>STDEV(Patient1_Healthy!D233,Patient2_Healthy!D233,Patient3_Healthy!D217,Patient4_Healthy!D217,Patient5_Healthy!D217,Patient6_Healthy!D217)</f>
+        <v>4.6185656807831578E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="29">
+        <f>AVERAGE(Patient1_Healthy!B234,Patient2_Healthy!B234,Patient3_Healthy!B218,Patient4_Healthy!B218,Patient5_Healthy!B218,Patient6_Healthy!B218)</f>
+        <v>5.8488030323562172E-3</v>
+      </c>
+      <c r="C219" s="29">
+        <f>STDEV(Patient1_Healthy!B234,Patient2_Healthy!B234,Patient3_Healthy!B218,Patient4_Healthy!B218,Patient5_Healthy!B218,Patient6_Healthy!B218)</f>
+        <v>0.15951924824179753</v>
+      </c>
+      <c r="D219" s="29">
+        <f>AVERAGE(Patient1_Healthy!C234,Patient2_Healthy!C234,Patient3_Healthy!C218,Patient4_Healthy!C218,Patient5_Healthy!C218,Patient6_Healthy!C218)</f>
+        <v>-1.3263326095250058E-2</v>
+      </c>
+      <c r="E219" s="33">
+        <f>STDEV(Patient1_Healthy!C234,Patient2_Healthy!C234,Patient3_Healthy!C218,Patient4_Healthy!C218,Patient5_Healthy!C218,Patient6_Healthy!C218)</f>
+        <v>6.0626569854572779E-2</v>
+      </c>
+      <c r="F219" s="29">
+        <f>AVERAGE(Patient1_Healthy!D234,Patient2_Healthy!D234,Patient3_Healthy!D218,Patient4_Healthy!D218,Patient5_Healthy!D218,Patient6_Healthy!D218)</f>
+        <v>-2.1723446135035848E-2</v>
+      </c>
+      <c r="G219" s="29">
+        <f>STDEV(Patient1_Healthy!D234,Patient2_Healthy!D234,Patient3_Healthy!D218,Patient4_Healthy!D218,Patient5_Healthy!D218,Patient6_Healthy!D218)</f>
+        <v>6.2627228998238374E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="29">
+        <f>AVERAGE(Patient1_Healthy!B235,Patient2_Healthy!B235,Patient3_Healthy!B219,Patient4_Healthy!B219,Patient5_Healthy!B219,Patient6_Healthy!B219)</f>
+        <v>6.6518610267567738E-2</v>
+      </c>
+      <c r="C220" s="29">
+        <f>STDEV(Patient1_Healthy!B235,Patient2_Healthy!B235,Patient3_Healthy!B219,Patient4_Healthy!B219,Patient5_Healthy!B219,Patient6_Healthy!B219)</f>
+        <v>5.3739208264346645E-2</v>
+      </c>
+      <c r="D220" s="29">
+        <f>AVERAGE(Patient1_Healthy!C235,Patient2_Healthy!C235,Patient3_Healthy!C219,Patient4_Healthy!C219,Patient5_Healthy!C219,Patient6_Healthy!C219)</f>
+        <v>7.5620624278505558E-3</v>
+      </c>
+      <c r="E220" s="33">
+        <f>STDEV(Patient1_Healthy!C235,Patient2_Healthy!C235,Patient3_Healthy!C219,Patient4_Healthy!C219,Patient5_Healthy!C219,Patient6_Healthy!C219)</f>
+        <v>7.238947202587713E-2</v>
+      </c>
+      <c r="F220" s="29">
+        <f>AVERAGE(Patient1_Healthy!D235,Patient2_Healthy!D235,Patient3_Healthy!D219,Patient4_Healthy!D219,Patient5_Healthy!D219,Patient6_Healthy!D219)</f>
+        <v>6.7182609376471546E-3</v>
+      </c>
+      <c r="G220" s="29">
+        <f>STDEV(Patient1_Healthy!D235,Patient2_Healthy!D235,Patient3_Healthy!D219,Patient4_Healthy!D219,Patient5_Healthy!D219,Patient6_Healthy!D219)</f>
+        <v>7.4555910021801078E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="34"/>
+      <c r="B223" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" s="38"/>
+      <c r="D223" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E223" s="38"/>
+      <c r="F223" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G223" s="40"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C224" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D224" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E224" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="F224" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G224" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225">
+        <f>AVERAGE(Patient1_Healthy!B240,Patient2_Healthy!B240,Patient3_Healthy!B224,Patient4_Healthy!B224,Patient5_Healthy!B224,Patient6_Healthy!B224)</f>
+        <v>9.5351518156409229E-2</v>
+      </c>
+      <c r="C225">
+        <f>STDEV(Patient1_Healthy!B240,Patient2_Healthy!B240,Patient3_Healthy!B224,Patient4_Healthy!B224,Patient5_Healthy!B224,Patient6_Healthy!B224)</f>
+        <v>0.25126292812536438</v>
+      </c>
+      <c r="D225" s="26">
+        <f>AVERAGE(Patient1_Healthy!C240,Patient2_Healthy!C240,Patient3_Healthy!C224,Patient4_Healthy!C224,Patient5_Healthy!C224,Patient6_Healthy!C224)</f>
+        <v>0.10862850101348735</v>
+      </c>
+      <c r="E225" s="33">
+        <f>STDEV(Patient1_Healthy!C240,Patient2_Healthy!C240,Patient3_Healthy!C224,Patient4_Healthy!C224,Patient5_Healthy!C224,Patient6_Healthy!C224)</f>
+        <v>0.16845500255256315</v>
+      </c>
+      <c r="F225" s="29">
+        <f>AVERAGE(Patient1_Healthy!D240,Patient2_Healthy!D240,Patient3_Healthy!D224,Patient4_Healthy!D224,Patient5_Healthy!D224,Patient6_Healthy!D224)</f>
+        <v>2.7180416539745362E-2</v>
+      </c>
+      <c r="G225" s="29">
+        <f>STDEV(Patient1_Healthy!D240,Patient2_Healthy!D240,Patient3_Healthy!D224,Patient4_Healthy!D224,Patient5_Healthy!D224,Patient6_Healthy!D224)</f>
+        <v>8.1630295412867093E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B226" s="29">
+        <f>AVERAGE(Patient1_Healthy!B241,Patient2_Healthy!B241,Patient3_Healthy!B225,Patient4_Healthy!B225,Patient5_Healthy!B225,Patient6_Healthy!B225)</f>
+        <v>5.3513392790882706E-2</v>
+      </c>
+      <c r="C226" s="29">
+        <f>STDEV(Patient1_Healthy!B241,Patient2_Healthy!B241,Patient3_Healthy!B225,Patient4_Healthy!B225,Patient5_Healthy!B225,Patient6_Healthy!B225)</f>
+        <v>0.1985839474067243</v>
+      </c>
+      <c r="D226" s="26">
+        <f>AVERAGE(Patient1_Healthy!C241,Patient2_Healthy!C241,Patient3_Healthy!C225,Patient4_Healthy!C225,Patient5_Healthy!C225,Patient6_Healthy!C225)</f>
+        <v>7.7822920337069987E-2</v>
+      </c>
+      <c r="E226" s="33">
+        <f>STDEV(Patient1_Healthy!C241,Patient2_Healthy!C241,Patient3_Healthy!C225,Patient4_Healthy!C225,Patient5_Healthy!C225,Patient6_Healthy!C225)</f>
+        <v>0.10177681921604018</v>
+      </c>
+      <c r="F226" s="29">
+        <f>AVERAGE(Patient1_Healthy!D241,Patient2_Healthy!D241,Patient3_Healthy!D225,Patient4_Healthy!D225,Patient5_Healthy!D225,Patient6_Healthy!D225)</f>
+        <v>7.0728139273195821E-3</v>
+      </c>
+      <c r="G226" s="29">
+        <f>STDEV(Patient1_Healthy!D241,Patient2_Healthy!D241,Patient3_Healthy!D225,Patient4_Healthy!D225,Patient5_Healthy!D225,Patient6_Healthy!D225)</f>
+        <v>0.10608035835420981</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" s="29">
+        <f>AVERAGE(Patient1_Healthy!B242,Patient2_Healthy!B242,Patient3_Healthy!B226,Patient4_Healthy!B226,Patient5_Healthy!B226,Patient6_Healthy!B226)</f>
+        <v>0.1428749964393943</v>
+      </c>
+      <c r="C227" s="29">
+        <f>STDEV(Patient1_Healthy!B242,Patient2_Healthy!B242,Patient3_Healthy!B226,Patient4_Healthy!B226,Patient5_Healthy!B226,Patient6_Healthy!B226)</f>
+        <v>0.29987160710489796</v>
+      </c>
+      <c r="D227" s="26">
+        <f>AVERAGE(Patient1_Healthy!C242,Patient2_Healthy!C242,Patient3_Healthy!C226,Patient4_Healthy!C226,Patient5_Healthy!C226,Patient6_Healthy!C226)</f>
+        <v>9.2941618657354494E-2</v>
+      </c>
+      <c r="E227" s="33">
+        <f>STDEV(Patient1_Healthy!C242,Patient2_Healthy!C242,Patient3_Healthy!C226,Patient4_Healthy!C226,Patient5_Healthy!C226,Patient6_Healthy!C226)</f>
+        <v>0.11701560761764238</v>
+      </c>
+      <c r="F227" s="29">
+        <f>AVERAGE(Patient1_Healthy!D242,Patient2_Healthy!D242,Patient3_Healthy!D226,Patient4_Healthy!D226,Patient5_Healthy!D226,Patient6_Healthy!D226)</f>
+        <v>3.7511161667873084E-2</v>
+      </c>
+      <c r="G227" s="29">
+        <f>STDEV(Patient1_Healthy!D242,Patient2_Healthy!D242,Patient3_Healthy!D226,Patient4_Healthy!D226,Patient5_Healthy!D226,Patient6_Healthy!D226)</f>
+        <v>6.5605924731130943E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" s="29">
+        <f>AVERAGE(Patient1_Healthy!B243,Patient2_Healthy!B243,Patient3_Healthy!B227,Patient4_Healthy!B227,Patient5_Healthy!B227,Patient6_Healthy!B227)</f>
+        <v>0.1305905358036191</v>
+      </c>
+      <c r="C228" s="29">
+        <f>STDEV(Patient1_Healthy!B243,Patient2_Healthy!B243,Patient3_Healthy!B227,Patient4_Healthy!B227,Patient5_Healthy!B227,Patient6_Healthy!B227)</f>
+        <v>0.372267927019448</v>
+      </c>
+      <c r="D228" s="26">
+        <f>AVERAGE(Patient1_Healthy!C243,Patient2_Healthy!C243,Patient3_Healthy!C227,Patient4_Healthy!C227,Patient5_Healthy!C227,Patient6_Healthy!C227)</f>
+        <v>0.16280696748836784</v>
+      </c>
+      <c r="E228" s="33">
+        <f>STDEV(Patient1_Healthy!C243,Patient2_Healthy!C243,Patient3_Healthy!C227,Patient4_Healthy!C227,Patient5_Healthy!C227,Patient6_Healthy!C227)</f>
+        <v>0.19677848129070674</v>
+      </c>
+      <c r="F228" s="29">
+        <f>AVERAGE(Patient1_Healthy!D243,Patient2_Healthy!D243,Patient3_Healthy!D227,Patient4_Healthy!D227,Patient5_Healthy!D227,Patient6_Healthy!D227)</f>
+        <v>5.168448173346029E-2</v>
+      </c>
+      <c r="G228" s="29">
+        <f>STDEV(Patient1_Healthy!D243,Patient2_Healthy!D243,Patient3_Healthy!D227,Patient4_Healthy!D227,Patient5_Healthy!D227,Patient6_Healthy!D227)</f>
+        <v>0.16242318348490103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="81">
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="Q98:R98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="Q111:R111"/>
+    <mergeCell ref="S111:T111"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="F199:G199"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="F223:G223"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="F215:G215"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>